--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/WhiteSky/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D3C791-599E-314F-82FD-8A7B2EFEA7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D73B13-C1F1-D741-B3CF-A291F6A6B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Supplemental" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,10 +40,21 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={EA91E9BC-F50A-C844-B437-6171E2E9971E}</author>
     <author>tc={CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}</author>
   </authors>
   <commentList>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{EA91E9BC-F50A-C844-B437-6171E2E9971E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Solumatrix 
+OXYADO
+Gralize (Sold 10 Jan 20 to Alvogen, -$165k sales reserve estimate adjustment </t>
+      </text>
+    </comment>
+    <comment ref="AA17" authorId="1" shapeId="0" xr:uid="{CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>Assertio Holdings</t>
   </si>
@@ -404,6 +415,66 @@
   </si>
   <si>
     <t>ASRT</t>
+  </si>
+  <si>
+    <t>Q119A</t>
+  </si>
+  <si>
+    <t>Q219A</t>
+  </si>
+  <si>
+    <t>Q319A</t>
+  </si>
+  <si>
+    <t>Q419A</t>
+  </si>
+  <si>
+    <t>Q120A</t>
+  </si>
+  <si>
+    <t>Q220A</t>
+  </si>
+  <si>
+    <t>Q320A</t>
+  </si>
+  <si>
+    <t>Q420A</t>
+  </si>
+  <si>
+    <t>Q121A</t>
+  </si>
+  <si>
+    <t>Q221A</t>
+  </si>
+  <si>
+    <t>Q321A</t>
+  </si>
+  <si>
+    <t>Q421A</t>
+  </si>
+  <si>
+    <t>Q122A</t>
+  </si>
+  <si>
+    <t>Q222A</t>
+  </si>
+  <si>
+    <t>Q322A</t>
+  </si>
+  <si>
+    <t>Q422A</t>
+  </si>
+  <si>
+    <t>Q123E</t>
+  </si>
+  <si>
+    <t>Q223E</t>
+  </si>
+  <si>
+    <t>Q323E</t>
+  </si>
+  <si>
+    <t>Q423E</t>
   </si>
 </sst>
 </file>
@@ -453,11 +524,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,7 +848,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F16" dT="2023-04-29T18:21:13.72" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}">
+  <threadedComment ref="G13" dT="2023-04-30T14:54:47.51" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{EA91E9BC-F50A-C844-B437-6171E2E9971E}">
+    <text xml:space="preserve">Solumatrix 
+OXYADO
+Gralize (Sold 10 Jan 20 to Alvogen, -$165k sales reserve estimate adjustment </text>
+  </threadedComment>
+  <threadedComment ref="AA17" dT="2023-04-29T18:21:13.72" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}">
     <text>Net Commercialization Agreement Revenue</text>
   </threadedComment>
 </ThreadedComments>
@@ -786,13 +861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E728-CC88-2348-9F72-CF7ED1FD26A7}">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A2:AH138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,1360 +875,1531 @@
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G7">
+        <v>5434</v>
+      </c>
+      <c r="AA7">
         <v>31684</v>
       </c>
-      <c r="G6">
+      <c r="AB7">
         <v>60557</v>
       </c>
-      <c r="H6">
+      <c r="AC7">
         <v>100338</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="AC8">
         <v>11148</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="AC9">
         <v>1768</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="G10">
+        <v>1602</v>
+      </c>
+      <c r="AA10">
         <v>11077</v>
       </c>
-      <c r="G9">
+      <c r="AB10">
         <v>8676</v>
       </c>
-      <c r="H9">
+      <c r="AC10">
         <v>9110</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="B11">
+        <f>15566-C11</f>
+        <v>8808</v>
+      </c>
+      <c r="C11">
+        <v>6758</v>
+      </c>
+      <c r="F11">
+        <f>14054-G11</f>
+        <v>6274</v>
+      </c>
+      <c r="G11">
+        <v>7780</v>
+      </c>
+      <c r="Z11">
         <v>32453</v>
       </c>
-      <c r="F10">
+      <c r="AA11">
         <v>28350</v>
       </c>
-      <c r="G10">
+      <c r="AB11">
         <v>24972</v>
       </c>
-      <c r="H10">
+      <c r="AC11">
         <v>24720</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="B12">
+        <f>5755-C12</f>
+        <v>4231</v>
+      </c>
+      <c r="C12">
+        <v>1524</v>
+      </c>
+      <c r="F12">
+        <f>5866-G12</f>
+        <v>2331</v>
+      </c>
+      <c r="G12">
+        <v>3535</v>
+      </c>
+      <c r="Z12">
         <v>12498</v>
       </c>
-      <c r="F11">
+      <c r="AA12">
         <v>13286</v>
       </c>
-      <c r="G11">
+      <c r="AB12">
         <v>10185</v>
       </c>
-      <c r="H11">
+      <c r="AC12">
         <v>3364</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="B13">
+        <f>31078-C13+-12</f>
+        <v>13411</v>
+      </c>
+      <c r="C13">
+        <f>17800-145</f>
+        <v>17655</v>
+      </c>
+      <c r="F13">
+        <f>836+517+431+677-G13</f>
+        <v>647</v>
+      </c>
+      <c r="G13">
+        <f>836+517+-116+577</f>
+        <v>1814</v>
+      </c>
+      <c r="Z13">
         <v>63855</v>
       </c>
-      <c r="F12">
+      <c r="AA13">
         <v>9101</v>
       </c>
-      <c r="G12">
+      <c r="AB13">
         <v>5030</v>
       </c>
-      <c r="H12">
+      <c r="AC13">
         <v>4673</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="E13">
-        <f>E6+E7+E8+E9+E10+E11+E12</f>
+      <c r="B14">
+        <f>B7+B8+B9+B10+B11+B12+B13</f>
+        <v>26450</v>
+      </c>
+      <c r="C14">
+        <f>C7+C8+C9+C10+C11+C12+C13</f>
+        <v>25937</v>
+      </c>
+      <c r="F14">
+        <f>F7+F8+F9+F10+F11+F12+F13</f>
+        <v>9252</v>
+      </c>
+      <c r="G14">
+        <f>G7+G8+G9+G10+G11+G12+G13</f>
+        <v>20165</v>
+      </c>
+      <c r="Z14">
+        <f>Z7+Z8+Z9+Z10+Z11+Z12+Z13</f>
         <v>108806</v>
       </c>
-      <c r="F13">
-        <f>F6+F7+F8+F9+F10+F11+F12</f>
+      <c r="AA14">
+        <f>AA7+AA8+AA9+AA10+AA11+AA12+AA13</f>
         <v>93498</v>
       </c>
-      <c r="G13">
-        <f>G6+G7+G8+G9+G10+G11+G12</f>
+      <c r="AB14">
+        <f>AB7+AB8+AB9+AB10+AB11+AB12+AB13</f>
         <v>109420</v>
       </c>
-      <c r="H13">
-        <f>H6+H7+H8+H9+H10+H11+H12</f>
+      <c r="AC14">
+        <f>AC7+AC8+AC9+AC10+AC11+AC12+AC13</f>
         <v>155121</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="B16">
+        <f>886-C16</f>
+        <v>623</v>
+      </c>
+      <c r="C16">
+        <v>263</v>
+      </c>
+      <c r="F16">
+        <f>859-G16</f>
+        <v>407</v>
+      </c>
+      <c r="G16">
+        <v>452</v>
+      </c>
+      <c r="Z16">
         <v>2084</v>
       </c>
-      <c r="F15">
+      <c r="AA16">
         <v>1519</v>
       </c>
-      <c r="G15">
+      <c r="AB16">
         <v>2579</v>
       </c>
-      <c r="H15">
+      <c r="AC16">
         <v>2403</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="B17">
+        <f>61859-C17</f>
+        <v>30856</v>
+      </c>
+      <c r="C17">
+        <v>31003</v>
+      </c>
+      <c r="Z17">
         <v>118614</v>
       </c>
-      <c r="F16">
+      <c r="AA17">
         <v>11258</v>
       </c>
-      <c r="G16">
+      <c r="AB17">
         <v>-985</v>
       </c>
-      <c r="H16">
+      <c r="AC17">
         <v>-1290</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
-        <f>E13+E16+E15</f>
+      <c r="B18">
+        <f>B17+B16+B14</f>
+        <v>57929</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:G18" si="0">C17+C16+C14</f>
+        <v>57203</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>9659</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>20617</v>
+      </c>
+      <c r="Z18">
+        <f>Z14+Z17+Z16</f>
         <v>229504</v>
       </c>
-      <c r="F17">
-        <f>F13+F16+F15</f>
+      <c r="AA18">
+        <f>AA14+AA17+AA16</f>
         <v>106275</v>
       </c>
-      <c r="G17">
-        <f>G13+G16+G15</f>
+      <c r="AB18">
+        <f>AB14+AB17+AB16</f>
         <v>111014</v>
       </c>
-      <c r="H17">
-        <f>H13+H16+H15</f>
+      <c r="AC18">
+        <f>AC14+AC17+AC16</f>
         <v>156234</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="E21">
-        <f>E13</f>
+      <c r="Z22">
+        <f>Z14</f>
         <v>108806</v>
       </c>
-      <c r="F21">
-        <f>F13</f>
+      <c r="AA22">
+        <f>AA14</f>
         <v>93498</v>
       </c>
-      <c r="G21">
-        <f>G13</f>
+      <c r="AB22">
+        <f>AB14</f>
         <v>109420</v>
       </c>
-      <c r="H21">
-        <f>H13</f>
+      <c r="AC22">
+        <f>AC14</f>
         <v>155121</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
-        <f>E15</f>
+      <c r="Z23">
+        <f t="shared" ref="Z23:AC24" si="1">Z16</f>
         <v>2084</v>
       </c>
-      <c r="F22">
-        <f>F15</f>
+      <c r="AA23">
+        <f t="shared" si="1"/>
         <v>1519</v>
       </c>
-      <c r="G22">
-        <f>G15</f>
+      <c r="AB23">
+        <f t="shared" si="1"/>
         <v>2579</v>
       </c>
-      <c r="H22">
-        <f>H15</f>
+      <c r="AC23">
+        <f t="shared" si="1"/>
         <v>2403</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
-        <f>E16</f>
+      <c r="Z24">
+        <f t="shared" si="1"/>
         <v>118614</v>
       </c>
-      <c r="F23">
-        <f>F16</f>
+      <c r="AA24">
+        <f t="shared" si="1"/>
         <v>11258</v>
       </c>
-      <c r="G23">
-        <f>G16</f>
+      <c r="AB24">
+        <f t="shared" si="1"/>
         <v>-985</v>
       </c>
-      <c r="H23">
-        <f>H16</f>
+      <c r="AC24">
+        <f t="shared" si="1"/>
         <v>-1290</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="E24">
-        <f>E23+E22+E21</f>
+      <c r="Z25">
+        <f>Z24+Z23+Z22</f>
         <v>229504</v>
       </c>
-      <c r="F24">
-        <f>F23+F22+F21</f>
+      <c r="AA25">
+        <f>AA24+AA23+AA22</f>
         <v>106275</v>
       </c>
-      <c r="G24">
-        <f>G23+G22+G21</f>
+      <c r="AB25">
+        <f>AB24+AB23+AB22</f>
         <v>111014</v>
       </c>
-      <c r="H24">
-        <f>H23+H22+H21</f>
+      <c r="AC25">
+        <f>AC24+AC23+AC22</f>
         <v>156234</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>110</v>
       </c>
-      <c r="E26">
+      <c r="Z27">
         <v>9505</v>
       </c>
-      <c r="F26">
+      <c r="AA27">
         <v>19872</v>
       </c>
-      <c r="G26">
+      <c r="AB27">
         <v>15832</v>
       </c>
-      <c r="H26">
+      <c r="AC27">
         <v>18748</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="E27">
-        <f>E24-E26</f>
+      <c r="Z28">
+        <f>Z25-Z27</f>
         <v>219999</v>
       </c>
-      <c r="F27">
-        <f>F24-F26</f>
+      <c r="AA28">
+        <f>AA25-AA27</f>
         <v>86403</v>
       </c>
-      <c r="G27">
-        <f>G24-G26</f>
+      <c r="AB28">
+        <f>AB25-AB27</f>
         <v>95182</v>
       </c>
-      <c r="H27">
-        <f>H24-H26</f>
+      <c r="AC28">
+        <f>AC25-AC27</f>
         <v>137486</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>109</v>
       </c>
-      <c r="E28">
+      <c r="Z29">
         <v>10106</v>
       </c>
-      <c r="F28">
+      <c r="AA29">
         <v>4213</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="E29">
+      <c r="Z30">
         <v>108866</v>
       </c>
-      <c r="F29">
+      <c r="AA30">
         <v>104324</v>
       </c>
-      <c r="G29">
+      <c r="AB30">
         <v>52641</v>
       </c>
-      <c r="H29">
+      <c r="AC30">
         <v>46786</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>111</v>
       </c>
-      <c r="E30">
+      <c r="Z31">
         <v>189790</v>
       </c>
-      <c r="F30">
+      <c r="AA31">
         <v>17432</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="G31">
+      <c r="AB32">
         <v>3914</v>
       </c>
-      <c r="H31">
+      <c r="AC32">
         <v>18687</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="Z33">
         <v>101774</v>
       </c>
-      <c r="F32">
+      <c r="AA33">
         <v>24783</v>
       </c>
-      <c r="G32">
+      <c r="AB33">
         <v>28114</v>
       </c>
-      <c r="H32">
+      <c r="AC33">
         <v>32608</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="E33">
+      <c r="Z34">
         <v>3891</v>
       </c>
-      <c r="F33">
+      <c r="AA34">
         <v>17806</v>
       </c>
-      <c r="G33">
+      <c r="AB34">
         <v>1089</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E34">
-        <f>E27-E29-E31-E32-E33-E30-E28</f>
+      <c r="Z35">
+        <f>Z28-Z30-Z32-Z33-Z34-Z31-Z29</f>
         <v>-194428</v>
       </c>
-      <c r="F34">
-        <f>F27-F29-F31-F32-F33-F30-F28</f>
+      <c r="AA35">
+        <f>AA28-AA30-AA32-AA33-AA34-AA31-AA29</f>
         <v>-82155</v>
       </c>
-      <c r="G34">
-        <f t="shared" ref="G34:H34" si="0">G27-G29-G31-G32-G33-G30-G28</f>
+      <c r="AB35">
+        <f t="shared" ref="AB35:AC35" si="2">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
         <v>9424</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
+      <c r="AC35">
+        <f t="shared" si="2"/>
         <v>39405</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>112</v>
       </c>
-      <c r="F37">
+      <c r="AA38">
         <v>126655</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="E38">
+      <c r="Z39">
         <v>26385</v>
       </c>
-      <c r="F38">
+      <c r="AA39">
         <v>-56113</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="F39">
+      <c r="AA40">
         <v>-14749</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="E40">
+      <c r="Z41">
         <v>-58389</v>
       </c>
-      <c r="F40">
+      <c r="AA41">
         <v>-15926</v>
       </c>
-      <c r="G40">
+      <c r="AB41">
         <v>-10220</v>
       </c>
-      <c r="H40">
+      <c r="AC41">
         <v>-7961</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>23</v>
       </c>
-      <c r="E41">
+      <c r="Z42">
         <v>3948</v>
       </c>
-      <c r="F41">
+      <c r="AA42">
         <v>-3225</v>
       </c>
-      <c r="G41">
+      <c r="AB42">
         <v>243</v>
       </c>
-      <c r="H41">
+      <c r="AC42">
         <v>-278</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>24</v>
       </c>
-      <c r="E42">
-        <f>E41+E40</f>
+      <c r="Z43">
+        <f>Z42+Z41</f>
         <v>-54441</v>
       </c>
-      <c r="F42">
-        <f>F41+F40</f>
+      <c r="AA43">
+        <f>AA42+AA41</f>
         <v>-19151</v>
       </c>
-      <c r="G42">
-        <f>G41+G40</f>
+      <c r="AB43">
+        <f>AB42+AB41</f>
         <v>-9977</v>
       </c>
-      <c r="H42">
-        <f>H41+H40</f>
+      <c r="AC43">
+        <f>AC42+AC41</f>
         <v>-8239</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E43">
-        <f>E34+E42</f>
+      <c r="Z44">
+        <f>Z35+Z43</f>
         <v>-248869</v>
       </c>
-      <c r="F43">
-        <f>F34+F42</f>
+      <c r="AA44">
+        <f>AA35+AA43</f>
         <v>-101306</v>
       </c>
-      <c r="G43">
-        <f>G34+G42</f>
+      <c r="AB44">
+        <f>AB35+AB43</f>
         <v>-553</v>
       </c>
-      <c r="H43">
-        <f>H34+H42</f>
+      <c r="AC44">
+        <f>AC35+AC43</f>
         <v>31166</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="E45">
+      <c r="Z46">
         <v>5283</v>
       </c>
-      <c r="F45">
+      <c r="AA46">
         <v>17369</v>
       </c>
-      <c r="G45">
+      <c r="AB46">
         <v>-728</v>
       </c>
-      <c r="H45">
+      <c r="AC46">
         <v>78459</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="3">
-        <f>E43+E45</f>
+      <c r="Z47">
+        <f>Z44+Z46</f>
         <v>-243586</v>
       </c>
-      <c r="F46" s="3">
-        <f>F43+F45</f>
+      <c r="AA47">
+        <f>AA44+AA46</f>
         <v>-83937</v>
       </c>
-      <c r="G46" s="3">
-        <f>G43+G45</f>
+      <c r="AB47">
+        <f>AB44+AB46</f>
         <v>-1281</v>
       </c>
-      <c r="H46" s="3">
-        <f>H43+H45</f>
+      <c r="AC47">
+        <f>AC44+AC46</f>
         <v>109625</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="2">
-        <f>E46/E50</f>
+      <c r="Z49" s="2">
+        <f>Z47/Z51</f>
         <v>-3.4445670003959501</v>
       </c>
-      <c r="F48" s="2">
-        <f>F46/F50</f>
+      <c r="AA49" s="2">
+        <f>AA47/AA51</f>
         <v>-0.80065817713549869</v>
       </c>
-      <c r="G48" s="2">
-        <f>G46/G50</f>
+      <c r="AB49" s="2">
+        <f>AB47/AB51</f>
         <v>-2.9674071671801524E-2</v>
       </c>
-      <c r="H48" s="2">
-        <f>H46/H50</f>
+      <c r="AC49" s="2">
+        <f>AC47/AC51</f>
         <v>2.332248319291975</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="2">
-        <f>E46/E51</f>
+      <c r="Z50" s="2">
+        <f>Z47/Z52</f>
         <v>-3.4445670003959501</v>
       </c>
-      <c r="F49" s="2">
-        <f>F46/F51</f>
+      <c r="AA50" s="2">
+        <f>AA47/AA52</f>
         <v>-0.80065817713549869</v>
       </c>
-      <c r="G49" s="2">
-        <f>G46/G51</f>
+      <c r="AB50" s="2">
+        <f>AB47/AB52</f>
         <v>-2.9674071671801524E-2</v>
       </c>
-      <c r="H49" s="2">
-        <f>H46/H51</f>
+      <c r="AC50" s="2">
+        <f>AC47/AC52</f>
         <v>2.0052497759241983</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>28</v>
       </c>
-      <c r="E50">
+      <c r="Z51">
         <v>70716</v>
       </c>
-      <c r="F50">
+      <c r="AA51">
         <v>104835</v>
       </c>
-      <c r="G50">
+      <c r="AB51">
         <v>43169</v>
       </c>
-      <c r="H50">
+      <c r="AC51">
         <v>47004</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>29</v>
       </c>
-      <c r="E51">
+      <c r="Z52">
         <v>70716</v>
       </c>
-      <c r="F51">
+      <c r="AA52">
         <v>104835</v>
       </c>
-      <c r="G51">
+      <c r="AB52">
         <v>43169</v>
       </c>
-      <c r="H51">
+      <c r="AC52">
         <v>54669</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>36</v>
       </c>
-      <c r="G58">
+      <c r="AB59">
         <v>36810</v>
       </c>
-      <c r="H58">
+      <c r="AC59">
         <v>64941</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>37</v>
       </c>
-      <c r="G59">
+      <c r="AB60">
         <v>44361</v>
       </c>
-      <c r="H59">
+      <c r="AC60">
         <v>45357</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>38</v>
       </c>
-      <c r="G60">
+      <c r="AB61">
         <v>7489</v>
       </c>
-      <c r="H60">
+      <c r="AC61">
         <v>13696</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>39</v>
       </c>
-      <c r="G61">
+      <c r="AB62">
         <v>14838</v>
       </c>
-      <c r="H61">
+      <c r="AC62">
         <v>8268</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>40</v>
       </c>
-      <c r="G62">
-        <f>G58+G59+G60+G61</f>
+      <c r="AB63">
+        <f>AB59+AB60+AB61+AB62</f>
         <v>103498</v>
       </c>
-      <c r="H62">
-        <f>H58+H59+H60+H61</f>
+      <c r="AC63">
+        <f>AC59+AC60+AC61+AC62</f>
         <v>132262</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>41</v>
       </c>
-      <c r="G64">
+      <c r="AB65">
         <v>1527</v>
       </c>
-      <c r="H64">
+      <c r="AC65">
         <v>744</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>42</v>
       </c>
-      <c r="G65">
+      <c r="AB66">
         <v>216054</v>
       </c>
-      <c r="H65">
+      <c r="AC66">
         <v>197996</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>43</v>
       </c>
-      <c r="H66">
+      <c r="AC67">
         <v>80202</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>44</v>
       </c>
-      <c r="G67">
+      <c r="AB68">
         <v>5468</v>
       </c>
-      <c r="H67">
+      <c r="AC68">
         <v>2709</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>45</v>
       </c>
-      <c r="G68">
-        <f>G62+G64+G65+G66+G67</f>
+      <c r="AB69">
+        <f>AB63+AB65+AB66+AB67+AB68</f>
         <v>326547</v>
       </c>
-      <c r="H68">
-        <f>H62+H64+H65+H66+H67</f>
+      <c r="AC69">
+        <f>AC63+AC65+AC66+AC67+AC68</f>
         <v>413913</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>47</v>
       </c>
-      <c r="G71">
+      <c r="AB72">
         <v>6685</v>
       </c>
-      <c r="H71">
+      <c r="AC72">
         <v>5991</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>48</v>
       </c>
-      <c r="G72">
+      <c r="AB73">
         <v>52662</v>
       </c>
-      <c r="H72">
+      <c r="AC73">
         <v>49426</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>49</v>
       </c>
-      <c r="G73">
+      <c r="AB74">
         <v>14699</v>
       </c>
-      <c r="H73">
+      <c r="AC74">
         <v>12181</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>50</v>
       </c>
-      <c r="G74">
+      <c r="AB75">
         <v>12174</v>
       </c>
-      <c r="H74">
+      <c r="AC75">
         <v>470</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>51</v>
       </c>
-      <c r="G75">
+      <c r="AB76">
         <v>14500</v>
       </c>
-      <c r="H75">
+      <c r="AC76">
         <v>26300</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>52</v>
       </c>
-      <c r="G76">
+      <c r="AB77">
         <v>34299</v>
       </c>
-      <c r="H76">
+      <c r="AC77">
         <v>948</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>53</v>
       </c>
-      <c r="G77">
-        <f>G71+G72+G73+G74+G75+G76</f>
+      <c r="AB78">
+        <f>AB72+AB73+AB74+AB75+AB76+AB77</f>
         <v>135019</v>
       </c>
-      <c r="H77">
-        <f>H71+H72+H73+H74+H75+H76</f>
+      <c r="AC78">
+        <f>AC72+AC73+AC74+AC75+AC76+AC77</f>
         <v>95316</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>54</v>
       </c>
-      <c r="G79">
+      <c r="AB80">
         <v>61319</v>
       </c>
-      <c r="H79">
+      <c r="AC80">
         <v>66403</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>55</v>
       </c>
-      <c r="G80">
+      <c r="AB81">
         <v>23159</v>
       </c>
-      <c r="H80">
+      <c r="AC81">
         <v>22200</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>56</v>
       </c>
-      <c r="G81">
+      <c r="AB82">
         <v>4636</v>
       </c>
-      <c r="H81">
+      <c r="AC82">
         <v>4269</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>57</v>
       </c>
-      <c r="G82">
-        <f>G77+G79+G80+G81</f>
+      <c r="AB83">
+        <f>AB78+AB80+AB81+AB82</f>
         <v>224133</v>
       </c>
-      <c r="H82">
-        <f>H77+H79+H80+H81</f>
+      <c r="AC83">
+        <f>AC78+AC80+AC81+AC82</f>
         <v>188188</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>58</v>
       </c>
-      <c r="G84">
+      <c r="AB85">
         <v>4</v>
       </c>
-      <c r="H84">
+      <c r="AC85">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>59</v>
       </c>
-      <c r="G85">
+      <c r="AB86">
         <v>44640444</v>
       </c>
-      <c r="H85">
+      <c r="AC86">
         <v>48319838</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>60</v>
       </c>
-      <c r="G86">
+      <c r="AB87">
         <v>531636</v>
       </c>
-      <c r="H86">
+      <c r="AC87">
         <v>545321</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>61</v>
       </c>
-      <c r="G87">
+      <c r="AB88">
         <v>-429226</v>
       </c>
-      <c r="H87">
+      <c r="AC88">
         <v>-319601</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>62</v>
       </c>
-      <c r="G88">
-        <f>G84+G86+G87</f>
+      <c r="AB89">
+        <f>AB85+AB87+AB88</f>
         <v>102414</v>
       </c>
-      <c r="H88">
-        <f>H84+H86+H87</f>
+      <c r="AC89">
+        <f>AC85+AC87+AC88</f>
         <v>225725</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>63</v>
       </c>
-      <c r="G90">
-        <f>G88+G82</f>
+      <c r="AB91">
+        <f>AB89+AB83</f>
         <v>326547</v>
       </c>
-      <c r="H90">
-        <f>H88+H82</f>
+      <c r="AC91">
+        <f>AC89+AC83</f>
         <v>413913</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>64</v>
       </c>
-      <c r="G91">
-        <f>G90-G68</f>
+      <c r="AB92">
+        <f>AB91-AB69</f>
         <v>0</v>
       </c>
-      <c r="H91">
-        <f>H90-H68</f>
+      <c r="AC92">
+        <f>AC91-AC69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>27</v>
       </c>
-      <c r="G99">
-        <f>G46</f>
+      <c r="AB100">
+        <f>AB47</f>
         <v>-1281</v>
       </c>
-      <c r="H99">
-        <f>H46</f>
+      <c r="AC100">
+        <f>AC47</f>
         <v>109625</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>68</v>
       </c>
-      <c r="G101">
+      <c r="AB102">
         <v>29077</v>
       </c>
-      <c r="H101">
+      <c r="AC102">
         <v>33396</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>69</v>
       </c>
-      <c r="G102">
+      <c r="AB103">
         <v>194</v>
       </c>
-      <c r="H102">
+      <c r="AC103">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>70</v>
       </c>
-      <c r="H103">
+      <c r="AC104">
         <v>-1046</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>71</v>
       </c>
-      <c r="G104">
+      <c r="AB105">
         <v>3914</v>
       </c>
-      <c r="H104">
+      <c r="AC105">
         <v>18939</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>72</v>
       </c>
-      <c r="G105">
+      <c r="AB106">
         <v>3545</v>
       </c>
-      <c r="H105">
+      <c r="AC106">
         <v>7504</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>73</v>
       </c>
-      <c r="G106">
+      <c r="AB107">
         <v>1368</v>
       </c>
-      <c r="H106">
+      <c r="AC107">
         <v>3265</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>74</v>
       </c>
-      <c r="H107">
+      <c r="AC108">
         <v>-80375</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>76</v>
       </c>
-      <c r="G110">
+      <c r="AB111">
         <v>-11</v>
       </c>
-      <c r="H110">
+      <c r="AC111">
         <v>-996</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>77</v>
       </c>
-      <c r="G111">
+      <c r="AB112">
         <v>4268</v>
       </c>
-      <c r="H111">
+      <c r="AC112">
         <v>-6593</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>78</v>
       </c>
-      <c r="G112">
+      <c r="AB113">
         <v>3600</v>
       </c>
-      <c r="H112">
+      <c r="AC113">
         <v>8019</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>79</v>
       </c>
-      <c r="G113">
+      <c r="AB114">
         <v>-28699</v>
       </c>
-      <c r="H113">
+      <c r="AC114">
         <v>-10208</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>48</v>
       </c>
-      <c r="G114">
+      <c r="AB115">
         <v>-10452</v>
       </c>
-      <c r="H114">
+      <c r="AC115">
         <v>-3236</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G115">
-        <f>G110+G111+G112+G113+G114+G99+G101+G102+G103+G104+G105+G106+G107</f>
+      <c r="AB116">
+        <f>AB111+AB112+AB113+AB114+AB115+AB100+AB102+AB103+AB104+AB105+AB106+AB107+AB108</f>
         <v>5523</v>
       </c>
-      <c r="H115">
-        <f>H110+H111+H112+H113+H114+H99+H101+H102+H103+H104+H105+H106+H107</f>
+      <c r="AC116">
+        <f>AC111+AC112+AC113+AC114+AC115+AC100+AC102+AC103+AC104+AC105+AC106+AC107+AC108</f>
         <v>78598</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>84</v>
       </c>
-      <c r="G118">
+      <c r="AB119">
         <v>-53</v>
       </c>
-      <c r="H118">
+      <c r="AC119">
         <v>-274</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>85</v>
       </c>
-      <c r="G119">
+      <c r="AB120">
         <v>-18472</v>
       </c>
-      <c r="H119">
+      <c r="AC120">
         <v>-27027</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>86</v>
       </c>
-      <c r="H120">
+      <c r="AC121">
         <v>-15372</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G121">
-        <f>G118+G119+G120</f>
+      <c r="AB122">
+        <f>AB119+AB120+AB121</f>
         <v>-18525</v>
       </c>
-      <c r="H121">
-        <f>H118+H119+H120</f>
+      <c r="AC122">
+        <f>AC119+AC120+AC121</f>
         <v>-42673</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>83</v>
       </c>
-      <c r="H124">
+      <c r="AC125">
         <v>70000</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>93</v>
       </c>
-      <c r="G125">
+      <c r="AB126">
         <v>-9500</v>
       </c>
-      <c r="H125">
+      <c r="AC126">
         <v>-70750</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>89</v>
       </c>
-      <c r="H126">
+      <c r="AC127">
         <v>-4084</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>90</v>
       </c>
-      <c r="G127">
+      <c r="AB128">
         <v>-4807</v>
       </c>
-      <c r="H127">
+      <c r="AC128">
         <v>-7845</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>91</v>
       </c>
-      <c r="G128">
+      <c r="AB129">
         <v>-968</v>
       </c>
-      <c r="H128">
+      <c r="AC129">
         <v>-1297</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>92</v>
       </c>
-      <c r="G129">
+      <c r="AB130">
         <v>-335</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>94</v>
       </c>
-      <c r="G130">
+      <c r="AB131">
         <v>44861</v>
       </c>
-      <c r="H130">
+      <c r="AC131">
         <v>7020</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>95</v>
       </c>
-      <c r="G131">
+      <c r="AB132">
         <v>193</v>
       </c>
-      <c r="H131">
+      <c r="AC132">
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>96</v>
       </c>
-      <c r="G132">
+      <c r="AB133">
         <v>-418</v>
       </c>
-      <c r="H132">
+      <c r="AC133">
         <v>-872</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G133">
-        <f>G124+G125+G126+G127+G128+G129+G130+G131+G132</f>
+      <c r="AB134">
+        <f>AB125+AB126+AB127+AB128+AB129+AB130+AB131+AB132+AB133</f>
         <v>29026</v>
       </c>
-      <c r="H133">
-        <f>H124+H125+H126+H127+H128+H129+H130+H131+H132</f>
+      <c r="AC134">
+        <f>AC125+AC126+AC127+AC128+AC129+AC130+AC131+AC132+AC133</f>
         <v>-7794</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G135">
-        <f>G115+G121+G133</f>
+      <c r="AB136">
+        <f>AB116+AB122+AB134</f>
         <v>16024</v>
       </c>
-      <c r="H135">
-        <f>H115+H121+H133</f>
+      <c r="AC136">
+        <f>AC116+AC122+AC134</f>
         <v>28131</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>100</v>
       </c>
     </row>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D73B13-C1F1-D741-B3CF-A291F6A6B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0A16B-F11C-0A46-80D2-16EE93B17BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
   <si>
     <t>Assertio Holdings</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Shareholders' Equity</t>
   </si>
   <si>
-    <t>Common Shares</t>
-  </si>
-  <si>
     <t>Additional Paid-in-capital</t>
   </si>
   <si>
@@ -475,13 +472,19 @@
   </si>
   <si>
     <t>Q423E</t>
+  </si>
+  <si>
+    <t>Common Stock Par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Shares </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,12 +499,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -861,13 +858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E728-CC88-2348-9F72-CF7ED1FD26A7}">
-  <dimension ref="A2:AH138"/>
+  <dimension ref="A2:AH139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,96 +877,96 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>117</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>118</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>120</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>121</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>124</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>125</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>126</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>127</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>128</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>129</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>131</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>132</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>133</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>134</v>
       </c>
-      <c r="U2" t="s">
-        <v>135</v>
-      </c>
       <c r="Z2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC2" t="s">
         <v>12</v>
       </c>
       <c r="AD2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE2" t="s">
         <v>101</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>102</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>103</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>104</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -984,6 +981,12 @@
       <c r="G7">
         <v>5434</v>
       </c>
+      <c r="J7">
+        <v>14597</v>
+      </c>
+      <c r="N7">
+        <v>21357</v>
+      </c>
       <c r="AA7">
         <v>31684</v>
       </c>
@@ -998,6 +1001,9 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
+      <c r="N8">
+        <v>3078</v>
+      </c>
       <c r="AC8">
         <v>11148</v>
       </c>
@@ -1017,6 +1023,12 @@
       <c r="G10">
         <v>1602</v>
       </c>
+      <c r="J10">
+        <v>1697</v>
+      </c>
+      <c r="N10">
+        <v>1766</v>
+      </c>
       <c r="AA10">
         <v>11077</v>
       </c>
@@ -1045,6 +1057,12 @@
       <c r="G11">
         <v>7780</v>
       </c>
+      <c r="J11">
+        <v>6462</v>
+      </c>
+      <c r="N11">
+        <v>5473</v>
+      </c>
       <c r="Z11">
         <v>32453</v>
       </c>
@@ -1076,6 +1094,12 @@
       <c r="G12">
         <v>3535</v>
       </c>
+      <c r="J12">
+        <v>2222</v>
+      </c>
+      <c r="N12">
+        <v>2228</v>
+      </c>
       <c r="Z12">
         <v>12498</v>
       </c>
@@ -1109,6 +1133,12 @@
         <f>836+517+-116+577</f>
         <v>1814</v>
       </c>
+      <c r="J13">
+        <v>1049</v>
+      </c>
+      <c r="N13">
+        <v>1644</v>
+      </c>
       <c r="Z13">
         <v>63855</v>
       </c>
@@ -1142,6 +1172,14 @@
         <f>G7+G8+G9+G10+G11+G12+G13</f>
         <v>20165</v>
       </c>
+      <c r="J14">
+        <f>J7+J8+J9+J10+J11+J12+J13</f>
+        <v>26027</v>
+      </c>
+      <c r="N14">
+        <f>N7+N8+N9+N10+N11+N12+N13</f>
+        <v>35546</v>
+      </c>
       <c r="Z14">
         <f>Z7+Z8+Z9+Z10+Z11+Z12+Z13</f>
         <v>108806</v>
@@ -1177,6 +1215,12 @@
       <c r="G16">
         <v>452</v>
       </c>
+      <c r="J16">
+        <v>434</v>
+      </c>
+      <c r="N16">
+        <v>992</v>
+      </c>
       <c r="Z16">
         <v>2084</v>
       </c>
@@ -1201,6 +1245,9 @@
       <c r="C17">
         <v>31003</v>
       </c>
+      <c r="J17">
+        <v>378</v>
+      </c>
       <c r="Z17">
         <v>118614</v>
       </c>
@@ -1242,6 +1289,14 @@
         <f t="shared" si="0"/>
         <v>20617</v>
       </c>
+      <c r="J18">
+        <f>J14+J17+J16</f>
+        <v>26839</v>
+      </c>
+      <c r="N18">
+        <f>N14+N17+N16</f>
+        <v>36538</v>
+      </c>
       <c r="Z18">
         <f>Z14+Z17+Z16</f>
         <v>229504</v>
@@ -1273,6 +1328,14 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
+      <c r="J22">
+        <f>J14</f>
+        <v>26027</v>
+      </c>
+      <c r="N22">
+        <f>N14</f>
+        <v>35546</v>
+      </c>
       <c r="Z22">
         <f>Z14</f>
         <v>108806</v>
@@ -1294,20 +1357,28 @@
       <c r="A23" t="s">
         <v>16</v>
       </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J24" si="1">J16</f>
+        <v>434</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23" si="2">N16</f>
+        <v>992</v>
+      </c>
       <c r="Z23">
-        <f t="shared" ref="Z23:AC24" si="1">Z16</f>
+        <f t="shared" ref="Z23:AC24" si="3">Z16</f>
         <v>2084</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1519</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2579</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2403</v>
       </c>
     </row>
@@ -1315,20 +1386,24 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
       <c r="Z24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118614</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11258</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-985</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1290</v>
       </c>
     </row>
@@ -1336,6 +1411,14 @@
       <c r="A25" t="s">
         <v>11</v>
       </c>
+      <c r="J25">
+        <f>J24+J23+J22</f>
+        <v>26839</v>
+      </c>
+      <c r="N25">
+        <f>N24+N23+N22</f>
+        <v>36538</v>
+      </c>
       <c r="Z25">
         <f>Z24+Z23+Z22</f>
         <v>229504</v>
@@ -1355,7 +1438,13 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="J27">
+        <v>3966</v>
+      </c>
+      <c r="N27">
+        <v>4195</v>
       </c>
       <c r="Z27">
         <v>9505</v>
@@ -1374,6 +1463,14 @@
       <c r="A28" t="s">
         <v>31</v>
       </c>
+      <c r="J28">
+        <f>J25-J27</f>
+        <v>22873</v>
+      </c>
+      <c r="N28">
+        <f>N25-N27</f>
+        <v>32343</v>
+      </c>
       <c r="Z28">
         <f>Z25-Z27</f>
         <v>219999</v>
@@ -1393,7 +1490,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z29">
         <v>10106</v>
@@ -1406,6 +1503,12 @@
       <c r="A30" t="s">
         <v>17</v>
       </c>
+      <c r="J30">
+        <v>8324</v>
+      </c>
+      <c r="N30">
+        <v>10638</v>
+      </c>
       <c r="Z30">
         <v>108866</v>
       </c>
@@ -1421,7 +1524,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z31">
         <v>189790</v>
@@ -1434,6 +1537,12 @@
       <c r="A32" t="s">
         <v>18</v>
       </c>
+      <c r="J32">
+        <v>-594</v>
+      </c>
+      <c r="N32">
+        <v>1645</v>
+      </c>
       <c r="AB32">
         <v>3914</v>
       </c>
@@ -1445,6 +1554,12 @@
       <c r="A33" t="s">
         <v>19</v>
       </c>
+      <c r="J33">
+        <v>6547</v>
+      </c>
+      <c r="N33">
+        <v>8501</v>
+      </c>
       <c r="Z33">
         <v>101774</v>
       </c>
@@ -1462,6 +1577,9 @@
       <c r="A34" t="s">
         <v>20</v>
       </c>
+      <c r="J34">
+        <v>1089</v>
+      </c>
       <c r="Z34">
         <v>3891</v>
       </c>
@@ -1476,6 +1594,14 @@
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="J35">
+        <f>J28-J30-J32-J33-J34-J31-J29</f>
+        <v>7507</v>
+      </c>
+      <c r="N35">
+        <f>N28-N30-N32-N33-N34-N31-N29</f>
+        <v>11559</v>
+      </c>
       <c r="Z35">
         <f>Z28-Z30-Z32-Z33-Z34-Z31-Z29</f>
         <v>-194428</v>
@@ -1485,11 +1611,11 @@
         <v>-82155</v>
       </c>
       <c r="AB35">
-        <f t="shared" ref="AB35:AC35" si="2">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
+        <f t="shared" ref="AB35:AC35" si="4">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
         <v>9424</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39405</v>
       </c>
     </row>
@@ -1500,7 +1626,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA38">
         <v>126655</v>
@@ -1508,7 +1634,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z39">
         <v>26385</v>
@@ -1519,7 +1645,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA40">
         <v>-14749</v>
@@ -1529,6 +1655,12 @@
       <c r="A41" t="s">
         <v>22</v>
       </c>
+      <c r="J41">
+        <v>-2684</v>
+      </c>
+      <c r="N41">
+        <v>-2327</v>
+      </c>
       <c r="Z41">
         <v>-58389</v>
       </c>
@@ -1546,6 +1678,12 @@
       <c r="A42" t="s">
         <v>23</v>
       </c>
+      <c r="J42">
+        <v>269</v>
+      </c>
+      <c r="N42">
+        <v>545</v>
+      </c>
       <c r="Z42">
         <v>3948</v>
       </c>
@@ -1563,6 +1701,14 @@
       <c r="A43" t="s">
         <v>24</v>
       </c>
+      <c r="J43">
+        <f>J42+J41</f>
+        <v>-2415</v>
+      </c>
+      <c r="N43">
+        <f>N42+N41</f>
+        <v>-1782</v>
+      </c>
       <c r="Z43">
         <f>Z42+Z41</f>
         <v>-54441</v>
@@ -1584,6 +1730,14 @@
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="J44">
+        <f>J35+J43</f>
+        <v>5092</v>
+      </c>
+      <c r="N44">
+        <f>N35+N43</f>
+        <v>9777</v>
+      </c>
       <c r="Z44">
         <f>Z35+Z43</f>
         <v>-248869</v>
@@ -1608,6 +1762,12 @@
       <c r="A46" t="s">
         <v>26</v>
       </c>
+      <c r="J46">
+        <v>-548</v>
+      </c>
+      <c r="N46">
+        <v>-713</v>
+      </c>
       <c r="Z46">
         <v>5283</v>
       </c>
@@ -1625,6 +1785,14 @@
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J47">
+        <f>J44+J46</f>
+        <v>4544</v>
+      </c>
+      <c r="N47">
+        <f>N44+N46</f>
+        <v>9064</v>
+      </c>
       <c r="Z47">
         <f>Z44+Z46</f>
         <v>-243586</v>
@@ -1646,6 +1814,14 @@
       <c r="A49" t="s">
         <v>33</v>
       </c>
+      <c r="J49" s="2">
+        <f>J47/J51</f>
+        <v>0.10052207769223963</v>
+      </c>
+      <c r="N49" s="2">
+        <f>N47/N51</f>
+        <v>0.23963620981387479</v>
+      </c>
       <c r="Z49" s="2">
         <f>Z47/Z51</f>
         <v>-3.4445670003959501</v>
@@ -1667,6 +1843,14 @@
       <c r="A50" t="s">
         <v>34</v>
       </c>
+      <c r="J50" s="2">
+        <f>J47/J52</f>
+        <v>9.8510633685260265E-2</v>
+      </c>
+      <c r="N50" s="2">
+        <f>N47/N52</f>
+        <v>0.23555093555093556</v>
+      </c>
       <c r="Z50" s="2">
         <f>Z47/Z52</f>
         <v>-3.4445670003959501</v>
@@ -1688,6 +1872,12 @@
       <c r="A51" t="s">
         <v>28</v>
       </c>
+      <c r="J51">
+        <v>45204</v>
+      </c>
+      <c r="N51">
+        <v>37824</v>
+      </c>
       <c r="Z51">
         <v>70716</v>
       </c>
@@ -1705,6 +1895,12 @@
       <c r="A52" t="s">
         <v>29</v>
       </c>
+      <c r="J52">
+        <v>46127</v>
+      </c>
+      <c r="N52">
+        <v>38480</v>
+      </c>
       <c r="Z52">
         <v>70716</v>
       </c>
@@ -1719,12 +1915,12 @@
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>65</v>
+      <c r="A56" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1732,6 +1928,12 @@
       <c r="A59" t="s">
         <v>36</v>
       </c>
+      <c r="J59">
+        <v>36810</v>
+      </c>
+      <c r="N59">
+        <v>61389</v>
+      </c>
       <c r="AB59">
         <v>36810</v>
       </c>
@@ -1743,6 +1945,12 @@
       <c r="A60" t="s">
         <v>37</v>
       </c>
+      <c r="J60">
+        <v>44361</v>
+      </c>
+      <c r="N60">
+        <v>48923</v>
+      </c>
       <c r="AB60">
         <v>44361</v>
       </c>
@@ -1754,6 +1962,12 @@
       <c r="A61" t="s">
         <v>38</v>
       </c>
+      <c r="J61">
+        <v>7489</v>
+      </c>
+      <c r="N61">
+        <v>9480</v>
+      </c>
       <c r="AB61">
         <v>7489</v>
       </c>
@@ -1765,6 +1979,12 @@
       <c r="A62" t="s">
         <v>39</v>
       </c>
+      <c r="J62">
+        <v>14838</v>
+      </c>
+      <c r="N62">
+        <v>5323</v>
+      </c>
       <c r="AB62">
         <v>14838</v>
       </c>
@@ -1776,6 +1996,14 @@
       <c r="A63" t="s">
         <v>40</v>
       </c>
+      <c r="J63">
+        <f>J59+J60+J61+J62</f>
+        <v>103498</v>
+      </c>
+      <c r="N63">
+        <f>N59+N60+N61+N62</f>
+        <v>125115</v>
+      </c>
       <c r="AB63">
         <f>AB59+AB60+AB61+AB62</f>
         <v>103498</v>
@@ -1789,6 +2017,12 @@
       <c r="A65" t="s">
         <v>41</v>
       </c>
+      <c r="J65">
+        <v>1527</v>
+      </c>
+      <c r="N65">
+        <v>1329</v>
+      </c>
       <c r="AB65">
         <v>1527</v>
       </c>
@@ -1800,6 +2034,12 @@
       <c r="A66" t="s">
         <v>42</v>
       </c>
+      <c r="J66">
+        <v>216054</v>
+      </c>
+      <c r="N66">
+        <v>207554</v>
+      </c>
       <c r="AB66">
         <v>216054</v>
       </c>
@@ -1819,6 +2059,12 @@
       <c r="A68" t="s">
         <v>44</v>
       </c>
+      <c r="J68">
+        <v>5468</v>
+      </c>
+      <c r="N68">
+        <v>5137</v>
+      </c>
       <c r="AB68">
         <v>5468</v>
       </c>
@@ -1827,8 +2073,16 @@
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="J69">
+        <f>J63+J65+J66+J67+J68</f>
+        <v>326547</v>
+      </c>
+      <c r="N69">
+        <f>N63+N65+N66+N67+N68</f>
+        <v>339135</v>
       </c>
       <c r="AB69">
         <f>AB63+AB65+AB66+AB67+AB68</f>
@@ -1840,7 +2094,7 @@
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1848,6 +2102,9 @@
       <c r="A72" t="s">
         <v>47</v>
       </c>
+      <c r="N72">
+        <v>8523</v>
+      </c>
       <c r="AB72">
         <v>6685</v>
       </c>
@@ -1859,6 +2116,9 @@
       <c r="A73" t="s">
         <v>48</v>
       </c>
+      <c r="N73">
+        <v>55588</v>
+      </c>
       <c r="AB73">
         <v>52662</v>
       </c>
@@ -1870,6 +2130,9 @@
       <c r="A74" t="s">
         <v>49</v>
       </c>
+      <c r="N74">
+        <v>15386</v>
+      </c>
       <c r="AB74">
         <v>14699</v>
       </c>
@@ -1881,6 +2144,9 @@
       <c r="A75" t="s">
         <v>50</v>
       </c>
+      <c r="N75">
+        <v>12271</v>
+      </c>
       <c r="AB75">
         <v>12174</v>
       </c>
@@ -1892,6 +2158,9 @@
       <c r="A76" t="s">
         <v>51</v>
       </c>
+      <c r="N76">
+        <v>14600</v>
+      </c>
       <c r="AB76">
         <v>14500</v>
       </c>
@@ -1903,6 +2172,9 @@
       <c r="A77" t="s">
         <v>52</v>
       </c>
+      <c r="N77">
+        <v>32159</v>
+      </c>
       <c r="AB77">
         <v>34299</v>
       </c>
@@ -1914,6 +2186,10 @@
       <c r="A78" t="s">
         <v>53</v>
       </c>
+      <c r="N78">
+        <f>N72+N73+N74+N75+N76+N77</f>
+        <v>138527</v>
+      </c>
       <c r="AB78">
         <f>AB72+AB73+AB74+AB75+AB76+AB77</f>
         <v>135019</v>
@@ -1927,6 +2203,9 @@
       <c r="A80" t="s">
         <v>54</v>
       </c>
+      <c r="N80">
+        <v>61250</v>
+      </c>
       <c r="AB80">
         <v>61319</v>
       </c>
@@ -1938,6 +2217,9 @@
       <c r="A81" t="s">
         <v>55</v>
       </c>
+      <c r="N81">
+        <v>22859</v>
+      </c>
       <c r="AB81">
         <v>23159</v>
       </c>
@@ -1949,6 +2231,9 @@
       <c r="A82" t="s">
         <v>56</v>
       </c>
+      <c r="N82">
+        <v>4637</v>
+      </c>
       <c r="AB82">
         <v>4636</v>
       </c>
@@ -1957,8 +2242,12 @@
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="N83">
+        <f>N78+N80+N81+N82</f>
+        <v>227273</v>
       </c>
       <c r="AB83">
         <f>AB78+AB80+AB81+AB82</f>
@@ -1970,437 +2259,466 @@
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AB85">
-        <v>4</v>
-      </c>
-      <c r="AC85">
-        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>135</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
       </c>
       <c r="AB86">
-        <v>44640444</v>
+        <v>4</v>
       </c>
       <c r="AC86">
-        <v>48319838</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>136</v>
+      </c>
+      <c r="N87">
+        <v>45335426</v>
       </c>
       <c r="AB87">
-        <v>531636</v>
+        <v>44640444</v>
       </c>
       <c r="AC87">
-        <v>545321</v>
+        <v>48319838</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="N88">
+        <v>532020</v>
       </c>
       <c r="AB88">
-        <v>-429226</v>
+        <v>531636</v>
       </c>
       <c r="AC88">
-        <v>-319601</v>
+        <v>545321</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="N89">
+        <v>-420162</v>
       </c>
       <c r="AB89">
-        <f>AB85+AB87+AB88</f>
+        <v>-429226</v>
+      </c>
+      <c r="AC89">
+        <v>-319601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="N90">
+        <f>N86+N88+N89</f>
+        <v>111862</v>
+      </c>
+      <c r="AB90">
+        <f>AB86+AB88+AB89</f>
         <v>102414</v>
       </c>
-      <c r="AC89">
-        <f>AC85+AC87+AC88</f>
+      <c r="AC90">
+        <f>AC86+AC88+AC89</f>
         <v>225725</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB91">
-        <f>AB89+AB83</f>
-        <v>326547</v>
-      </c>
-      <c r="AC91">
-        <f>AC89+AC83</f>
-        <v>413913</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="N92">
+        <f>N90+N83</f>
+        <v>339135</v>
       </c>
       <c r="AB92">
-        <f>AB91-AB69</f>
+        <f>AB90+AB83</f>
+        <v>326547</v>
+      </c>
+      <c r="AC92">
+        <f>AC90+AC83</f>
+        <v>413913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="N93">
+        <f>N92-N69</f>
         <v>0</v>
       </c>
-      <c r="AC92">
-        <f>AC91-AC69</f>
+      <c r="AB93">
+        <f>AB92-AB69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>82</v>
+      <c r="AC93">
+        <f>AC92-AC69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>27</v>
       </c>
-      <c r="AB100">
+      <c r="AB101">
         <f>AB47</f>
         <v>-1281</v>
       </c>
-      <c r="AC100">
+      <c r="AC101">
         <f>AC47</f>
         <v>109625</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB102">
-        <v>29077</v>
-      </c>
-      <c r="AC102">
-        <v>33396</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB103">
-        <v>194</v>
+        <v>29077</v>
       </c>
       <c r="AC103">
-        <v>304</v>
+        <v>33396</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="AB104">
+        <v>194</v>
       </c>
       <c r="AC104">
-        <v>-1046</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB105">
-        <v>3914</v>
+        <v>69</v>
       </c>
       <c r="AC105">
-        <v>18939</v>
+        <v>-1046</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB106">
-        <v>3545</v>
+        <v>3914</v>
       </c>
       <c r="AC106">
-        <v>7504</v>
+        <v>18939</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB107">
-        <v>1368</v>
+        <v>3545</v>
       </c>
       <c r="AC107">
-        <v>3265</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="AB108">
+        <v>1368</v>
       </c>
       <c r="AC108">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC109">
         <v>-80375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB111">
-        <v>-11</v>
-      </c>
-      <c r="AC111">
-        <v>-996</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AB112">
-        <v>4268</v>
+        <v>-11</v>
       </c>
       <c r="AC112">
-        <v>-6593</v>
+        <v>-996</v>
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB113">
-        <v>3600</v>
+        <v>4268</v>
       </c>
       <c r="AC113">
-        <v>8019</v>
+        <v>-6593</v>
       </c>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB114">
-        <v>-28699</v>
+        <v>3600</v>
       </c>
       <c r="AC114">
-        <v>-10208</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB115">
+        <v>-28699</v>
+      </c>
+      <c r="AC115">
+        <v>-10208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>48</v>
       </c>
-      <c r="AB115">
+      <c r="AB116">
         <v>-10452</v>
       </c>
-      <c r="AC115">
+      <c r="AC116">
         <v>-3236</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB117">
+        <f>AB112+AB113+AB114+AB115+AB116+AB101+AB103+AB104+AB105+AB106+AB107+AB108+AB109</f>
+        <v>5523</v>
+      </c>
+      <c r="AC117">
+        <f>AC112+AC113+AC114+AC115+AC116+AC101+AC103+AC104+AC105+AC106+AC107+AC108+AC109</f>
+        <v>78598</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="AB116">
-        <f>AB111+AB112+AB113+AB114+AB115+AB100+AB102+AB103+AB104+AB105+AB106+AB107+AB108</f>
-        <v>5523</v>
-      </c>
-      <c r="AC116">
-        <f>AC111+AC112+AC113+AC114+AC115+AC100+AC102+AC103+AC104+AC105+AC106+AC107+AC108</f>
-        <v>78598</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB119">
-        <v>-53</v>
-      </c>
-      <c r="AC119">
-        <v>-274</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AB120">
-        <v>-18472</v>
+        <v>-53</v>
       </c>
       <c r="AC120">
-        <v>-27027</v>
+        <v>-274</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB121">
+        <v>-18472</v>
+      </c>
+      <c r="AC121">
+        <v>-27027</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC122">
+        <v>-15372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AC121">
-        <v>-15372</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="AB123">
+        <f>AB120+AB121+AB122</f>
+        <v>-18525</v>
+      </c>
+      <c r="AC123">
+        <f>AC120+AC121+AC122</f>
+        <v>-42673</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AB122">
-        <f>AB119+AB120+AB121</f>
-        <v>-18525</v>
-      </c>
-      <c r="AC122">
-        <f>AC119+AC120+AC121</f>
-        <v>-42673</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC125">
-        <v>70000</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB126">
-        <v>-9500</v>
+        <v>82</v>
       </c>
       <c r="AC126">
-        <v>-70750</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="AB127">
+        <v>-9500</v>
       </c>
       <c r="AC127">
-        <v>-4084</v>
+        <v>-70750</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB128">
-        <v>-4807</v>
+        <v>88</v>
       </c>
       <c r="AC128">
-        <v>-7845</v>
+        <v>-4084</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB129">
-        <v>-968</v>
+        <v>-4807</v>
       </c>
       <c r="AC129">
-        <v>-1297</v>
+        <v>-7845</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB130">
-        <v>-335</v>
+        <v>-968</v>
+      </c>
+      <c r="AC130">
+        <v>-1297</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AB131">
-        <v>44861</v>
-      </c>
-      <c r="AC131">
-        <v>7020</v>
+        <v>-335</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AB132">
-        <v>193</v>
+        <v>44861</v>
       </c>
       <c r="AC132">
-        <v>34</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB133">
+        <v>193</v>
+      </c>
+      <c r="AC133">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB134">
+        <v>-418</v>
+      </c>
+      <c r="AC134">
+        <v>-872</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AB133">
-        <v>-418</v>
-      </c>
-      <c r="AC133">
-        <v>-872</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="AB135">
+        <f>AB126+AB127+AB128+AB129+AB130+AB131+AB132+AB133+AB134</f>
+        <v>29026</v>
+      </c>
+      <c r="AC135">
+        <f>AC126+AC127+AC128+AC129+AC130+AC131+AC132+AC133+AC134</f>
+        <v>-7794</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AB134">
-        <f>AB125+AB126+AB127+AB128+AB129+AB130+AB131+AB132+AB133</f>
-        <v>29026</v>
-      </c>
-      <c r="AC134">
-        <f>AC125+AC126+AC127+AC128+AC129+AC130+AC131+AC132+AC133</f>
-        <v>-7794</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB136">
-        <f>AB116+AB122+AB134</f>
+      <c r="AB137">
+        <f>AB117+AB123+AB135</f>
         <v>16024</v>
       </c>
-      <c r="AC136">
-        <f>AC116+AC122+AC134</f>
+      <c r="AC137">
+        <f>AC117+AC123+AC135</f>
         <v>28131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0A16B-F11C-0A46-80D2-16EE93B17BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83FC1F4-E58C-FF48-82EB-CCD8B50B81D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -861,10 +861,10 @@
   <dimension ref="A2:AH139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83FC1F4-E58C-FF48-82EB-CCD8B50B81D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CDFF5-24AA-C14A-9C64-6B9A1CCB62B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -411,9 +411,6 @@
     <t>Loss on Sale of NUCYNTA</t>
   </si>
   <si>
-    <t>ASRT</t>
-  </si>
-  <si>
     <t>Q119A</t>
   </si>
   <si>
@@ -478,13 +475,16 @@
   </si>
   <si>
     <t xml:space="preserve">Common Shares </t>
+  </si>
+  <si>
+    <t>NASDAQ: ASRT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,6 +495,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -521,10 +530,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +872,10 @@
   <dimension ref="A2:AH139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K77" sqref="K77"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,69 +883,69 @@
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:34" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>118</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>120</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>122</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>123</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>124</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>125</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>126</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>127</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>128</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>130</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>131</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>132</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>133</v>
-      </c>
-      <c r="U2" t="s">
-        <v>134</v>
       </c>
       <c r="Z2" t="s">
         <v>107</v>
@@ -964,9 +975,85 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>136</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43555</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43646</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43738</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43830</v>
+      </c>
+      <c r="F3" s="4">
+        <f>B3+366</f>
+        <v>43921</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:I3" si="0">C3+366</f>
+        <v>44012</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>44104</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>44196</v>
+      </c>
+      <c r="J3" s="4">
+        <f>F3+365</f>
+        <v>44286</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:U3" si="1">G3+365</f>
+        <v>44377</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>44469</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>44561</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>44651</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="1"/>
+        <v>44742</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="1"/>
+        <v>44834</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="1"/>
+        <v>44926</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="1"/>
+        <v>45016</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="1"/>
+        <v>45107</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="1"/>
+        <v>45199</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="1"/>
+        <v>45291</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -984,8 +1071,20 @@
       <c r="J7">
         <v>14597</v>
       </c>
+      <c r="K7">
+        <v>13075</v>
+      </c>
+      <c r="L7">
+        <v>14541</v>
+      </c>
       <c r="N7">
         <v>21357</v>
+      </c>
+      <c r="O7">
+        <v>22841</v>
+      </c>
+      <c r="P7">
+        <v>21869</v>
       </c>
       <c r="AA7">
         <v>31684</v>
@@ -1004,6 +1103,12 @@
       <c r="N8">
         <v>3078</v>
       </c>
+      <c r="O8">
+        <v>2616</v>
+      </c>
+      <c r="P8">
+        <v>3004</v>
+      </c>
       <c r="AC8">
         <v>11148</v>
       </c>
@@ -1026,8 +1131,20 @@
       <c r="J10">
         <v>1697</v>
       </c>
+      <c r="K10">
+        <v>2942</v>
+      </c>
+      <c r="L10">
+        <v>2272</v>
+      </c>
       <c r="N10">
         <v>1766</v>
+      </c>
+      <c r="O10">
+        <v>2216</v>
+      </c>
+      <c r="P10">
+        <v>2455</v>
       </c>
       <c r="AA10">
         <v>11077</v>
@@ -1060,8 +1177,20 @@
       <c r="J11">
         <v>6462</v>
       </c>
+      <c r="K11">
+        <v>6128</v>
+      </c>
+      <c r="L11">
+        <v>5038</v>
+      </c>
       <c r="N11">
         <v>5473</v>
+      </c>
+      <c r="O11">
+        <v>6183</v>
+      </c>
+      <c r="P11">
+        <v>5808</v>
       </c>
       <c r="Z11">
         <v>32453</v>
@@ -1097,8 +1226,20 @@
       <c r="J12">
         <v>2222</v>
       </c>
+      <c r="K12">
+        <v>2581</v>
+      </c>
+      <c r="L12">
+        <v>1999</v>
+      </c>
       <c r="N12">
         <v>2228</v>
+      </c>
+      <c r="O12">
+        <v>216</v>
+      </c>
+      <c r="P12">
+        <v>259</v>
       </c>
       <c r="Z12">
         <v>12498</v>
@@ -1136,8 +1277,20 @@
       <c r="J13">
         <v>1049</v>
       </c>
+      <c r="K13">
+        <v>518</v>
+      </c>
+      <c r="L13">
+        <v>2147</v>
+      </c>
       <c r="N13">
         <v>1644</v>
+      </c>
+      <c r="O13">
+        <v>1358</v>
+      </c>
+      <c r="P13">
+        <v>884</v>
       </c>
       <c r="Z13">
         <v>63855</v>
@@ -1176,10 +1329,26 @@
         <f>J7+J8+J9+J10+J11+J12+J13</f>
         <v>26027</v>
       </c>
+      <c r="K14">
+        <f>K7+K8+K9+K10+K11+K12+K13</f>
+        <v>25244</v>
+      </c>
+      <c r="L14">
+        <f>L7+L8+L9+L10+L11+L12+L13</f>
+        <v>25997</v>
+      </c>
       <c r="N14">
         <f>N7+N8+N9+N10+N11+N12+N13</f>
         <v>35546</v>
       </c>
+      <c r="O14">
+        <f>O7+O8+O9+O10+O11+O12+O13</f>
+        <v>35430</v>
+      </c>
+      <c r="P14">
+        <f>P7+P8+P9+P10+P11+P12+P13</f>
+        <v>34279</v>
+      </c>
       <c r="Z14">
         <f>Z7+Z8+Z9+Z10+Z11+Z12+Z13</f>
         <v>108806</v>
@@ -1218,8 +1387,20 @@
       <c r="J16">
         <v>434</v>
       </c>
+      <c r="K16">
+        <v>542</v>
+      </c>
+      <c r="L16">
+        <v>416</v>
+      </c>
       <c r="N16">
         <v>992</v>
+      </c>
+      <c r="O16">
+        <v>451</v>
+      </c>
+      <c r="P16">
+        <v>473</v>
       </c>
       <c r="Z16">
         <v>2084</v>
@@ -1248,6 +1429,18 @@
       <c r="J17">
         <v>378</v>
       </c>
+      <c r="K17">
+        <v>-413</v>
+      </c>
+      <c r="L17">
+        <v>-941</v>
+      </c>
+      <c r="O17">
+        <v>-750</v>
+      </c>
+      <c r="P17">
+        <v>-540</v>
+      </c>
       <c r="Z17">
         <v>118614</v>
       </c>
@@ -1270,33 +1463,49 @@
         <v>57929</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:G18" si="0">C17+C16+C14</f>
+        <f t="shared" ref="C18:G18" si="2">C17+C16+C14</f>
         <v>57203</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9659</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20617</v>
       </c>
       <c r="J18">
         <f>J14+J17+J16</f>
         <v>26839</v>
       </c>
+      <c r="K18">
+        <f>K14+K17+K16</f>
+        <v>25373</v>
+      </c>
+      <c r="L18">
+        <f>L14+L17+L16</f>
+        <v>25472</v>
+      </c>
       <c r="N18">
         <f>N14+N17+N16</f>
         <v>36538</v>
       </c>
+      <c r="O18">
+        <f>O14+O17+O16</f>
+        <v>35131</v>
+      </c>
+      <c r="P18">
+        <f>P14+P17+P16</f>
+        <v>34212</v>
+      </c>
       <c r="Z18">
         <f>Z14+Z17+Z16</f>
         <v>229504</v>
@@ -1332,10 +1541,26 @@
         <f>J14</f>
         <v>26027</v>
       </c>
+      <c r="K22">
+        <f>K14</f>
+        <v>25244</v>
+      </c>
+      <c r="L22">
+        <f>L14</f>
+        <v>25997</v>
+      </c>
       <c r="N22">
         <f>N14</f>
         <v>35546</v>
       </c>
+      <c r="O22">
+        <f>O14</f>
+        <v>35430</v>
+      </c>
+      <c r="P22">
+        <f>P14</f>
+        <v>34279</v>
+      </c>
       <c r="Z22">
         <f>Z14</f>
         <v>108806</v>
@@ -1358,27 +1583,43 @@
         <v>16</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J24" si="1">J16</f>
+        <f t="shared" ref="J23:K24" si="3">J16</f>
         <v>434</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>542</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23" si="4">L16</f>
+        <v>416</v>
+      </c>
       <c r="N23">
-        <f t="shared" ref="N23" si="2">N16</f>
+        <f t="shared" ref="N23:O23" si="5">N16</f>
         <v>992</v>
       </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>451</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23" si="6">P16</f>
+        <v>473</v>
+      </c>
       <c r="Z23">
-        <f t="shared" ref="Z23:AC24" si="3">Z16</f>
+        <f t="shared" ref="Z23:AC24" si="7">Z16</f>
         <v>2084</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1519</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2579</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2403</v>
       </c>
     </row>
@@ -1387,23 +1628,39 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>378</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>-413</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:P24" si="8">L17</f>
+        <v>-941</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>-750</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>-540</v>
+      </c>
       <c r="Z24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>118614</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11258</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-985</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1290</v>
       </c>
     </row>
@@ -1415,10 +1672,26 @@
         <f>J24+J23+J22</f>
         <v>26839</v>
       </c>
+      <c r="K25">
+        <f>K24+K23+K22</f>
+        <v>25373</v>
+      </c>
+      <c r="L25">
+        <f>L24+L23+L22</f>
+        <v>25472</v>
+      </c>
       <c r="N25">
         <f>N24+N23+N22</f>
         <v>36538</v>
       </c>
+      <c r="O25">
+        <f>O24+O23+O22</f>
+        <v>35131</v>
+      </c>
+      <c r="P25">
+        <f>P24+P23+P22</f>
+        <v>34212</v>
+      </c>
       <c r="Z25">
         <f>Z24+Z23+Z22</f>
         <v>229504</v>
@@ -1443,8 +1716,14 @@
       <c r="J27">
         <v>3966</v>
       </c>
+      <c r="K27">
+        <v>3921</v>
+      </c>
       <c r="N27">
         <v>4195</v>
+      </c>
+      <c r="O27">
+        <v>4528</v>
       </c>
       <c r="Z27">
         <v>9505</v>
@@ -1467,10 +1746,26 @@
         <f>J25-J27</f>
         <v>22873</v>
       </c>
+      <c r="K28">
+        <f t="shared" ref="K28:L28" si="9">K25-K27</f>
+        <v>21452</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>25472</v>
+      </c>
       <c r="N28">
         <f>N25-N27</f>
         <v>32343</v>
       </c>
+      <c r="O28">
+        <f t="shared" ref="O28:P28" si="10">O25-O27</f>
+        <v>30603</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="10"/>
+        <v>34212</v>
+      </c>
       <c r="Z28">
         <f>Z25-Z27</f>
         <v>219999</v>
@@ -1506,8 +1801,14 @@
       <c r="J30">
         <v>8324</v>
       </c>
+      <c r="K30">
+        <v>24040</v>
+      </c>
       <c r="N30">
         <v>10638</v>
+      </c>
+      <c r="O30">
+        <v>10543</v>
       </c>
       <c r="Z30">
         <v>108866</v>
@@ -1540,8 +1841,14 @@
       <c r="J32">
         <v>-594</v>
       </c>
+      <c r="K32">
+        <v>2195</v>
+      </c>
       <c r="N32">
         <v>1645</v>
+      </c>
+      <c r="O32">
+        <v>1300</v>
       </c>
       <c r="AB32">
         <v>3914</v>
@@ -1557,8 +1864,14 @@
       <c r="J33">
         <v>6547</v>
       </c>
+      <c r="K33">
+        <v>7218</v>
+      </c>
       <c r="N33">
         <v>8501</v>
+      </c>
+      <c r="O33">
+        <v>7969</v>
       </c>
       <c r="Z33">
         <v>101774</v>
@@ -1598,10 +1911,26 @@
         <f>J28-J30-J32-J33-J34-J31-J29</f>
         <v>7507</v>
       </c>
+      <c r="K35">
+        <f t="shared" ref="K35:L35" si="11">K28-K30-K32-K33-K34-K31-K29</f>
+        <v>-12001</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="11"/>
+        <v>25472</v>
+      </c>
       <c r="N35">
         <f>N28-N30-N32-N33-N34-N31-N29</f>
         <v>11559</v>
       </c>
+      <c r="O35">
+        <f>O28-O30-O32-O33-O34-O31-O29</f>
+        <v>10791</v>
+      </c>
+      <c r="P35">
+        <f>P28-P30-P32-P33-P34-P31-P29</f>
+        <v>34212</v>
+      </c>
       <c r="Z35">
         <f>Z28-Z30-Z32-Z33-Z34-Z31-Z29</f>
         <v>-194428</v>
@@ -1611,11 +1940,11 @@
         <v>-82155</v>
       </c>
       <c r="AB35">
-        <f t="shared" ref="AB35:AC35" si="4">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
+        <f t="shared" ref="AB35:AC35" si="12">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
         <v>9424</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>39405</v>
       </c>
     </row>
@@ -1658,8 +1987,14 @@
       <c r="J41">
         <v>-2684</v>
       </c>
+      <c r="K41">
+        <v>-2605</v>
+      </c>
       <c r="N41">
         <v>-2327</v>
+      </c>
+      <c r="O41">
+        <v>-2269</v>
       </c>
       <c r="Z41">
         <v>-58389</v>
@@ -1681,8 +2016,14 @@
       <c r="J42">
         <v>269</v>
       </c>
+      <c r="K42">
+        <v>137</v>
+      </c>
       <c r="N42">
         <v>545</v>
+      </c>
+      <c r="O42">
+        <v>-95</v>
       </c>
       <c r="Z42">
         <v>3948</v>
@@ -1705,10 +2046,26 @@
         <f>J42+J41</f>
         <v>-2415</v>
       </c>
+      <c r="K43">
+        <f t="shared" ref="K43:L43" si="13">K42+K41</f>
+        <v>-2468</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="N43">
         <f>N42+N41</f>
         <v>-1782</v>
       </c>
+      <c r="O43">
+        <f t="shared" ref="O43:P43" si="14">O42+O41</f>
+        <v>-2364</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Z43">
         <f>Z42+Z41</f>
         <v>-54441</v>
@@ -1734,10 +2091,26 @@
         <f>J35+J43</f>
         <v>5092</v>
       </c>
+      <c r="K44">
+        <f t="shared" ref="K44:L44" si="15">K35+K43</f>
+        <v>-14469</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="15"/>
+        <v>25472</v>
+      </c>
       <c r="N44">
         <f>N35+N43</f>
         <v>9777</v>
       </c>
+      <c r="O44">
+        <f t="shared" ref="O44:P44" si="16">O35+O43</f>
+        <v>8427</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="16"/>
+        <v>34212</v>
+      </c>
       <c r="Z44">
         <f>Z35+Z43</f>
         <v>-248869</v>
@@ -2265,7 +2638,7 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N86">
         <v>4</v>
@@ -2279,7 +2652,7 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N87">
         <v>45335426</v>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CDFF5-24AA-C14A-9C64-6B9A1CCB62B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE82C48-B784-EF48-8E84-C7E0F94087B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -484,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,6 +505,13 @@
       <i/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -530,12 +537,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +880,10 @@
   <dimension ref="A2:AH139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomRight" activeCell="R94" sqref="R94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,14 +1085,18 @@
       <c r="L7">
         <v>14541</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>21357</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="5">
         <v>22841</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="5">
         <v>21869</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>AC7-P7-O7-N7</f>
+        <v>34271</v>
       </c>
       <c r="AA7">
         <v>31684</v>
@@ -1100,14 +1112,18 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <v>3078</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="5">
         <v>2616</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="5">
         <v>3004</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" ref="Q8:Q13" si="2">AC8-P8-O8-N8</f>
+        <v>2450</v>
       </c>
       <c r="AC8">
         <v>11148</v>
@@ -1117,6 +1133,10 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
+      <c r="Q9" s="5">
+        <f>AC9-P9-O9-N9</f>
+        <v>1768</v>
+      </c>
       <c r="AC9">
         <v>1768</v>
       </c>
@@ -1137,14 +1157,18 @@
       <c r="L10">
         <v>2272</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>1766</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="5">
         <v>2216</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="5">
         <v>2455</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="2"/>
+        <v>2673</v>
       </c>
       <c r="AA10">
         <v>11077</v>
@@ -1183,14 +1207,18 @@
       <c r="L11">
         <v>5038</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>5473</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="5">
         <v>6183</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="5">
         <v>5808</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="2"/>
+        <v>7256</v>
       </c>
       <c r="Z11">
         <v>32453</v>
@@ -1232,14 +1260,18 @@
       <c r="L12">
         <v>1999</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>2228</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="5">
         <v>216</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="5">
         <v>259</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="2"/>
+        <v>661</v>
       </c>
       <c r="Z12">
         <v>12498</v>
@@ -1283,14 +1315,18 @@
       <c r="L13">
         <v>2147</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="5">
         <v>1644</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="5">
         <v>1358</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="5">
         <v>884</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="2"/>
+        <v>787</v>
       </c>
       <c r="Z13">
         <v>63855</v>
@@ -1349,6 +1385,13 @@
         <f>P7+P8+P9+P10+P11+P12+P13</f>
         <v>34279</v>
       </c>
+      <c r="Q14">
+        <f>Q7+Q8+Q9+Q10+Q11+Q12+Q13</f>
+        <v>49866</v>
+      </c>
+      <c r="R14" s="5">
+        <v>41769</v>
+      </c>
       <c r="Z14">
         <f>Z7+Z8+Z9+Z10+Z11+Z12+Z13</f>
         <v>108806</v>
@@ -1393,14 +1436,18 @@
       <c r="L16">
         <v>416</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="5">
         <v>992</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="5">
         <v>451</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="5">
         <v>473</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" ref="Q16:Q17" si="3">AC16-P16-O16-N16</f>
+        <v>487</v>
       </c>
       <c r="Z16">
         <v>2084</v>
@@ -1435,11 +1482,16 @@
       <c r="L17">
         <v>-941</v>
       </c>
-      <c r="O17">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5">
         <v>-750</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="5">
         <v>-540</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5">
+        <v>697</v>
       </c>
       <c r="Z17">
         <v>118614</v>
@@ -1463,23 +1515,23 @@
         <v>57929</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:G18" si="2">C17+C16+C14</f>
+        <f t="shared" ref="C18:G18" si="4">C17+C16+C14</f>
         <v>57203</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9659</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20617</v>
       </c>
       <c r="J18">
@@ -1506,6 +1558,14 @@
         <f>P14+P17+P16</f>
         <v>34212</v>
       </c>
+      <c r="Q18">
+        <f>Q14+Q17+Q16</f>
+        <v>50353</v>
+      </c>
+      <c r="R18">
+        <f>R14+R17+R16</f>
+        <v>42466</v>
+      </c>
       <c r="Z18">
         <f>Z14+Z17+Z16</f>
         <v>229504</v>
@@ -1561,6 +1621,14 @@
         <f>P14</f>
         <v>34279</v>
       </c>
+      <c r="Q22">
+        <f>Q14</f>
+        <v>49866</v>
+      </c>
+      <c r="R22">
+        <f>R14</f>
+        <v>41769</v>
+      </c>
       <c r="Z22">
         <f>Z14</f>
         <v>108806</v>
@@ -1583,43 +1651,51 @@
         <v>16</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:K24" si="3">J16</f>
+        <f t="shared" ref="J23:K24" si="5">J16</f>
         <v>434</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>542</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23" si="4">L16</f>
+        <f t="shared" ref="L23" si="6">L16</f>
         <v>416</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:O23" si="5">N16</f>
+        <f t="shared" ref="N23:O23" si="7">N16</f>
         <v>992</v>
       </c>
       <c r="O23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23" si="6">P16</f>
+        <f t="shared" ref="P23:Q23" si="8">P16</f>
         <v>473</v>
       </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:R23" si="9">Q16</f>
+        <v>487</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z23">
-        <f t="shared" ref="Z23:AC24" si="7">Z16</f>
+        <f t="shared" ref="Z23:AC24" si="10">Z16</f>
         <v>2084</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1519</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2579</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2403</v>
       </c>
     </row>
@@ -1628,39 +1704,43 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-413</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:P24" si="8">L17</f>
+        <f t="shared" ref="L24:Q24" si="11">L17</f>
         <v>-941</v>
       </c>
       <c r="O24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-750</v>
       </c>
       <c r="P24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-540</v>
       </c>
+      <c r="R24">
+        <f>R17</f>
+        <v>697</v>
+      </c>
       <c r="Z24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>118614</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11258</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-985</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1290</v>
       </c>
     </row>
@@ -1692,6 +1772,14 @@
         <f>P24+P23+P22</f>
         <v>34212</v>
       </c>
+      <c r="Q25">
+        <f>Q24+Q23+Q22</f>
+        <v>50353</v>
+      </c>
+      <c r="R25">
+        <f>R24+R23+R22</f>
+        <v>42466</v>
+      </c>
       <c r="Z25">
         <f>Z24+Z23+Z22</f>
         <v>229504</v>
@@ -1725,6 +1813,9 @@
       <c r="O27">
         <v>4528</v>
       </c>
+      <c r="R27" s="5">
+        <v>5467</v>
+      </c>
       <c r="Z27">
         <v>9505</v>
       </c>
@@ -1747,11 +1838,11 @@
         <v>22873</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:L28" si="9">K25-K27</f>
+        <f t="shared" ref="K28:L28" si="12">K25-K27</f>
         <v>21452</v>
       </c>
       <c r="L28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25472</v>
       </c>
       <c r="N28">
@@ -1759,12 +1850,16 @@
         <v>32343</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:P28" si="10">O25-O27</f>
+        <f t="shared" ref="O28:Q28" si="13">O25-O27</f>
         <v>30603</v>
       </c>
       <c r="P28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>34212</v>
+      </c>
+      <c r="R28">
+        <f>R25-R27</f>
+        <v>36999</v>
       </c>
       <c r="Z28">
         <f>Z25-Z27</f>
@@ -1810,6 +1905,9 @@
       <c r="O30">
         <v>10543</v>
       </c>
+      <c r="R30" s="5">
+        <v>16904</v>
+      </c>
       <c r="Z30">
         <v>108866</v>
       </c>
@@ -1850,6 +1948,9 @@
       <c r="O32">
         <v>1300</v>
       </c>
+      <c r="R32" s="5">
+        <v>9167</v>
+      </c>
       <c r="AB32">
         <v>3914</v>
       </c>
@@ -1873,6 +1974,9 @@
       <c r="O33">
         <v>7969</v>
       </c>
+      <c r="R33" s="5">
+        <v>6284</v>
+      </c>
       <c r="Z33">
         <v>101774</v>
       </c>
@@ -1912,11 +2016,11 @@
         <v>7507</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:L35" si="11">K28-K30-K32-K33-K34-K31-K29</f>
+        <f t="shared" ref="K35:L35" si="14">K28-K30-K32-K33-K34-K31-K29</f>
         <v>-12001</v>
       </c>
       <c r="L35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>25472</v>
       </c>
       <c r="N35">
@@ -1931,6 +2035,10 @@
         <f>P28-P30-P32-P33-P34-P31-P29</f>
         <v>34212</v>
       </c>
+      <c r="R35">
+        <f>R28-R30-R32-R33-R34-R31-R29</f>
+        <v>4644</v>
+      </c>
       <c r="Z35">
         <f>Z28-Z30-Z32-Z33-Z34-Z31-Z29</f>
         <v>-194428</v>
@@ -1940,11 +2048,11 @@
         <v>-82155</v>
       </c>
       <c r="AB35">
-        <f t="shared" ref="AB35:AC35" si="12">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
+        <f t="shared" ref="AB35:AC35" si="15">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
         <v>9424</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>39405</v>
       </c>
     </row>
@@ -1996,6 +2104,9 @@
       <c r="O41">
         <v>-2269</v>
       </c>
+      <c r="R41" s="5">
+        <v>-1122</v>
+      </c>
       <c r="Z41">
         <v>-58389</v>
       </c>
@@ -2025,6 +2136,10 @@
       <c r="O42">
         <v>-95</v>
       </c>
+      <c r="R42" s="5">
+        <f>802+-9918</f>
+        <v>-9116</v>
+      </c>
       <c r="Z42">
         <v>3948</v>
       </c>
@@ -2047,11 +2162,11 @@
         <v>-2415</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:L43" si="13">K42+K41</f>
+        <f t="shared" ref="K43:L43" si="16">K42+K41</f>
         <v>-2468</v>
       </c>
       <c r="L43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N43">
@@ -2059,12 +2174,16 @@
         <v>-1782</v>
       </c>
       <c r="O43">
-        <f t="shared" ref="O43:P43" si="14">O42+O41</f>
+        <f t="shared" ref="O43:R43" si="17">O42+O41</f>
         <v>-2364</v>
       </c>
       <c r="P43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="17"/>
+        <v>-10238</v>
       </c>
       <c r="Z43">
         <f>Z42+Z41</f>
@@ -2092,11 +2211,11 @@
         <v>5092</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:L44" si="15">K35+K43</f>
+        <f t="shared" ref="K44:L44" si="18">K35+K43</f>
         <v>-14469</v>
       </c>
       <c r="L44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25472</v>
       </c>
       <c r="N44">
@@ -2104,12 +2223,20 @@
         <v>9777</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:P44" si="16">O35+O43</f>
+        <f t="shared" ref="O44:R44" si="19">O35+O43</f>
         <v>8427</v>
       </c>
       <c r="P44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>34212</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="19"/>
+        <v>-5594</v>
       </c>
       <c r="Z44">
         <f>Z35+Z43</f>
@@ -2141,6 +2268,9 @@
       <c r="N46">
         <v>-713</v>
       </c>
+      <c r="R46" s="5">
+        <v>2110</v>
+      </c>
       <c r="Z46">
         <v>5283</v>
       </c>
@@ -2166,6 +2296,10 @@
         <f>N44+N46</f>
         <v>9064</v>
       </c>
+      <c r="R47">
+        <f>R44+R46</f>
+        <v>-3484</v>
+      </c>
       <c r="Z47">
         <f>Z44+Z46</f>
         <v>-243586</v>
@@ -2195,6 +2329,10 @@
         <f>N47/N51</f>
         <v>0.23963620981387479</v>
       </c>
+      <c r="R49" s="2">
+        <f>R47/R51</f>
+        <v>-6.8307028722674246E-2</v>
+      </c>
       <c r="Z49" s="2">
         <f>Z47/Z51</f>
         <v>-3.4445670003959501</v>
@@ -2224,6 +2362,10 @@
         <f>N47/N52</f>
         <v>0.23555093555093556</v>
       </c>
+      <c r="R50" s="2">
+        <f>R47/R52</f>
+        <v>-6.8307028722674246E-2</v>
+      </c>
       <c r="Z50" s="2">
         <f>Z47/Z52</f>
         <v>-3.4445670003959501</v>
@@ -2251,6 +2393,9 @@
       <c r="N51">
         <v>37824</v>
       </c>
+      <c r="R51">
+        <v>51005</v>
+      </c>
       <c r="Z51">
         <v>70716</v>
       </c>
@@ -2274,6 +2419,9 @@
       <c r="N52">
         <v>38480</v>
       </c>
+      <c r="R52">
+        <v>51005</v>
+      </c>
       <c r="Z52">
         <v>70716</v>
       </c>
@@ -2307,6 +2455,9 @@
       <c r="N59">
         <v>61389</v>
       </c>
+      <c r="R59">
+        <v>68603</v>
+      </c>
       <c r="AB59">
         <v>36810</v>
       </c>
@@ -2324,6 +2475,9 @@
       <c r="N60">
         <v>48923</v>
       </c>
+      <c r="R60">
+        <v>46466</v>
+      </c>
       <c r="AB60">
         <v>44361</v>
       </c>
@@ -2341,6 +2495,9 @@
       <c r="N61">
         <v>9480</v>
       </c>
+      <c r="R61">
+        <v>16226</v>
+      </c>
       <c r="AB61">
         <v>7489</v>
       </c>
@@ -2358,6 +2515,9 @@
       <c r="N62">
         <v>5323</v>
       </c>
+      <c r="R62">
+        <v>6554</v>
+      </c>
       <c r="AB62">
         <v>14838</v>
       </c>
@@ -2377,6 +2537,10 @@
         <f>N59+N60+N61+N62</f>
         <v>125115</v>
       </c>
+      <c r="R63">
+        <f>R59+R60+R61+R62</f>
+        <v>137849</v>
+      </c>
       <c r="AB63">
         <f>AB59+AB60+AB61+AB62</f>
         <v>103498</v>
@@ -2396,6 +2560,9 @@
       <c r="N65">
         <v>1329</v>
       </c>
+      <c r="R65">
+        <v>544</v>
+      </c>
       <c r="AB65">
         <v>1527</v>
       </c>
@@ -2413,6 +2580,9 @@
       <c r="N66">
         <v>207554</v>
       </c>
+      <c r="R66">
+        <v>191712</v>
+      </c>
       <c r="AB66">
         <v>216054</v>
       </c>
@@ -2424,6 +2594,9 @@
       <c r="A67" t="s">
         <v>43</v>
       </c>
+      <c r="R67">
+        <v>81569</v>
+      </c>
       <c r="AC67">
         <v>80202</v>
       </c>
@@ -2438,6 +2611,9 @@
       <c r="N68">
         <v>5137</v>
       </c>
+      <c r="R68">
+        <v>2600</v>
+      </c>
       <c r="AB68">
         <v>5468</v>
       </c>
@@ -2457,6 +2633,10 @@
         <f>N63+N65+N66+N67+N68</f>
         <v>339135</v>
       </c>
+      <c r="R69">
+        <f>R63+R65+R66+R67+R68</f>
+        <v>414274</v>
+      </c>
       <c r="AB69">
         <f>AB63+AB65+AB66+AB67+AB68</f>
         <v>326547</v>
@@ -2478,6 +2658,9 @@
       <c r="N72">
         <v>8523</v>
       </c>
+      <c r="R72">
+        <v>6173</v>
+      </c>
       <c r="AB72">
         <v>6685</v>
       </c>
@@ -2492,6 +2675,9 @@
       <c r="N73">
         <v>55588</v>
       </c>
+      <c r="R73">
+        <v>52313</v>
+      </c>
       <c r="AB73">
         <v>52662</v>
       </c>
@@ -2506,6 +2692,9 @@
       <c r="N74">
         <v>15386</v>
       </c>
+      <c r="R74">
+        <v>10799</v>
+      </c>
       <c r="AB74">
         <v>14699</v>
       </c>
@@ -2520,6 +2709,9 @@
       <c r="N75">
         <v>12271</v>
       </c>
+      <c r="R75">
+        <v>470</v>
+      </c>
       <c r="AB75">
         <v>12174</v>
       </c>
@@ -2534,6 +2726,9 @@
       <c r="N76">
         <v>14600</v>
       </c>
+      <c r="R76">
+        <v>24458</v>
+      </c>
       <c r="AB76">
         <v>14500</v>
       </c>
@@ -2548,6 +2743,9 @@
       <c r="N77">
         <v>32159</v>
       </c>
+      <c r="R77">
+        <v>332</v>
+      </c>
       <c r="AB77">
         <v>34299</v>
       </c>
@@ -2563,6 +2761,10 @@
         <f>N72+N73+N74+N75+N76+N77</f>
         <v>138527</v>
       </c>
+      <c r="R78">
+        <f>R72+R73+R74+R75+R76+R77</f>
+        <v>94545</v>
+      </c>
       <c r="AB78">
         <f>AB72+AB73+AB74+AB75+AB76+AB77</f>
         <v>135019</v>
@@ -2579,6 +2781,9 @@
       <c r="N80">
         <v>61250</v>
       </c>
+      <c r="R80">
+        <v>38151</v>
+      </c>
       <c r="AB80">
         <v>61319</v>
       </c>
@@ -2593,6 +2798,9 @@
       <c r="N81">
         <v>22859</v>
       </c>
+      <c r="R81">
+        <v>26600</v>
+      </c>
       <c r="AB81">
         <v>23159</v>
       </c>
@@ -2607,6 +2815,9 @@
       <c r="N82">
         <v>4637</v>
       </c>
+      <c r="R82">
+        <v>4314</v>
+      </c>
       <c r="AB82">
         <v>4636</v>
       </c>
@@ -2622,6 +2833,10 @@
         <f>N78+N80+N81+N82</f>
         <v>227273</v>
       </c>
+      <c r="R83">
+        <f>R78+R80+R81+R82</f>
+        <v>163610</v>
+      </c>
       <c r="AB83">
         <f>AB78+AB80+AB81+AB82</f>
         <v>224133</v>
@@ -2643,6 +2858,9 @@
       <c r="N86">
         <v>4</v>
       </c>
+      <c r="R86">
+        <v>5</v>
+      </c>
       <c r="AB86">
         <v>4</v>
       </c>
@@ -2654,8 +2872,14 @@
       <c r="A87" t="s">
         <v>135</v>
       </c>
+      <c r="M87">
+        <v>48319838</v>
+      </c>
       <c r="N87">
         <v>45335426</v>
+      </c>
+      <c r="R87">
+        <v>55661866</v>
       </c>
       <c r="AB87">
         <v>44640444</v>
@@ -2671,6 +2895,9 @@
       <c r="N88">
         <v>532020</v>
       </c>
+      <c r="R88">
+        <v>573744</v>
+      </c>
       <c r="AB88">
         <v>531636</v>
       </c>
@@ -2685,6 +2912,9 @@
       <c r="N89">
         <v>-420162</v>
       </c>
+      <c r="R89">
+        <v>-323085</v>
+      </c>
       <c r="AB89">
         <v>-429226</v>
       </c>
@@ -2700,6 +2930,10 @@
         <f>N86+N88+N89</f>
         <v>111862</v>
       </c>
+      <c r="R90">
+        <f>R86+R88+R89</f>
+        <v>250664</v>
+      </c>
       <c r="AB90">
         <f>AB86+AB88+AB89</f>
         <v>102414</v>
@@ -2717,6 +2951,10 @@
         <f>N90+N83</f>
         <v>339135</v>
       </c>
+      <c r="R92">
+        <f>R90+R83</f>
+        <v>414274</v>
+      </c>
       <c r="AB92">
         <f>AB90+AB83</f>
         <v>326547</v>
@@ -2732,6 +2970,10 @@
       </c>
       <c r="N93">
         <f>N92-N69</f>
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <f>R92-R69</f>
         <v>0</v>
       </c>
       <c r="AB93">

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE82C48-B784-EF48-8E84-C7E0F94087B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C813C-4C7F-E34B-9977-58D56A7EEAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="138">
   <si>
     <t>Assertio Holdings</t>
   </si>
@@ -108,9 +108,6 @@
     <t>FY22A</t>
   </si>
   <si>
-    <t>Revenue Build</t>
-  </si>
-  <si>
     <t>Revenues</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>Payment in connection with 2024 Senior Notes</t>
   </si>
   <si>
-    <t>Porceeds from Issuance of Common Stock</t>
-  </si>
-  <si>
     <t>Proceeds from exercise of stock options</t>
   </si>
   <si>
@@ -478,6 +472,15 @@
   </si>
   <si>
     <t>NASDAQ: ASRT</t>
+  </si>
+  <si>
+    <t>Debt-related Expenses</t>
+  </si>
+  <si>
+    <t>Interest Payable</t>
+  </si>
+  <si>
+    <t>Proceeds from Issuance of Common Stock</t>
   </si>
 </sst>
 </file>
@@ -877,18 +880,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E728-CC88-2348-9F72-CF7ED1FD26A7}">
-  <dimension ref="A2:AH139"/>
+  <dimension ref="A2:AH141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R94" sqref="R94"/>
+      <selection pane="bottomRight" activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="32" customHeight="1" x14ac:dyDescent="0.3">
@@ -896,96 +899,96 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
         <v>114</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>119</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>120</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>121</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>122</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>123</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>124</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>125</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>126</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>127</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>129</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>130</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>131</v>
       </c>
-      <c r="T2" t="s">
-        <v>132</v>
-      </c>
-      <c r="U2" t="s">
-        <v>133</v>
-      </c>
       <c r="Z2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC2" t="s">
         <v>12</v>
       </c>
       <c r="AD2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF2" t="s">
         <v>100</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>101</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>102</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="4">
         <v>43555</v>
@@ -1066,7 +1069,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -1098,6 +1101,9 @@
         <f>AC7-P7-O7-N7</f>
         <v>34271</v>
       </c>
+      <c r="R7" s="5">
+        <v>30346</v>
+      </c>
       <c r="AA7">
         <v>31684</v>
       </c>
@@ -1125,6 +1131,9 @@
         <f t="shared" ref="Q8:Q13" si="2">AC8-P8-O8-N8</f>
         <v>2450</v>
       </c>
+      <c r="R8" s="5">
+        <v>2822</v>
+      </c>
       <c r="AC8">
         <v>11148</v>
       </c>
@@ -1137,6 +1146,9 @@
         <f>AC9-P9-O9-N9</f>
         <v>1768</v>
       </c>
+      <c r="R9" s="5">
+        <v>2502</v>
+      </c>
       <c r="AC9">
         <v>1768</v>
       </c>
@@ -1170,6 +1182,9 @@
         <f t="shared" si="2"/>
         <v>2673</v>
       </c>
+      <c r="R10" s="5">
+        <v>1889</v>
+      </c>
       <c r="AA10">
         <v>11077</v>
       </c>
@@ -1220,6 +1235,9 @@
         <f t="shared" si="2"/>
         <v>7256</v>
       </c>
+      <c r="R11" s="5">
+        <v>2264</v>
+      </c>
       <c r="Z11">
         <v>32453</v>
       </c>
@@ -1273,6 +1291,9 @@
         <f t="shared" si="2"/>
         <v>661</v>
       </c>
+      <c r="R12" s="5">
+        <v>1150</v>
+      </c>
       <c r="Z12">
         <v>12498</v>
       </c>
@@ -1328,6 +1349,9 @@
         <f t="shared" si="2"/>
         <v>787</v>
       </c>
+      <c r="R13" s="5">
+        <v>796</v>
+      </c>
       <c r="Z13">
         <v>63855</v>
       </c>
@@ -1389,7 +1413,8 @@
         <f>Q7+Q8+Q9+Q10+Q11+Q12+Q13</f>
         <v>49866</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14">
+        <f>R7+R8+R9+R10+R11+R12+R13</f>
         <v>41769</v>
       </c>
       <c r="Z14">
@@ -1446,8 +1471,11 @@
         <v>473</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" ref="Q16:Q17" si="3">AC16-P16-O16-N16</f>
+        <f t="shared" ref="Q16" si="3">AC16-P16-O16-N16</f>
         <v>487</v>
+      </c>
+      <c r="R16" s="5">
+        <v>697</v>
       </c>
       <c r="Z16">
         <v>2084</v>
@@ -1490,9 +1518,7 @@
         <v>-540</v>
       </c>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5">
-        <v>697</v>
-      </c>
+      <c r="R17" s="5"/>
       <c r="Z17">
         <v>118614</v>
       </c>
@@ -1585,17 +1611,17 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22">
         <f>J14</f>
@@ -1648,7 +1674,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <f t="shared" ref="J23:K24" si="5">J16</f>
@@ -1671,7 +1697,7 @@
         <v>451</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:Q23" si="8">P16</f>
+        <f t="shared" ref="P23" si="8">P16</f>
         <v>473</v>
       </c>
       <c r="Q23">
@@ -1680,7 +1706,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="Z23">
         <f t="shared" ref="Z23:AC24" si="10">Z16</f>
@@ -1712,7 +1738,7 @@
         <v>-413</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:Q24" si="11">L17</f>
+        <f t="shared" ref="L24:P24" si="11">L17</f>
         <v>-941</v>
       </c>
       <c r="O24">
@@ -1725,7 +1751,7 @@
       </c>
       <c r="R24">
         <f>R17</f>
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <f t="shared" si="10"/>
@@ -1799,7 +1825,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J27">
         <v>3966</v>
@@ -1831,7 +1857,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J28">
         <f>J25-J27</f>
@@ -1850,7 +1876,7 @@
         <v>32343</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:Q28" si="13">O25-O27</f>
+        <f t="shared" ref="O28:P28" si="13">O25-O27</f>
         <v>30603</v>
       </c>
       <c r="P28">
@@ -1880,7 +1906,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z29">
         <v>10106</v>
@@ -1891,7 +1917,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <v>8324</v>
@@ -1923,7 +1949,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z31">
         <v>189790</v>
@@ -1934,7 +1960,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32">
         <v>-594</v>
@@ -1960,7 +1986,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33">
         <v>6547</v>
@@ -1992,7 +2018,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34">
         <v>1089</v>
@@ -2009,7 +2035,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35">
         <f>J28-J30-J32-J33-J34-J31-J29</f>
@@ -2058,12 +2084,12 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA38">
         <v>126655</v>
@@ -2071,7 +2097,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z39">
         <v>26385</v>
@@ -2082,7 +2108,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AA40">
         <v>-14749</v>
@@ -2090,7 +2116,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41">
         <v>-2684</v>
@@ -2122,7 +2148,7 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J42">
         <v>269</v>
@@ -2155,7 +2181,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43">
         <f>J42+J41</f>
@@ -2204,7 +2230,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44">
         <f>J35+J43</f>
@@ -2260,7 +2286,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J46">
         <v>-548</v>
@@ -2286,7 +2312,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J47">
         <f>J44+J46</f>
@@ -2319,7 +2345,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J49" s="2">
         <f>J47/J51</f>
@@ -2352,7 +2378,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J50" s="2">
         <f>J47/J52</f>
@@ -2385,7 +2411,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51">
         <v>45204</v>
@@ -2411,7 +2437,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J52">
         <v>46127</v>
@@ -2437,17 +2463,17 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J59">
         <v>36810</v>
@@ -2467,7 +2493,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J60">
         <v>44361</v>
@@ -2487,7 +2513,7 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J61">
         <v>7489</v>
@@ -2507,7 +2533,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>14838</v>
@@ -2527,7 +2553,7 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J63">
         <f>J59+J60+J61+J62</f>
@@ -2552,7 +2578,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>1527</v>
@@ -2572,7 +2598,7 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>216054</v>
@@ -2592,7 +2618,7 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R67">
         <v>81569</v>
@@ -2603,7 +2629,7 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>5468</v>
@@ -2623,7 +2649,7 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <f>J63+J65+J66+J67+J68</f>
@@ -2648,12 +2674,12 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N72">
         <v>8523</v>
@@ -2670,7 +2696,7 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N73">
         <v>55588</v>
@@ -2687,7 +2713,7 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N74">
         <v>15386</v>
@@ -2704,7 +2730,7 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N75">
         <v>12271</v>
@@ -2721,7 +2747,7 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N76">
         <v>14600</v>
@@ -2738,7 +2764,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N77">
         <v>32159</v>
@@ -2755,7 +2781,7 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N78">
         <f>N72+N73+N74+N75+N76+N77</f>
@@ -2776,7 +2802,7 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N80">
         <v>61250</v>
@@ -2793,7 +2819,7 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N81">
         <v>22859</v>
@@ -2810,7 +2836,7 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N82">
         <v>4637</v>
@@ -2827,7 +2853,7 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N83">
         <f>N78+N80+N81+N82</f>
@@ -2848,12 +2874,12 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N86">
         <v>4</v>
@@ -2870,7 +2896,7 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M87">
         <v>48319838</v>
@@ -2890,7 +2916,7 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N88">
         <v>532020</v>
@@ -2907,7 +2933,7 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N89">
         <v>-420162</v>
@@ -2924,7 +2950,7 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N90">
         <f>N86+N88+N89</f>
@@ -2945,7 +2971,7 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N92">
         <f>N90+N83</f>
@@ -2966,7 +2992,7 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N93">
         <f>N92-N69</f>
@@ -2987,17 +3013,21 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="R101">
+        <f>R47</f>
+        <v>-3484</v>
       </c>
       <c r="AB101">
         <f>AB47</f>
@@ -3010,12 +3040,15 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="R103">
+        <v>6484</v>
       </c>
       <c r="AB103">
         <v>29077</v>
@@ -3026,7 +3059,10 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="R104">
+        <v>147</v>
       </c>
       <c r="AB104">
         <v>194</v>
@@ -3037,7 +3073,7 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC105">
         <v>-1046</v>
@@ -3045,295 +3081,353 @@
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB106">
-        <v>3914</v>
-      </c>
-      <c r="AC106">
-        <v>18939</v>
+        <v>135</v>
+      </c>
+      <c r="R106">
+        <v>9918</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="R107">
+        <v>9167</v>
       </c>
       <c r="AB107">
-        <v>3545</v>
+        <v>3914</v>
       </c>
       <c r="AC107">
-        <v>7504</v>
+        <v>18939</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="R108">
+        <v>2446</v>
       </c>
       <c r="AB108">
-        <v>1368</v>
+        <v>3545</v>
       </c>
       <c r="AC108">
-        <v>3265</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="R109">
+        <v>1072</v>
+      </c>
+      <c r="AB109">
+        <v>1368</v>
       </c>
       <c r="AC109">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="R110">
+        <v>-1367</v>
+      </c>
+      <c r="AC110">
         <v>-80375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB112">
-        <v>-11</v>
-      </c>
-      <c r="AC112">
-        <v>-996</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="R113">
+        <v>-1109</v>
       </c>
       <c r="AB113">
-        <v>4268</v>
+        <v>-11</v>
       </c>
       <c r="AC113">
-        <v>-6593</v>
+        <v>-996</v>
       </c>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="R114">
+        <v>-3602</v>
       </c>
       <c r="AB114">
-        <v>3600</v>
+        <v>4268</v>
       </c>
       <c r="AC114">
-        <v>8019</v>
+        <v>-6593</v>
       </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="R115">
+        <v>1824</v>
       </c>
       <c r="AB115">
-        <v>-28699</v>
+        <v>3600</v>
       </c>
       <c r="AC115">
-        <v>-10208</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="R116">
+        <v>-290</v>
       </c>
       <c r="AB116">
+        <v>-28699</v>
+      </c>
+      <c r="AC116">
+        <v>-10208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>47</v>
+      </c>
+      <c r="R117">
+        <v>2887</v>
+      </c>
+      <c r="AB117">
         <v>-10452</v>
       </c>
-      <c r="AC116">
+      <c r="AC117">
         <v>-3236</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB117">
-        <f>AB112+AB113+AB114+AB115+AB116+AB101+AB103+AB104+AB105+AB106+AB107+AB108+AB109</f>
-        <v>5523</v>
-      </c>
-      <c r="AC117">
-        <f>AC112+AC113+AC114+AC115+AC116+AC101+AC103+AC104+AC105+AC106+AC107+AC108+AC109</f>
-        <v>78598</v>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="R118">
+        <v>-1376</v>
       </c>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB120">
-        <v>-53</v>
-      </c>
-      <c r="AC120">
-        <v>-274</v>
+        <v>78</v>
+      </c>
+      <c r="R119">
+        <f>R101+R103+R104+R107+R106+R108+R109+R110+R113+R115+R114+R116+R117+R118</f>
+        <v>22717</v>
+      </c>
+      <c r="AB119">
+        <f>AB113+AB114+AB115+AB116+AB117+AB101+AB103+AB104+AB105+AB107+AB108+AB109+AB110</f>
+        <v>5523</v>
+      </c>
+      <c r="AC119">
+        <f>AC113+AC114+AC115+AC116+AC117+AC101+AC103+AC104+AC105+AC107+AC108+AC109+AC110</f>
+        <v>78598</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB121">
-        <v>-18472</v>
-      </c>
-      <c r="AC121">
-        <v>-27027</v>
+      <c r="A121" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="AB122">
+        <v>-53</v>
       </c>
       <c r="AC122">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB123">
+        <v>-18472</v>
+      </c>
+      <c r="AC123">
+        <v>-27027</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="R124">
+        <v>-105</v>
+      </c>
+      <c r="AC124">
         <v>-15372</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB123">
-        <f>AB120+AB121+AB122</f>
-        <v>-18525</v>
-      </c>
-      <c r="AC123">
-        <f>AC120+AC121+AC122</f>
-        <v>-42673</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC126">
-        <v>70000</v>
+        <v>85</v>
+      </c>
+      <c r="R125">
+        <f>R122+R123+R124</f>
+        <v>-105</v>
+      </c>
+      <c r="AB125">
+        <f>AB122+AB123+AB124</f>
+        <v>-18525</v>
+      </c>
+      <c r="AC125">
+        <f>AC122+AC123+AC124</f>
+        <v>-42673</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB127">
-        <v>-9500</v>
-      </c>
-      <c r="AC127">
-        <v>-70750</v>
+      <c r="A127" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AC128">
-        <v>-4084</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB129">
-        <v>-4807</v>
+        <v>-9500</v>
       </c>
       <c r="AC129">
-        <v>-7845</v>
+        <v>-70750</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB130">
-        <v>-968</v>
+        <v>87</v>
       </c>
       <c r="AC130">
-        <v>-1297</v>
+        <v>-4084</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AB131">
-        <v>-335</v>
+        <v>-4807</v>
+      </c>
+      <c r="AC131">
+        <v>-7845</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AB132">
-        <v>44861</v>
+        <v>-968</v>
       </c>
       <c r="AC132">
-        <v>7020</v>
+        <v>-1297</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="R133">
+        <f>-10500+-1119</f>
+        <v>-11619</v>
       </c>
       <c r="AB133">
-        <v>193</v>
-      </c>
-      <c r="AC133">
-        <v>34</v>
+        <v>-335</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="AB134">
+        <v>44861</v>
+      </c>
+      <c r="AC134">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB135">
+        <v>193</v>
+      </c>
+      <c r="AC135">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB136">
         <v>-418</v>
       </c>
-      <c r="AC134">
+      <c r="AC136">
         <v>-872</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB135">
-        <f>AB126+AB127+AB128+AB129+AB130+AB131+AB132+AB133+AB134</f>
-        <v>29026</v>
-      </c>
-      <c r="AC135">
-        <f>AC126+AC127+AC128+AC129+AC130+AC131+AC132+AC133+AC134</f>
-        <v>-7794</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB137">
+        <f>AB128+AB129+AB130+AB131+AB132+AB133+AB134+AB135+AB136</f>
+        <v>29026</v>
+      </c>
+      <c r="AC137">
+        <f>AC128+AC129+AC130+AC131+AC132+AC133+AC134+AC135+AC136</f>
+        <v>-7794</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB139">
+        <f>AB119+AB125+AB137</f>
+        <v>16024</v>
+      </c>
+      <c r="AC139">
+        <f>AC119+AC125+AC137</f>
+        <v>28131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>97</v>
-      </c>
-      <c r="AB137">
-        <f>AB117+AB123+AB135</f>
-        <v>16024</v>
-      </c>
-      <c r="AC137">
-        <f>AC117+AC123+AC135</f>
-        <v>28131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C813C-4C7F-E34B-9977-58D56A7EEAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC2167A-92E8-BF45-8BF4-3FE4759FBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -42,6 +42,7 @@
   <authors>
     <author>tc={EA91E9BC-F50A-C844-B437-6171E2E9971E}</author>
     <author>tc={CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}</author>
+    <author>tc={794ED2A5-E939-6940-84FD-8ABDD356620F}</author>
   </authors>
   <commentList>
     <comment ref="G13" authorId="0" shapeId="0" xr:uid="{EA91E9BC-F50A-C844-B437-6171E2E9971E}">
@@ -62,6 +63,15 @@
     Net Commercialization Agreement Revenue</t>
       </text>
     </comment>
+    <comment ref="R133" authorId="2" shapeId="0" xr:uid="{794ED2A5-E939-6940-84FD-8ABDD356620F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    $10.5m Settlement of CD Inducement
+$1.1m Direct Costs for CD Inducement</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -487,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,6 +528,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -875,6 +891,10 @@
   <threadedComment ref="AA17" dT="2023-04-29T18:21:13.72" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}">
     <text>Net Commercialization Agreement Revenue</text>
   </threadedComment>
+  <threadedComment ref="R133" dT="2023-05-15T13:58:47.36" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{794ED2A5-E939-6940-84FD-8ABDD356620F}">
+    <text>$10.5m Settlement of CD Inducement
+$1.1m Direct Costs for CD Inducement</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -886,7 +906,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="K111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R133" sqref="R133"/>
+      <selection pane="bottomRight" activeCell="R140" sqref="R140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3331,6 +3351,9 @@
       <c r="A131" t="s">
         <v>88</v>
       </c>
+      <c r="R131">
+        <v>-6609</v>
+      </c>
       <c r="AB131">
         <v>-4807</v>
       </c>
@@ -3376,6 +3399,9 @@
       <c r="A135" t="s">
         <v>92</v>
       </c>
+      <c r="R135">
+        <v>-722</v>
+      </c>
       <c r="AB135">
         <v>193</v>
       </c>
@@ -3398,6 +3424,10 @@
       <c r="A137" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="R137">
+        <f>R128+R129+R130+R131+R132+R133+R134+R135+R136</f>
+        <v>-18950</v>
+      </c>
       <c r="AB137">
         <f>AB128+AB129+AB130+AB131+AB132+AB133+AB134+AB135+AB136</f>
         <v>29026</v>
@@ -3410,6 +3440,10 @@
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="R139">
+        <f>R119+R125+R137</f>
+        <v>3662</v>
       </c>
       <c r="AB139">
         <f>AB119+AB125+AB137</f>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC2167A-92E8-BF45-8BF4-3FE4759FBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4629FB5A-F0AC-AC49-9408-023E318129D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -76,8 +76,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={252708B7-EA5E-0D4A-8711-E9A0CA65436F}</author>
+  </authors>
+  <commentList>
+    <comment ref="AD52" authorId="0" shapeId="0" xr:uid="{252708B7-EA5E-0D4A-8711-E9A0CA65436F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Remainder 2Q-4Q</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
   <si>
     <t>Assertio Holdings</t>
   </si>
@@ -491,12 +509,84 @@
   </si>
   <si>
     <t>Proceeds from Issuance of Common Stock</t>
+  </si>
+  <si>
+    <t>Raw Materials</t>
+  </si>
+  <si>
+    <t>Work-in-process</t>
+  </si>
+  <si>
+    <t>Finished Goods</t>
+  </si>
+  <si>
+    <t>Total Inventories</t>
+  </si>
+  <si>
+    <t>Property &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Furniture &amp; office equipment</t>
+  </si>
+  <si>
+    <t>Laboratory equipment</t>
+  </si>
+  <si>
+    <t>Leasehold imporvements</t>
+  </si>
+  <si>
+    <t>Less: Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Q123A</t>
+  </si>
+  <si>
+    <t>Gross Property &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Intangible Assets</t>
+  </si>
+  <si>
+    <t>Product Rights</t>
+  </si>
+  <si>
+    <t>INDOCIN</t>
+  </si>
+  <si>
+    <t>Remaining Useful Life</t>
+  </si>
+  <si>
+    <t>Gross Carrying Amount</t>
+  </si>
+  <si>
+    <t>Accumulated Amortization</t>
+  </si>
+  <si>
+    <t>Net Book Value</t>
+  </si>
+  <si>
+    <t>Total Intangible Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRIX </t>
+  </si>
+  <si>
+    <t>Weighted Average Remaining Useful Life</t>
+  </si>
+  <si>
+    <t>Amortization Schedule</t>
+  </si>
+  <si>
+    <t>Estimated Amortiuzation Expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -556,13 +646,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,15 +989,23 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AD52" dT="2023-05-15T15:12:01.27" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{252708B7-EA5E-0D4A-8711-E9A0CA65436F}">
+    <text>Remainder 2Q-4Q</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E728-CC88-2348-9F72-CF7ED1FD26A7}">
   <dimension ref="A2:AH141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K111" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="K108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R140" sqref="R140"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3471,14 +3570,603 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAAE1E-5C00-B245-A2B7-73C40CB24AA0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAAE1E-5C00-B245-A2B7-73C40CB24AA0}">
+  <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="W32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AI52" sqref="AI52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43555</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43646</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43738</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43830</v>
+      </c>
+      <c r="F2" s="4">
+        <f>B2+366</f>
+        <v>43921</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:I2" si="0">C2+366</f>
+        <v>44012</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>44104</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
+        <v>44196</v>
+      </c>
+      <c r="J2" s="4">
+        <f>F2+365</f>
+        <v>44286</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:U2" si="1">G2+365</f>
+        <v>44377</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="1"/>
+        <v>44469</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="1"/>
+        <v>44561</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="1"/>
+        <v>44651</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="1"/>
+        <v>44742</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="1"/>
+        <v>44834</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="1"/>
+        <v>44926</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="1"/>
+        <v>45016</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="1"/>
+        <v>45107</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="1"/>
+        <v>45199</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="1"/>
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5">
+        <v>1367</v>
+      </c>
+      <c r="R5">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6">
+        <v>2735</v>
+      </c>
+      <c r="R6">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7">
+        <v>9594</v>
+      </c>
+      <c r="R7">
+        <v>13628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8">
+        <f>Q5+Q6+Q7</f>
+        <v>13696</v>
+      </c>
+      <c r="R8">
+        <f>R5+R6+R7</f>
+        <v>16226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12">
+        <v>1712</v>
+      </c>
+      <c r="R12">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14">
+        <v>2945</v>
+      </c>
+      <c r="R14">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15">
+        <f>Q12+Q13+Q14</f>
+        <v>4677</v>
+      </c>
+      <c r="R15">
+        <f>R12+R13+R14</f>
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16">
+        <v>-3933</v>
+      </c>
+      <c r="R16">
+        <v>-4129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17">
+        <f>Q15+Q16</f>
+        <v>744</v>
+      </c>
+      <c r="R17">
+        <f>R15+R16</f>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="R25">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26">
+        <v>154100</v>
+      </c>
+      <c r="R26">
+        <v>154100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q27">
+        <v>-33495</v>
+      </c>
+      <c r="R27">
+        <v>-36705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28">
+        <f>Q26+Q27</f>
+        <v>120605</v>
+      </c>
+      <c r="R28">
+        <f>R26+R27</f>
+        <v>117395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="R31">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q32">
+        <v>44086</v>
+      </c>
+      <c r="R32">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q33">
+        <v>-5511</v>
+      </c>
+      <c r="R33">
+        <v>-6888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q34">
+        <f>Q32+Q33</f>
+        <v>38575</v>
+      </c>
+      <c r="R34">
+        <f>R32+R33</f>
+        <v>37198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="R36">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q37">
+        <v>14550</v>
+      </c>
+      <c r="R37">
+        <v>14550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q38">
+        <v>-202</v>
+      </c>
+      <c r="R38">
+        <v>-505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q39">
+        <f>Q37+Q38</f>
+        <v>14348</v>
+      </c>
+      <c r="R39">
+        <f>R37+R38</f>
+        <v>14045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="R41">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q42">
+        <v>39000</v>
+      </c>
+      <c r="R42">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q43">
+        <v>-14532</v>
+      </c>
+      <c r="R43">
+        <v>-15926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q44">
+        <f>Q42+Q43</f>
+        <v>24468</v>
+      </c>
+      <c r="R44">
+        <f>R42+R43</f>
+        <v>23074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="R46" s="6">
+        <f>R25*R28/R49</f>
+        <v>5.5723924428309131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q47">
+        <f>Q26+Q32+Q37+Q42</f>
+        <v>251736</v>
+      </c>
+      <c r="R47">
+        <f>R26+R32+R37+R42</f>
+        <v>251736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q48">
+        <f>Q27+Q33+Q38+Q43</f>
+        <v>-53740</v>
+      </c>
+      <c r="R48">
+        <f>R27+R33+R38+R43</f>
+        <v>-60024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q49">
+        <f>Q47+Q48</f>
+        <v>197996</v>
+      </c>
+      <c r="R49">
+        <f>R47+R48</f>
+        <v>191712</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD52">
+        <v>18852</v>
+      </c>
+      <c r="AE52">
+        <v>25136</v>
+      </c>
+      <c r="AF52">
+        <v>25136</v>
+      </c>
+      <c r="AG52">
+        <v>25136</v>
+      </c>
+      <c r="AH52">
+        <v>21747</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4629FB5A-F0AC-AC49-9408-023E318129D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABC21C2-D3B3-D048-B36C-5407B181024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
   <si>
     <t>Assertio Holdings</t>
   </si>
@@ -578,6 +578,39 @@
   </si>
   <si>
     <t>Estimated Amortiuzation Expense</t>
+  </si>
+  <si>
+    <t>Thereafter</t>
+  </si>
+  <si>
+    <t>Other Long-term assets</t>
+  </si>
+  <si>
+    <t>Operating lease right-of-use assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepaid asset &amp; deposits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Total other Long-term assets</t>
+  </si>
+  <si>
+    <t>Accrued compensation</t>
+  </si>
+  <si>
+    <t>Other accrued liabilities</t>
+  </si>
+  <si>
+    <t>Interest payable</t>
+  </si>
+  <si>
+    <t>Accrued royalties</t>
+  </si>
+  <si>
+    <t>Total accrued liabilities</t>
   </si>
 </sst>
 </file>
@@ -3571,13 +3604,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAAE1E-5C00-B245-A2B7-73C40CB24AA0}">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI52" sqref="AI52"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4126,7 +4159,7 @@
         <v>-60024</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -4139,12 +4172,15 @@
         <v>191712</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -4162,6 +4198,114 @@
       </c>
       <c r="AH52">
         <v>21747</v>
+      </c>
+      <c r="AI52">
+        <v>75705</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q55">
+        <v>137</v>
+      </c>
+      <c r="R55">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q56">
+        <v>1607</v>
+      </c>
+      <c r="R56">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q57">
+        <v>965</v>
+      </c>
+      <c r="R57">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q58">
+        <f>Q57+Q56+Q55</f>
+        <v>2709</v>
+      </c>
+      <c r="R58">
+        <f>R57+R56+R55</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q61">
+        <v>3117</v>
+      </c>
+      <c r="R61">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q62">
+        <v>6561</v>
+      </c>
+      <c r="R62">
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q63">
+        <v>1593</v>
+      </c>
+      <c r="R63">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q64">
+        <v>910</v>
+      </c>
+      <c r="R64">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASTR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABC21C2-D3B3-D048-B36C-5407B181024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1C3B23-A060-6B46-9F46-D33DCDBF6987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,30 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={B6E82BB0-4EF2-1640-995C-755543F3BF93}</author>
+    <author>tc={C4B87032-58D1-8F4B-B7D9-A751EBB99B62}</author>
     <author>tc={EA91E9BC-F50A-C844-B437-6171E2E9971E}</author>
     <author>tc={CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}</author>
     <author>tc={794ED2A5-E939-6940-84FD-8ABDD356620F}</author>
   </authors>
   <commentList>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{EA91E9BC-F50A-C844-B437-6171E2E9971E}">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{B6E82BB0-4EF2-1640-995C-755543F3BF93}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    SPRIX Nasal spray from Zyla merger 20 May 20</t>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{C4B87032-58D1-8F4B-B7D9-A751EBB99B62}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Jan 20 Sale of Gralise to Alvogen</t>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="2" shapeId="0" xr:uid="{EA91E9BC-F50A-C844-B437-6171E2E9971E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +73,7 @@
 Gralize (Sold 10 Jan 20 to Alvogen, -$165k sales reserve estimate adjustment </t>
       </text>
     </comment>
-    <comment ref="AA17" authorId="1" shapeId="0" xr:uid="{CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}">
+    <comment ref="AA17" authorId="3" shapeId="0" xr:uid="{CFFA79AB-8D9D-3F47-B0E0-21A7D1B5E80C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +81,7 @@
     Net Commercialization Agreement Revenue</t>
       </text>
     </comment>
-    <comment ref="R133" authorId="2" shapeId="0" xr:uid="{794ED2A5-E939-6940-84FD-8ABDD356620F}">
+    <comment ref="R133" authorId="4" shapeId="0" xr:uid="{794ED2A5-E939-6940-84FD-8ABDD356620F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
   <si>
     <t>Assertio Holdings</t>
   </si>
@@ -133,9 +151,6 @@
     <t>Total Revenues</t>
   </si>
   <si>
-    <t>FY22A</t>
-  </si>
-  <si>
     <t>Revenues</t>
   </si>
   <si>
@@ -391,30 +406,6 @@
     <t>Cash &amp; Cash Equivalents at End of Period</t>
   </si>
   <si>
-    <t>FY23E</t>
-  </si>
-  <si>
-    <t>FY24E</t>
-  </si>
-  <si>
-    <t>FY25E</t>
-  </si>
-  <si>
-    <t>FY26E</t>
-  </si>
-  <si>
-    <t>FY27E</t>
-  </si>
-  <si>
-    <t>FY21A</t>
-  </si>
-  <si>
-    <t>FY20A</t>
-  </si>
-  <si>
-    <t>FY19A</t>
-  </si>
-  <si>
     <t>Research &amp; Development</t>
   </si>
   <si>
@@ -611,6 +602,42 @@
   </si>
   <si>
     <t>Total accrued liabilities</t>
+  </si>
+  <si>
+    <t>FY2019A</t>
+  </si>
+  <si>
+    <t>FY2020A</t>
+  </si>
+  <si>
+    <t>FY2021A</t>
+  </si>
+  <si>
+    <t>FY2022A</t>
+  </si>
+  <si>
+    <t>FY2023E</t>
+  </si>
+  <si>
+    <t>FY2024E</t>
+  </si>
+  <si>
+    <t>FY2025E</t>
+  </si>
+  <si>
+    <t>FY2026E</t>
+  </si>
+  <si>
+    <t>FY2027E</t>
+  </si>
+  <si>
+    <t>FY2028E</t>
+  </si>
+  <si>
+    <t>FY2029E</t>
+  </si>
+  <si>
+    <t>FY2030E</t>
   </si>
 </sst>
 </file>
@@ -618,9 +645,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -652,12 +679,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -686,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,6 +1028,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G10" dT="2023-05-23T18:27:20.27" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{B6E82BB0-4EF2-1640-995C-755543F3BF93}">
+    <text>SPRIX Nasal spray from Zyla merger 20 May 20</text>
+  </threadedComment>
+  <threadedComment ref="F13" dT="2023-05-23T18:09:06.41" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{C4B87032-58D1-8F4B-B7D9-A751EBB99B62}">
+    <text>Jan 20 Sale of Gralise to Alvogen</text>
+  </threadedComment>
   <threadedComment ref="G13" dT="2023-04-30T14:54:47.51" personId="{981CC310-84B4-BC42-87C3-F956A3CBA7E2}" id="{EA91E9BC-F50A-C844-B437-6171E2E9971E}">
     <text xml:space="preserve">Solumatrix 
 OXYADO
@@ -1032,13 +1059,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E728-CC88-2348-9F72-CF7ED1FD26A7}">
-  <dimension ref="A2:AH141"/>
+  <dimension ref="A2:AK141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K108" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A2:XFD3"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,101 +1073,110 @@
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
         <v>113</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
         <v>115</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>116</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>117</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
         <v>119</v>
       </c>
-      <c r="J2" t="s">
+      <c r="S2" t="s">
         <v>120</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" t="s">
         <v>121</v>
       </c>
-      <c r="L2" t="s">
+      <c r="U2" t="s">
         <v>122</v>
       </c>
-      <c r="M2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Z2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>125</v>
-      </c>
-      <c r="P2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" t="s">
-        <v>130</v>
-      </c>
-      <c r="U2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>134</v>
       </c>
       <c r="B3" s="4">
         <v>43555</v>
@@ -1218,27 +1254,84 @@
         <f t="shared" si="1"/>
         <v>45291</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Z3">
+        <v>2019</v>
+      </c>
+      <c r="AA3">
+        <v>2020</v>
+      </c>
+      <c r="AB3">
+        <f>AA3+1</f>
+        <v>2021</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AK3" si="2">AB3+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>5434</v>
       </c>
-      <c r="J7">
+      <c r="H7" s="5">
+        <v>13773</v>
+      </c>
+      <c r="I7" s="5">
+        <f>AA7-H7-G7-F7</f>
+        <v>12477</v>
+      </c>
+      <c r="J7" s="5">
         <v>14597</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>13075</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>14541</v>
+      </c>
+      <c r="M7" s="5">
+        <f>AB7-L7-K7-J7</f>
+        <v>18344</v>
       </c>
       <c r="N7" s="5">
         <v>21357</v>
@@ -1266,7 +1359,7 @@
         <v>100338</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1373,7 @@
         <v>3004</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" ref="Q8:Q13" si="2">AC8-P8-O8-N8</f>
+        <f t="shared" ref="Q8:Q13" si="3">AC8-P8-O8-N8</f>
         <v>2450</v>
       </c>
       <c r="R8" s="5">
@@ -1290,7 +1383,7 @@
         <v>11148</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1305,21 +1398,32 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>1602</v>
       </c>
-      <c r="J10">
+      <c r="H10" s="5">
+        <v>5642</v>
+      </c>
+      <c r="I10" s="5">
+        <f>AA10-H10-G10-F10</f>
+        <v>3833</v>
+      </c>
+      <c r="J10" s="5">
         <v>1697</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>2942</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>2272</v>
+      </c>
+      <c r="M10" s="5">
+        <f>AB10-L10-K10-J10</f>
+        <v>1765</v>
       </c>
       <c r="N10" s="5">
         <v>1766</v>
@@ -1331,7 +1435,7 @@
         <v>2455</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2673</v>
       </c>
       <c r="R10" s="5">
@@ -1347,32 +1451,50 @@
         <v>9110</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <f>15566-C11</f>
         <v>8808</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>6758</v>
       </c>
-      <c r="F11">
+      <c r="D11" s="5">
+        <v>8135</v>
+      </c>
+      <c r="E11" s="5">
+        <f>Z11-D11-C11-B11</f>
+        <v>8752</v>
+      </c>
+      <c r="F11" s="5">
         <f>14054-G11</f>
         <v>6274</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>7780</v>
       </c>
-      <c r="J11">
+      <c r="H11" s="5">
+        <v>7449</v>
+      </c>
+      <c r="I11" s="5">
+        <f>AA11-H11-G11-F11</f>
+        <v>6847</v>
+      </c>
+      <c r="J11" s="5">
         <v>6462</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>6128</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>5038</v>
+      </c>
+      <c r="M11" s="5">
+        <f>AB11-L11-K11-J11</f>
+        <v>7344</v>
       </c>
       <c r="N11" s="5">
         <v>5473</v>
@@ -1384,7 +1506,7 @@
         <v>5808</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7256</v>
       </c>
       <c r="R11" s="5">
@@ -1403,32 +1525,50 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <f>5755-C12</f>
         <v>4231</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>1524</v>
       </c>
-      <c r="F12">
+      <c r="D12" s="5">
+        <v>3273</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ref="E12:E13" si="4">Z12-D12-C12-B12</f>
+        <v>3470</v>
+      </c>
+      <c r="F12" s="5">
         <f>5866-G12</f>
         <v>2331</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>3535</v>
       </c>
-      <c r="J12">
+      <c r="H12" s="5">
+        <v>3395</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" ref="I12:I13" si="5">AA12-H12-G12-F12</f>
+        <v>4025</v>
+      </c>
+      <c r="J12" s="5">
         <v>2222</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>2581</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>1999</v>
+      </c>
+      <c r="M12" s="5">
+        <f>AB12-L12-K12-J12</f>
+        <v>3383</v>
       </c>
       <c r="N12" s="5">
         <v>2228</v>
@@ -1440,7 +1580,7 @@
         <v>259</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>661</v>
       </c>
       <c r="R12" s="5">
@@ -1459,34 +1599,52 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <f>31078-C13+-12</f>
         <v>13411</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f>17800-145</f>
         <v>17655</v>
       </c>
-      <c r="F13">
+      <c r="D13" s="5">
+        <v>16094</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="4"/>
+        <v>16695</v>
+      </c>
+      <c r="F13" s="5">
         <f>836+517+431+677-G13</f>
         <v>647</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <f>836+517+-116+577</f>
         <v>1814</v>
       </c>
-      <c r="J13">
+      <c r="H13" s="5">
+        <v>4007</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="5"/>
+        <v>2633</v>
+      </c>
+      <c r="J13" s="5">
         <v>1049</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>518</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>2147</v>
+      </c>
+      <c r="M13" s="5">
+        <f>AB13-L13-K13-J13</f>
+        <v>1316</v>
       </c>
       <c r="N13" s="5">
         <v>1644</v>
@@ -1498,7 +1656,7 @@
         <v>884</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>787</v>
       </c>
       <c r="R13" s="5">
@@ -1517,56 +1675,76 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
-        <f>B7+B8+B9+B10+B11+B12+B13</f>
+        <f t="shared" ref="B14:R14" si="6">B7+B8+B9+B10+B11+B12+B13</f>
         <v>26450</v>
       </c>
       <c r="C14">
-        <f>C7+C8+C9+C10+C11+C12+C13</f>
+        <f t="shared" si="6"/>
         <v>25937</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="6"/>
+        <v>27502</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>28917</v>
+      </c>
       <c r="F14">
-        <f>F7+F8+F9+F10+F11+F12+F13</f>
+        <f t="shared" si="6"/>
         <v>9252</v>
       </c>
       <c r="G14">
-        <f>G7+G8+G9+G10+G11+G12+G13</f>
+        <f t="shared" si="6"/>
         <v>20165</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>34266</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>29815</v>
+      </c>
       <c r="J14">
-        <f>J7+J8+J9+J10+J11+J12+J13</f>
+        <f t="shared" si="6"/>
         <v>26027</v>
       </c>
       <c r="K14">
-        <f>K7+K8+K9+K10+K11+K12+K13</f>
+        <f t="shared" si="6"/>
         <v>25244</v>
       </c>
       <c r="L14">
-        <f>L7+L8+L9+L10+L11+L12+L13</f>
+        <f t="shared" si="6"/>
         <v>25997</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>32152</v>
+      </c>
       <c r="N14">
-        <f>N7+N8+N9+N10+N11+N12+N13</f>
+        <f t="shared" si="6"/>
         <v>35546</v>
       </c>
       <c r="O14">
-        <f>O7+O8+O9+O10+O11+O12+O13</f>
+        <f t="shared" si="6"/>
         <v>35430</v>
       </c>
       <c r="P14">
-        <f>P7+P8+P9+P10+P11+P12+P13</f>
+        <f t="shared" si="6"/>
         <v>34279</v>
       </c>
       <c r="Q14">
-        <f>Q7+Q8+Q9+Q10+Q11+Q12+Q13</f>
+        <f t="shared" si="6"/>
         <v>49866</v>
       </c>
       <c r="R14">
-        <f>R7+R8+R9+R10+R11+R12+R13</f>
+        <f t="shared" si="6"/>
         <v>41769</v>
       </c>
       <c r="Z14">
@@ -1586,23 +1764,37 @@
         <v>155121</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <f>886-C16</f>
         <v>623</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>263</v>
       </c>
-      <c r="F16">
+      <c r="D16" s="5">
+        <v>341</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:E17" si="7">Z16-D16-C16-B16</f>
+        <v>857</v>
+      </c>
+      <c r="F16" s="5">
         <f>859-G16</f>
         <v>407</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>452</v>
+      </c>
+      <c r="H16" s="5">
+        <v>299</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" ref="I16" si="8">AA16-H16-G16-F16</f>
+        <v>361</v>
       </c>
       <c r="J16">
         <v>434</v>
@@ -1613,6 +1805,10 @@
       <c r="L16">
         <v>416</v>
       </c>
+      <c r="M16" s="5">
+        <f>AB16-L16-K16-J16</f>
+        <v>1187</v>
+      </c>
       <c r="N16" s="5">
         <v>992</v>
       </c>
@@ -1623,7 +1819,7 @@
         <v>473</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" ref="Q16" si="3">AC16-P16-O16-N16</f>
+        <f t="shared" ref="Q16" si="9">AC16-P16-O16-N16</f>
         <v>487</v>
       </c>
       <c r="R16" s="5">
@@ -1646,21 +1842,36 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <f>61859-C17</f>
         <v>30856</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>31003</v>
       </c>
-      <c r="J17">
+      <c r="D17" s="5">
+        <v>27304</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="7"/>
+        <v>29451</v>
+      </c>
+      <c r="F17" s="5">
+        <v>11258</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
         <v>378</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>-413</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>-941</v>
+      </c>
+      <c r="M17" s="5">
+        <f>AB17-L17-K17-J17</f>
+        <v>-9</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5">
@@ -1693,55 +1904,67 @@
         <v>57929</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:G18" si="4">C17+C16+C14</f>
+        <f t="shared" ref="C18:I18" si="10">C17+C16+C14</f>
         <v>57203</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>55147</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>59225</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
-        <v>9659</v>
+        <f t="shared" si="10"/>
+        <v>20917</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20617</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="10"/>
+        <v>34565</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="10"/>
+        <v>30176</v>
+      </c>
       <c r="J18">
-        <f>J14+J17+J16</f>
+        <f t="shared" ref="J18:R18" si="11">J14+J17+J16</f>
         <v>26839</v>
       </c>
       <c r="K18">
-        <f>K14+K17+K16</f>
+        <f t="shared" si="11"/>
         <v>25373</v>
       </c>
       <c r="L18">
-        <f>L14+L17+L16</f>
+        <f t="shared" si="11"/>
         <v>25472</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>33330</v>
+      </c>
       <c r="N18">
-        <f>N14+N17+N16</f>
+        <f t="shared" si="11"/>
         <v>36538</v>
       </c>
       <c r="O18">
-        <f>O14+O17+O16</f>
+        <f t="shared" si="11"/>
         <v>35131</v>
       </c>
       <c r="P18">
-        <f>P14+P17+P16</f>
+        <f t="shared" si="11"/>
         <v>34212</v>
       </c>
       <c r="Q18">
-        <f>Q14+Q17+Q16</f>
+        <f t="shared" si="11"/>
         <v>50353</v>
       </c>
       <c r="R18">
-        <f>R14+R17+R16</f>
+        <f t="shared" si="11"/>
         <v>42466</v>
       </c>
       <c r="Z18">
@@ -1763,48 +1986,84 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <f>B14</f>
+        <v>26450</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:I22" si="12">C14</f>
+        <v>25937</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="12"/>
+        <v>27502</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="12"/>
+        <v>28917</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="12"/>
+        <v>9252</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="12"/>
+        <v>20165</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="12"/>
+        <v>34266</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="12"/>
+        <v>29815</v>
       </c>
       <c r="J22">
-        <f>J14</f>
+        <f t="shared" ref="J22:R22" si="13">J14</f>
         <v>26027</v>
       </c>
       <c r="K22">
-        <f>K14</f>
+        <f t="shared" si="13"/>
         <v>25244</v>
       </c>
       <c r="L22">
-        <f>L14</f>
+        <f t="shared" si="13"/>
         <v>25997</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="13"/>
+        <v>32152</v>
+      </c>
       <c r="N22">
-        <f>N14</f>
+        <f t="shared" si="13"/>
         <v>35546</v>
       </c>
       <c r="O22">
-        <f>O14</f>
+        <f t="shared" si="13"/>
         <v>35430</v>
       </c>
       <c r="P22">
-        <f>P14</f>
+        <f t="shared" si="13"/>
         <v>34279</v>
       </c>
       <c r="Q22">
-        <f>Q14</f>
+        <f t="shared" si="13"/>
         <v>49866</v>
       </c>
       <c r="R22">
-        <f>R14</f>
+        <f t="shared" si="13"/>
         <v>41769</v>
       </c>
       <c r="Z22">
@@ -1826,54 +2085,90 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:I23" si="14">B16</f>
+        <v>623</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="14"/>
+        <v>263</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="14"/>
+        <v>341</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="14"/>
+        <v>857</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="14"/>
+        <v>407</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="14"/>
+        <v>452</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="14"/>
+        <v>299</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="14"/>
+        <v>361</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:K24" si="5">J16</f>
+        <f t="shared" ref="J23:K24" si="15">J16</f>
         <v>434</v>
       </c>
       <c r="K23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>542</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23" si="6">L16</f>
+        <f t="shared" ref="L23:M23" si="16">L16</f>
         <v>416</v>
       </c>
+      <c r="M23">
+        <f t="shared" si="16"/>
+        <v>1187</v>
+      </c>
       <c r="N23">
-        <f t="shared" ref="N23:O23" si="7">N16</f>
+        <f t="shared" ref="N23:O23" si="17">N16</f>
         <v>992</v>
       </c>
       <c r="O23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>451</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23" si="8">P16</f>
+        <f t="shared" ref="P23" si="18">P16</f>
         <v>473</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:R23" si="9">Q16</f>
+        <f t="shared" ref="Q23:R23" si="19">Q16</f>
         <v>487</v>
       </c>
       <c r="R23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>697</v>
       </c>
       <c r="Z23">
-        <f t="shared" ref="Z23:AC24" si="10">Z16</f>
+        <f t="shared" ref="Z23:AC24" si="20">Z16</f>
         <v>2084</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1519</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2579</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2403</v>
       </c>
     </row>
@@ -1881,24 +2176,60 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
+      <c r="B24">
+        <f t="shared" ref="B24:I24" si="21">B17</f>
+        <v>30856</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="21"/>
+        <v>31003</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="21"/>
+        <v>27304</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="21"/>
+        <v>29451</v>
+      </c>
+      <c r="F24">
+        <f>F17</f>
+        <v>11258</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="J24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="K24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-413</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:P24" si="11">L17</f>
+        <f t="shared" ref="L24:P24" si="22">L17</f>
         <v>-941</v>
       </c>
+      <c r="M24">
+        <f t="shared" ref="M24" si="23">M17</f>
+        <v>-9</v>
+      </c>
       <c r="O24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>-750</v>
       </c>
       <c r="P24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>-540</v>
       </c>
       <c r="R24">
@@ -1906,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>118614</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>11258</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-985</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1290</v>
       </c>
     </row>
@@ -1926,36 +2257,72 @@
       <c r="A25" t="s">
         <v>11</v>
       </c>
+      <c r="B25">
+        <f>B24+B23+B22</f>
+        <v>57929</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:I25" si="24">C24+C23+C22</f>
+        <v>57203</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="24"/>
+        <v>55147</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="24"/>
+        <v>59225</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="24"/>
+        <v>20917</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="24"/>
+        <v>20617</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="24"/>
+        <v>34565</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="24"/>
+        <v>30176</v>
+      </c>
       <c r="J25">
-        <f>J24+J23+J22</f>
+        <f t="shared" ref="J25:R25" si="25">J24+J23+J22</f>
         <v>26839</v>
       </c>
       <c r="K25">
-        <f>K24+K23+K22</f>
+        <f t="shared" si="25"/>
         <v>25373</v>
       </c>
       <c r="L25">
-        <f>L24+L23+L22</f>
+        <f t="shared" si="25"/>
         <v>25472</v>
       </c>
+      <c r="M25">
+        <f t="shared" si="25"/>
+        <v>33330</v>
+      </c>
       <c r="N25">
-        <f>N24+N23+N22</f>
+        <f t="shared" si="25"/>
         <v>36538</v>
       </c>
       <c r="O25">
-        <f>O24+O23+O22</f>
+        <f t="shared" si="25"/>
         <v>35131</v>
       </c>
       <c r="P25">
-        <f>P24+P23+P22</f>
+        <f t="shared" si="25"/>
         <v>34212</v>
       </c>
       <c r="Q25">
-        <f>Q24+Q23+Q22</f>
+        <f t="shared" si="25"/>
         <v>50353</v>
       </c>
       <c r="R25">
-        <f>R24+R23+R22</f>
+        <f t="shared" si="25"/>
         <v>42466</v>
       </c>
       <c r="Z25">
@@ -1977,20 +2344,40 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
-      </c>
-      <c r="J27">
+        <v>98</v>
+      </c>
+      <c r="B27" s="5">
+        <f>4699-C27</f>
+        <v>2575</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2124</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <f>6637-G27</f>
+        <v>1399</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5238</v>
+      </c>
+      <c r="J27" s="5">
         <v>3966</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
         <v>3921</v>
       </c>
-      <c r="N27">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
         <v>4195</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="5">
         <v>4528</v>
       </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
       <c r="R27" s="5">
         <v>5467</v>
       </c>
@@ -2009,18 +2396,34 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <f>B25-B27</f>
+        <v>55354</v>
+      </c>
+      <c r="C28">
+        <f>C25-C27</f>
+        <v>55079</v>
+      </c>
+      <c r="F28">
+        <f>F25-F27</f>
+        <v>19518</v>
+      </c>
+      <c r="G28">
+        <f>G25-G27</f>
+        <v>15379</v>
       </c>
       <c r="J28">
         <f>J25-J27</f>
         <v>22873</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:L28" si="12">K25-K27</f>
+        <f t="shared" ref="K28:L28" si="26">K25-K27</f>
         <v>21452</v>
       </c>
       <c r="L28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>25472</v>
       </c>
       <c r="N28">
@@ -2028,11 +2431,11 @@
         <v>32343</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:P28" si="13">O25-O27</f>
+        <f t="shared" ref="O28:P28" si="27">O25-O27</f>
         <v>30603</v>
       </c>
       <c r="P28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>34212</v>
       </c>
       <c r="R28">
@@ -2058,7 +2461,23 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="B29" s="5">
+        <f>3056-C29</f>
+        <v>1793</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1263</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <f>2667-G29</f>
+        <v>1041</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1626</v>
       </c>
       <c r="Z29">
         <v>10106</v>
@@ -2069,20 +2488,39 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="5">
+        <f>49800-C30</f>
+        <v>25045</v>
+      </c>
+      <c r="C30" s="5">
+        <v>24755</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <f>55445-G30</f>
+        <v>27314</v>
+      </c>
+      <c r="G30" s="5">
+        <v>28131</v>
+      </c>
+      <c r="J30" s="5">
         <v>8324</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <v>24040</v>
       </c>
-      <c r="N30">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
         <v>10638</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="5">
         <v>10543</v>
       </c>
+      <c r="P30" s="5"/>
       <c r="R30" s="5">
         <v>16904</v>
       </c>
@@ -2101,8 +2539,14 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>108</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="Z31">
         <v>189790</v>
       </c>
@@ -2112,20 +2556,30 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="J32" s="5">
         <v>-594</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <v>2195</v>
       </c>
-      <c r="N32">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5">
         <v>1645</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="5">
         <v>1300</v>
       </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
       <c r="R32" s="5">
         <v>9167</v>
       </c>
@@ -2138,20 +2592,40 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33">
+        <v>17</v>
+      </c>
+      <c r="B33" s="5">
+        <f>50887-C33</f>
+        <v>25444</v>
+      </c>
+      <c r="C33" s="5">
+        <v>25443</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <f>12650-G33</f>
+        <v>7795</v>
+      </c>
+      <c r="G33" s="5">
+        <v>4855</v>
+      </c>
+      <c r="J33" s="5">
         <v>6547</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <v>7218</v>
       </c>
-      <c r="N33">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
         <v>8501</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="5">
         <v>7969</v>
       </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
       <c r="R33" s="5">
         <v>6284</v>
       </c>
@@ -2170,11 +2644,26 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34">
+        <v>18</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>6519</v>
+      </c>
+      <c r="J34" s="5">
         <v>1089</v>
       </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
       <c r="Z34">
         <v>3891</v>
       </c>
@@ -2187,18 +2676,34 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <f>B28-B30-B32-B33-B34-B31-B29</f>
+        <v>3072</v>
+      </c>
+      <c r="C35">
+        <f>C28-C30-C32-C33-C34-C31-C29</f>
+        <v>3618</v>
+      </c>
+      <c r="F35">
+        <f>F28-F30-F32-F33-F34-F31-F29</f>
+        <v>-16632</v>
+      </c>
+      <c r="G35">
+        <f>G28-G30-G32-G33-G34-G31-G29</f>
+        <v>-25752</v>
       </c>
       <c r="J35">
         <f>J28-J30-J32-J33-J34-J31-J29</f>
         <v>7507</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:L35" si="14">K28-K30-K32-K33-K34-K31-K29</f>
+        <f t="shared" ref="K35:L35" si="28">K28-K30-K32-K33-K34-K31-K29</f>
         <v>-12001</v>
       </c>
       <c r="L35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>25472</v>
       </c>
       <c r="N35">
@@ -2226,22 +2731,22 @@
         <v>-82155</v>
       </c>
       <c r="AB35">
-        <f t="shared" ref="AB35:AC35" si="15">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
+        <f t="shared" ref="AB35:AC35" si="29">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
         <v>9424</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>39405</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AA38">
         <v>126655</v>
@@ -2249,7 +2754,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z39">
         <v>26385</v>
@@ -2260,7 +2765,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="AA40">
         <v>-14749</v>
@@ -2268,9 +2773,9 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="J41" s="5">
         <v>-2684</v>
       </c>
       <c r="K41">
@@ -2300,9 +2805,9 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42">
+        <v>21</v>
+      </c>
+      <c r="J42" s="5">
         <v>269</v>
       </c>
       <c r="K42">
@@ -2333,18 +2838,18 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J43">
         <f>J42+J41</f>
         <v>-2415</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:L43" si="16">K42+K41</f>
+        <f t="shared" ref="K43:L43" si="30">K42+K41</f>
         <v>-2468</v>
       </c>
       <c r="L43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N43">
@@ -2352,15 +2857,15 @@
         <v>-1782</v>
       </c>
       <c r="O43">
-        <f t="shared" ref="O43:R43" si="17">O42+O41</f>
+        <f t="shared" ref="O43:R43" si="31">O42+O41</f>
         <v>-2364</v>
       </c>
       <c r="P43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-10238</v>
       </c>
       <c r="Z43">
@@ -2382,18 +2887,18 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44">
         <f>J35+J43</f>
         <v>5092</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:L44" si="18">K35+K43</f>
+        <f t="shared" ref="K44:L44" si="32">K35+K43</f>
         <v>-14469</v>
       </c>
       <c r="L44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>25472</v>
       </c>
       <c r="N44">
@@ -2401,19 +2906,19 @@
         <v>9777</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:R44" si="19">O35+O43</f>
+        <f t="shared" ref="O44:R44" si="33">O35+O43</f>
         <v>8427</v>
       </c>
       <c r="P44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>34212</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>-5594</v>
       </c>
       <c r="Z44">
@@ -2438,7 +2943,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J46">
         <v>-548</v>
@@ -2464,7 +2969,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J47">
         <f>J44+J46</f>
@@ -2497,7 +3002,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J49" s="2">
         <f>J47/J51</f>
@@ -2530,7 +3035,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J50" s="2">
         <f>J47/J52</f>
@@ -2563,7 +3068,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J51">
         <v>45204</v>
@@ -2589,7 +3094,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52">
         <v>46127</v>
@@ -2615,17 +3120,17 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J59">
         <v>36810</v>
@@ -2645,7 +3150,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <v>44361</v>
@@ -2665,7 +3170,7 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J61">
         <v>7489</v>
@@ -2685,7 +3190,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J62">
         <v>14838</v>
@@ -2705,7 +3210,7 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <f>J59+J60+J61+J62</f>
@@ -2730,7 +3235,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>1527</v>
@@ -2750,7 +3255,7 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>216054</v>
@@ -2770,7 +3275,7 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R67">
         <v>81569</v>
@@ -2781,7 +3286,7 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>5468</v>
@@ -2801,7 +3306,7 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <f>J63+J65+J66+J67+J68</f>
@@ -2826,12 +3331,12 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N72">
         <v>8523</v>
@@ -2848,7 +3353,7 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N73">
         <v>55588</v>
@@ -2865,7 +3370,7 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N74">
         <v>15386</v>
@@ -2882,7 +3387,7 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N75">
         <v>12271</v>
@@ -2899,7 +3404,7 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N76">
         <v>14600</v>
@@ -2916,7 +3421,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N77">
         <v>32159</v>
@@ -2933,7 +3438,7 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N78">
         <f>N72+N73+N74+N75+N76+N77</f>
@@ -2954,7 +3459,7 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N80">
         <v>61250</v>
@@ -2971,7 +3476,7 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N81">
         <v>22859</v>
@@ -2988,7 +3493,7 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N82">
         <v>4637</v>
@@ -3005,7 +3510,7 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N83">
         <f>N78+N80+N81+N82</f>
@@ -3026,12 +3531,12 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N86">
         <v>4</v>
@@ -3048,7 +3553,7 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M87">
         <v>48319838</v>
@@ -3068,7 +3573,7 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N88">
         <v>532020</v>
@@ -3085,7 +3590,7 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N89">
         <v>-420162</v>
@@ -3102,7 +3607,7 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N90">
         <f>N86+N88+N89</f>
@@ -3123,7 +3628,7 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N92">
         <f>N90+N83</f>
@@ -3144,7 +3649,7 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N93">
         <f>N92-N69</f>
@@ -3165,17 +3670,17 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R101">
         <f>R47</f>
@@ -3192,12 +3697,12 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R103">
         <v>6484</v>
@@ -3211,7 +3716,7 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R104">
         <v>147</v>
@@ -3225,7 +3730,7 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC105">
         <v>-1046</v>
@@ -3233,7 +3738,7 @@
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="R106">
         <v>9918</v>
@@ -3241,7 +3746,7 @@
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R107">
         <v>9167</v>
@@ -3255,7 +3760,7 @@
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R108">
         <v>2446</v>
@@ -3269,7 +3774,7 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R109">
         <v>1072</v>
@@ -3283,7 +3788,7 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R110">
         <v>-1367</v>
@@ -3294,12 +3799,12 @@
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R113">
         <v>-1109</v>
@@ -3313,7 +3818,7 @@
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R114">
         <v>-3602</v>
@@ -3327,7 +3832,7 @@
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R115">
         <v>1824</v>
@@ -3341,7 +3846,7 @@
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R116">
         <v>-290</v>
@@ -3355,7 +3860,7 @@
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R117">
         <v>2887</v>
@@ -3369,7 +3874,7 @@
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="R118">
         <v>-1376</v>
@@ -3377,7 +3882,7 @@
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R119">
         <f>R101+R103+R104+R107+R106+R108+R109+R110+R113+R115+R114+R116+R117+R118</f>
@@ -3394,12 +3899,12 @@
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB122">
         <v>-53</v>
@@ -3410,7 +3915,7 @@
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB123">
         <v>-18472</v>
@@ -3421,7 +3926,7 @@
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R124">
         <v>-105</v>
@@ -3432,7 +3937,7 @@
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R125">
         <f>R122+R123+R124</f>
@@ -3449,12 +3954,12 @@
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC128">
         <v>70000</v>
@@ -3462,7 +3967,7 @@
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB129">
         <v>-9500</v>
@@ -3473,7 +3978,7 @@
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC130">
         <v>-4084</v>
@@ -3481,7 +3986,7 @@
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R131">
         <v>-6609</v>
@@ -3495,7 +4000,7 @@
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB132">
         <v>-968</v>
@@ -3506,7 +4011,7 @@
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R133">
         <f>-10500+-1119</f>
@@ -3518,7 +4023,7 @@
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AB134">
         <v>44861</v>
@@ -3529,7 +4034,7 @@
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R135">
         <v>-722</v>
@@ -3543,7 +4048,7 @@
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB136">
         <v>-418</v>
@@ -3554,7 +4059,7 @@
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R137">
         <f>R128+R129+R130+R131+R132+R133+R134+R135+R136</f>
@@ -3571,7 +4076,7 @@
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R139">
         <f>R119+R125+R137</f>
@@ -3588,12 +4093,12 @@
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3606,11 +4111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAAE1E-5C00-B245-A2B7-73C40CB24AA0}">
   <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="U43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3623,96 +4128,96 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>122</v>
       </c>
-      <c r="M1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" t="s">
-        <v>130</v>
-      </c>
-      <c r="U1" t="s">
-        <v>131</v>
-      </c>
       <c r="Z1" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="AA1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="AB1" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="AC1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="AD1" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="AE1" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="AF1" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="AG1" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="AH1" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4">
         <v>43555</v>
@@ -3793,12 +4298,12 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>1367</v>
@@ -3809,7 +4314,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>2735</v>
@@ -3820,7 +4325,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>9594</v>
@@ -3831,7 +4336,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <f>Q5+Q6+Q7</f>
@@ -3844,12 +4349,12 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>1712</v>
@@ -3860,7 +4365,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>20</v>
@@ -3871,7 +4376,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2945</v>
@@ -3882,7 +4387,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <f>Q12+Q13+Q14</f>
@@ -3895,7 +4400,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>-3933</v>
@@ -3906,7 +4411,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q17">
         <f>Q15+Q16</f>
@@ -3919,22 +4424,22 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="R25">
         <v>9.1</v>
@@ -3942,7 +4447,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>154100</v>
@@ -3953,7 +4458,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>-33495</v>
@@ -3964,7 +4469,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <f>Q26+Q27</f>
@@ -3982,7 +4487,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="R31">
         <v>6.7</v>
@@ -3990,7 +4495,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>44086</v>
@@ -4001,7 +4506,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>-5511</v>
@@ -4012,7 +4517,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <f>Q32+Q33</f>
@@ -4030,7 +4535,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="R36">
         <v>11.6</v>
@@ -4038,7 +4543,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>14550</v>
@@ -4049,7 +4554,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>-202</v>
@@ -4060,7 +4565,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <f>Q37+Q38</f>
@@ -4073,12 +4578,12 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="R41">
         <v>4.0999999999999996</v>
@@ -4086,7 +4591,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>39000</v>
@@ -4097,7 +4602,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>-14532</v>
@@ -4108,7 +4613,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <f>Q42+Q43</f>
@@ -4121,12 +4626,12 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="R46" s="6">
         <f>R25*R28/R49</f>
@@ -4135,7 +4640,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q47">
         <f>Q26+Q32+Q37+Q42</f>
@@ -4148,7 +4653,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q48">
         <f>Q27+Q33+Q38+Q43</f>
@@ -4161,7 +4666,7 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q49">
         <f>Q47+Q48</f>
@@ -4174,15 +4679,15 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AI51" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AD52">
         <v>18852</v>
@@ -4205,12 +4710,12 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>137</v>
@@ -4221,7 +4726,7 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q56">
         <v>1607</v>
@@ -4232,7 +4737,7 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>965</v>
@@ -4243,7 +4748,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Q58">
         <f>Q57+Q56+Q55</f>
@@ -4256,12 +4761,12 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Q61">
         <v>3117</v>
@@ -4272,7 +4777,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>6561</v>
@@ -4283,7 +4788,7 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="Q63">
         <v>1593</v>
@@ -4294,7 +4799,7 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Q64">
         <v>910</v>
@@ -4305,7 +4810,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1C3B23-A060-6B46-9F46-D33DCDBF6987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D22AB-D94E-2143-8140-52794265CB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="175">
   <si>
     <t>Assertio Holdings</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Q422A</t>
   </si>
   <si>
-    <t>Q123E</t>
-  </si>
-  <si>
     <t>Q223E</t>
   </si>
   <si>
@@ -638,6 +635,9 @@
   </si>
   <si>
     <t>FY2030E</t>
+  </si>
+  <si>
+    <t>ALPHA</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -708,6 +708,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E728-CC88-2348-9F72-CF7ED1FD26A7}">
-  <dimension ref="A2:AK141"/>
+  <dimension ref="A1:AK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,230 +1074,235 @@
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AK2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="4">
+    </row>
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="7">
         <v>43555</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>43646</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>43738</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>43830</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <f>B3+366</f>
         <v>43921</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <f t="shared" ref="G3:I3" si="0">C3+366</f>
         <v>44012</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <f t="shared" si="0"/>
         <v>44104</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <f t="shared" si="0"/>
         <v>44196</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="7">
         <f>F3+365</f>
         <v>44286</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:U3" si="1">G3+365</f>
         <v>44377</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="7">
         <f t="shared" si="1"/>
         <v>44469</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="7">
         <f t="shared" si="1"/>
         <v>44561</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7">
         <f t="shared" si="1"/>
         <v>44651</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="7">
         <f t="shared" si="1"/>
         <v>44742</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="7">
         <f t="shared" si="1"/>
         <v>44834</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="7">
         <f t="shared" si="1"/>
         <v>44926</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="7">
         <f t="shared" si="1"/>
         <v>45016</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="7">
         <f t="shared" si="1"/>
         <v>45107</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="7">
         <f t="shared" si="1"/>
         <v>45199</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="7">
         <f t="shared" si="1"/>
         <v>45291</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>2019</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>2020</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="1">
         <f>AA3+1</f>
         <v>2021</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <f t="shared" ref="AC3:AK3" si="2">AB3+1</f>
         <v>2022</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="1">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="21"/>
+        <f>I17</f>
         <v>0</v>
       </c>
       <c r="J24">
@@ -2353,14 +2359,26 @@
       <c r="C27" s="5">
         <v>2124</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="5">
+        <v>2243</v>
+      </c>
+      <c r="E27" s="5">
+        <f>Z27-B27-C27-D27</f>
+        <v>2563</v>
+      </c>
       <c r="F27" s="5">
         <f>6637-G27</f>
         <v>1399</v>
       </c>
       <c r="G27" s="5">
         <v>5238</v>
+      </c>
+      <c r="H27" s="5">
+        <v>6462</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" ref="I27" si="26">AA27-H27-G27-F27</f>
+        <v>6773</v>
       </c>
       <c r="J27" s="5">
         <v>3966</v>
@@ -2406,6 +2424,14 @@
         <f>C25-C27</f>
         <v>55079</v>
       </c>
+      <c r="D28">
+        <f t="shared" ref="D28:E28" si="27">D25-D27</f>
+        <v>52904</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="27"/>
+        <v>56662</v>
+      </c>
       <c r="F28">
         <f>F25-F27</f>
         <v>19518</v>
@@ -2414,16 +2440,24 @@
         <f>G25-G27</f>
         <v>15379</v>
       </c>
+      <c r="H28">
+        <f>H25-H27</f>
+        <v>28103</v>
+      </c>
+      <c r="I28">
+        <f>I25-I27</f>
+        <v>23403</v>
+      </c>
       <c r="J28">
         <f>J25-J27</f>
         <v>22873</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:L28" si="26">K25-K27</f>
+        <f t="shared" ref="K28:L28" si="28">K25-K27</f>
         <v>21452</v>
       </c>
       <c r="L28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>25472</v>
       </c>
       <c r="N28">
@@ -2431,11 +2465,11 @@
         <v>32343</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:P28" si="27">O25-O27</f>
+        <f t="shared" ref="O28:P28" si="29">O25-O27</f>
         <v>30603</v>
       </c>
       <c r="P28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34212</v>
       </c>
       <c r="R28">
@@ -2470,8 +2504,13 @@
       <c r="C29" s="5">
         <v>1263</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="5">
+        <v>1476</v>
+      </c>
+      <c r="E29" s="5">
+        <f>Z29-B29-C29-D29</f>
+        <v>5574</v>
+      </c>
       <c r="F29" s="5">
         <f>2667-G29</f>
         <v>1041</v>
@@ -2479,6 +2518,13 @@
       <c r="G29" s="5">
         <v>1626</v>
       </c>
+      <c r="H29" s="5">
+        <v>1316</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" ref="I29:I34" si="30">AA29-H29-G29-F29</f>
+        <v>230</v>
+      </c>
       <c r="Z29">
         <v>10106</v>
       </c>
@@ -2497,14 +2543,26 @@
       <c r="C30" s="5">
         <v>24755</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="5">
+        <v>36117</v>
+      </c>
+      <c r="E30" s="5">
+        <f>Z30-B30-C30-D30</f>
+        <v>22949</v>
+      </c>
       <c r="F30" s="5">
         <f>55445-G30</f>
         <v>27314</v>
       </c>
       <c r="G30" s="5">
         <v>28131</v>
+      </c>
+      <c r="H30" s="5">
+        <v>25746</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="30"/>
+        <v>23133</v>
       </c>
       <c r="J30" s="5">
         <v>8324</v>
@@ -2544,9 +2602,17 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <f>Z31-B31-C31-D31</f>
+        <v>189790</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
+        <f t="shared" si="30"/>
+        <v>17432</v>
+      </c>
       <c r="Z31">
         <v>189790</v>
       </c>
@@ -2564,6 +2630,8 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5">
         <v>-594</v>
       </c>
@@ -2601,14 +2669,26 @@
       <c r="C33" s="5">
         <v>25443</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="5">
+        <v>25444</v>
+      </c>
+      <c r="E33" s="5">
+        <f>Z33-B33-C33-D33</f>
+        <v>25443</v>
+      </c>
       <c r="F33" s="5">
         <f>12650-G33</f>
         <v>7795</v>
       </c>
       <c r="G33" s="5">
         <v>4855</v>
+      </c>
+      <c r="H33" s="5">
+        <v>5587</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="30"/>
+        <v>6546</v>
       </c>
       <c r="J33" s="5">
         <v>6547</v>
@@ -2649,10 +2729,20 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5">
+        <f>Z34-B34-C34-D34</f>
+        <v>3891</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
         <v>6519</v>
+      </c>
+      <c r="H34" s="5">
+        <v>268</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="30"/>
+        <v>11019</v>
       </c>
       <c r="J34" s="5">
         <v>1089</v>
@@ -2686,6 +2776,14 @@
         <f>C28-C30-C32-C33-C34-C31-C29</f>
         <v>3618</v>
       </c>
+      <c r="D35">
+        <f t="shared" ref="D35:E35" si="31">D28-D30-D32-D33-D34-D31-D29</f>
+        <v>-10133</v>
+      </c>
+      <c r="E35">
+        <f>E28-E30-E32-E33-E34-E31-E29</f>
+        <v>-190985</v>
+      </c>
       <c r="F35">
         <f>F28-F30-F32-F33-F34-F31-F29</f>
         <v>-16632</v>
@@ -2694,17 +2792,29 @@
         <f>G28-G30-G32-G33-G34-G31-G29</f>
         <v>-25752</v>
       </c>
+      <c r="H35">
+        <f>H28-H30-H32-H33-H34-H31-H29</f>
+        <v>-4814</v>
+      </c>
+      <c r="I35">
+        <f>I28-I30-I32-I33-I34-I31-I29</f>
+        <v>-34957</v>
+      </c>
       <c r="J35">
         <f>J28-J30-J32-J33-J34-J31-J29</f>
         <v>7507</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:L35" si="28">K28-K30-K32-K33-K34-K31-K29</f>
+        <f t="shared" ref="K35:M35" si="32">K28-K30-K32-K33-K34-K31-K29</f>
         <v>-12001</v>
       </c>
       <c r="L35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>25472</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="N35">
         <f>N28-N30-N32-N33-N34-N31-N29</f>
@@ -2718,6 +2828,10 @@
         <f>P28-P30-P32-P33-P34-P31-P29</f>
         <v>34212</v>
       </c>
+      <c r="Q35">
+        <f>Q28-Q30-Q32-Q33-Q34-Q31-Q29</f>
+        <v>0</v>
+      </c>
       <c r="R35">
         <f>R28-R30-R32-R33-R34-R31-R29</f>
         <v>4644</v>
@@ -2731,11 +2845,11 @@
         <v>-82155</v>
       </c>
       <c r="AB35">
-        <f t="shared" ref="AB35:AC35" si="29">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
+        <f t="shared" ref="AB35:AC35" si="33">AB28-AB30-AB32-AB33-AB34-AB31-AB29</f>
         <v>9424</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>39405</v>
       </c>
     </row>
@@ -2845,11 +2959,11 @@
         <v>-2415</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:L43" si="30">K42+K41</f>
+        <f t="shared" ref="K43:L43" si="34">K42+K41</f>
         <v>-2468</v>
       </c>
       <c r="L43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N43">
@@ -2857,15 +2971,15 @@
         <v>-1782</v>
       </c>
       <c r="O43">
-        <f t="shared" ref="O43:R43" si="31">O42+O41</f>
+        <f t="shared" ref="O43:R43" si="35">O42+O41</f>
         <v>-2364</v>
       </c>
       <c r="P43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-10238</v>
       </c>
       <c r="Z43">
@@ -2894,11 +3008,11 @@
         <v>5092</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:L44" si="32">K35+K43</f>
+        <f t="shared" ref="K44:L44" si="36">K35+K43</f>
         <v>-14469</v>
       </c>
       <c r="L44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>25472</v>
       </c>
       <c r="N44">
@@ -2906,19 +3020,19 @@
         <v>9777</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:R44" si="33">O35+O43</f>
+        <f t="shared" ref="O44:R44" si="37">O35+O43</f>
         <v>8427</v>
       </c>
       <c r="P44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>34212</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-5594</v>
       </c>
       <c r="Z44">
@@ -3536,7 +3650,7 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N86">
         <v>4</v>
@@ -3553,7 +3667,7 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M87">
         <v>48319838</v>
@@ -3738,7 +3852,7 @@
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R106">
         <v>9918</v>
@@ -3874,7 +3988,7 @@
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R118">
         <v>-1376</v>
@@ -4023,7 +4137,7 @@
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB134">
         <v>44861</v>
@@ -4176,48 +4290,48 @@
         <v>118</v>
       </c>
       <c r="R1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" t="s">
-        <v>122</v>
-      </c>
       <c r="Z1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA1" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>165</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>166</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>167</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>168</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>169</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>170</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="4">
         <v>43555</v>
@@ -4303,7 +4417,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>1367</v>
@@ -4314,7 +4428,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2735</v>
@@ -4325,7 +4439,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>9594</v>
@@ -4336,7 +4450,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <f>Q5+Q6+Q7</f>
@@ -4349,12 +4463,12 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>1712</v>
@@ -4365,7 +4479,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>20</v>
@@ -4376,7 +4490,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>2945</v>
@@ -4387,7 +4501,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <f>Q12+Q13+Q14</f>
@@ -4400,7 +4514,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>-3933</v>
@@ -4424,22 +4538,22 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R25">
         <v>9.1</v>
@@ -4447,7 +4561,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>154100</v>
@@ -4458,7 +4572,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>-33495</v>
@@ -4469,7 +4583,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <f>Q26+Q27</f>
@@ -4487,7 +4601,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R31">
         <v>6.7</v>
@@ -4495,7 +4609,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>44086</v>
@@ -4506,7 +4620,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>-5511</v>
@@ -4517,7 +4631,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <f>Q32+Q33</f>
@@ -4535,7 +4649,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R36">
         <v>11.6</v>
@@ -4543,7 +4657,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>14550</v>
@@ -4554,7 +4668,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>-202</v>
@@ -4565,7 +4679,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <f>Q37+Q38</f>
@@ -4578,12 +4692,12 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R41">
         <v>4.0999999999999996</v>
@@ -4591,7 +4705,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>39000</v>
@@ -4602,7 +4716,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>-14532</v>
@@ -4613,7 +4727,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <f>Q42+Q43</f>
@@ -4626,12 +4740,12 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R46" s="6">
         <f>R25*R28/R49</f>
@@ -4640,7 +4754,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q47">
         <f>Q26+Q32+Q37+Q42</f>
@@ -4653,7 +4767,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q48">
         <f>Q27+Q33+Q38+Q43</f>
@@ -4666,7 +4780,7 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q49">
         <f>Q47+Q48</f>
@@ -4679,15 +4793,15 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD52">
         <v>18852</v>
@@ -4710,12 +4824,12 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>137</v>
@@ -4726,7 +4840,7 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>1607</v>
@@ -4737,7 +4851,7 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>965</v>
@@ -4748,7 +4862,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q58">
         <f>Q57+Q56+Q55</f>
@@ -4766,7 +4880,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q61">
         <v>3117</v>
@@ -4777,7 +4891,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q62">
         <v>6561</v>
@@ -4788,7 +4902,7 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q63">
         <v>1593</v>
@@ -4799,7 +4913,7 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q64">
         <v>910</v>
@@ -4810,7 +4924,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D22AB-D94E-2143-8140-52794265CB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8E12E2-15EF-FD48-9995-46B16A482558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -1063,10 +1063,10 @@
   <dimension ref="A1:AK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2954,16 +2954,48 @@
       <c r="A43" t="s">
         <v>22</v>
       </c>
+      <c r="B43">
+        <f>B42+B41</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:I43" si="34">C42+C41</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="J43">
         <f>J42+J41</f>
         <v>-2415</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:L43" si="34">K42+K41</f>
+        <f t="shared" ref="K43:L43" si="35">K42+K41</f>
         <v>-2468</v>
       </c>
       <c r="L43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N43">
@@ -2971,15 +3003,15 @@
         <v>-1782</v>
       </c>
       <c r="O43">
-        <f t="shared" ref="O43:R43" si="35">O42+O41</f>
+        <f t="shared" ref="O43:R43" si="36">O42+O41</f>
         <v>-2364</v>
       </c>
       <c r="P43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-10238</v>
       </c>
       <c r="Z43">
@@ -3003,16 +3035,48 @@
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B44">
+        <f>B35+B43</f>
+        <v>3072</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:I44" si="37">C35+C43</f>
+        <v>3618</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="37"/>
+        <v>-10133</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="37"/>
+        <v>-190985</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="37"/>
+        <v>-16632</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="37"/>
+        <v>-25752</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="37"/>
+        <v>-4814</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="37"/>
+        <v>-34957</v>
+      </c>
       <c r="J44">
         <f>J35+J43</f>
         <v>5092</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:L44" si="36">K35+K43</f>
+        <f t="shared" ref="K44:L44" si="38">K35+K43</f>
         <v>-14469</v>
       </c>
       <c r="L44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>25472</v>
       </c>
       <c r="N44">
@@ -3020,19 +3084,19 @@
         <v>9777</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:R44" si="37">O35+O43</f>
+        <f t="shared" ref="O44:R44" si="39">O35+O43</f>
         <v>8427</v>
       </c>
       <c r="P44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>34212</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-5594</v>
       </c>
       <c r="Z44">
@@ -3085,13 +3149,69 @@
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B47">
+        <f>B44+B46</f>
+        <v>3072</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:I47" si="40">C44+C46</f>
+        <v>3618</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="40"/>
+        <v>-10133</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="40"/>
+        <v>-190985</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="40"/>
+        <v>-16632</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="40"/>
+        <v>-25752</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="40"/>
+        <v>-4814</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="40"/>
+        <v>-34957</v>
+      </c>
       <c r="J47">
         <f>J44+J46</f>
         <v>4544</v>
       </c>
+      <c r="K47">
+        <f t="shared" ref="K47:M47" si="41">K44+K46</f>
+        <v>-14469</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="41"/>
+        <v>25472</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
       <c r="N47">
         <f>N44+N46</f>
         <v>9064</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ref="O47:Q47" si="42">O44+O46</f>
+        <v>8427</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="42"/>
+        <v>34212</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="R47">
         <f>R44+R46</f>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD7DBA9-48B2-4049-AB82-6061464A1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECA6C5-AE0D-B549-B381-844ACDD97CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="186">
   <si>
     <t>Assertio Holdings</t>
   </si>
@@ -656,6 +656,21 @@
   </si>
   <si>
     <t>$ in Thousands</t>
+  </si>
+  <si>
+    <t>Interest Payable on 2027 Convertible Notes</t>
+  </si>
+  <si>
+    <t>Interest Paid on 2024 Secured Notes</t>
+  </si>
+  <si>
+    <t>Amortization of debt discounts &amp; Royalty Rights</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total interest expense</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1098,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1886,7 +1901,7 @@
         <v>473</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" ref="Q15" si="15">AC15-P15-O15-N15</f>
+        <f t="shared" ref="Q15:Q16" si="15">AC15-P15-O15-N15</f>
         <v>487</v>
       </c>
       <c r="R15" s="4">
@@ -2284,7 +2299,7 @@
         <v>-413</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23:P23" si="28">L16</f>
+        <f t="shared" ref="L23:Q23" si="28">L16</f>
         <v>-941</v>
       </c>
       <c r="M23">
@@ -2299,10 +2314,6 @@
         <f t="shared" si="28"/>
         <v>-540</v>
       </c>
-      <c r="R23">
-        <f>R16</f>
-        <v>0</v>
-      </c>
       <c r="Z23">
         <f t="shared" si="26"/>
         <v>118614</v>
@@ -2447,7 +2458,9 @@
       <c r="K26" s="4">
         <v>3921</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4">
+        <v>3050</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4">
         <v>4195</v>
@@ -2455,8 +2468,13 @@
       <c r="O26" s="4">
         <v>4528</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="P26" s="4">
+        <v>4009</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" ref="Q26" si="33">AC26-P26-O26-N26</f>
+        <v>6016</v>
+      </c>
       <c r="R26" s="4">
         <v>5467</v>
       </c>
@@ -2486,11 +2504,11 @@
         <v>55079</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:E27" si="33">D24-D26</f>
+        <f t="shared" ref="D27:E27" si="34">D24-D26</f>
         <v>52904</v>
       </c>
       <c r="E27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>56662</v>
       </c>
       <c r="F27">
@@ -2514,24 +2532,28 @@
         <v>22873</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:L27" si="34">K24-K26</f>
+        <f t="shared" ref="K27:L27" si="35">K24-K26</f>
         <v>21452</v>
       </c>
       <c r="L27">
-        <f t="shared" si="34"/>
-        <v>25472</v>
+        <f t="shared" si="35"/>
+        <v>22422</v>
       </c>
       <c r="N27">
         <f>N24-N26</f>
         <v>32343</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:P27" si="35">O24-O26</f>
+        <f t="shared" ref="O27:Q27" si="36">O24-O26</f>
         <v>30603</v>
       </c>
       <c r="P27">
-        <f t="shared" si="35"/>
-        <v>34212</v>
+        <f t="shared" si="36"/>
+        <v>30203</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="36"/>
+        <v>44337</v>
       </c>
       <c r="R27">
         <f>R24-R26</f>
@@ -2583,7 +2605,7 @@
         <v>1316</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ref="I28:I33" si="36">AA28-H28-G28-F28</f>
+        <f t="shared" ref="I28:I33" si="37">AA28-H28-G28-F28</f>
         <v>230</v>
       </c>
       <c r="Z28">
@@ -2622,7 +2644,7 @@
         <v>25746</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23133</v>
       </c>
       <c r="J29" s="4">
@@ -2631,7 +2653,9 @@
       <c r="K29" s="4">
         <v>24040</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="4">
+        <v>9013</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4">
         <v>10638</v>
@@ -2639,7 +2663,13 @@
       <c r="O29" s="4">
         <v>10543</v>
       </c>
-      <c r="P29" s="4"/>
+      <c r="P29" s="4">
+        <v>11900</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" ref="Q29:Q32" si="38">AC29-P29-O29-N29</f>
+        <v>13705</v>
+      </c>
       <c r="R29" s="4">
         <v>16904</v>
       </c>
@@ -2671,9 +2701,10 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>17432</v>
       </c>
+      <c r="Q30" s="4"/>
       <c r="Z30">
         <v>189790</v>
       </c>
@@ -2699,7 +2730,9 @@
       <c r="K31" s="4">
         <v>2195</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31" s="4">
+        <v>300</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4">
         <v>1645</v>
@@ -2707,8 +2740,13 @@
       <c r="O31" s="4">
         <v>1300</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="P31" s="4">
+        <v>3900</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="38"/>
+        <v>11842</v>
+      </c>
       <c r="R31" s="4">
         <v>9167</v>
       </c>
@@ -2748,7 +2786,7 @@
         <v>5587</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>6546</v>
       </c>
       <c r="J32" s="4">
@@ -2757,7 +2795,9 @@
       <c r="K32" s="4">
         <v>7218</v>
       </c>
-      <c r="L32" s="4"/>
+      <c r="L32" s="4">
+        <v>7175</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4">
         <v>8501</v>
@@ -2765,8 +2805,13 @@
       <c r="O32" s="4">
         <v>7969</v>
       </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="P32" s="4">
+        <v>7969</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="38"/>
+        <v>8169</v>
+      </c>
       <c r="R32" s="4">
         <v>6284</v>
       </c>
@@ -2802,7 +2847,7 @@
         <v>268</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11019</v>
       </c>
       <c r="J33" s="4">
@@ -2838,7 +2883,7 @@
         <v>3618</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34" si="37">D27-D29-D31-D32-D33-D30-D28</f>
+        <f t="shared" ref="D34" si="39">D27-D29-D31-D32-D33-D30-D28</f>
         <v>-10133</v>
       </c>
       <c r="E34">
@@ -2866,15 +2911,15 @@
         <v>7507</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:M34" si="38">K27-K29-K31-K32-K33-K30-K28</f>
+        <f t="shared" ref="K34:M34" si="40">K27-K29-K31-K32-K33-K30-K28</f>
         <v>-12001</v>
       </c>
       <c r="L34">
-        <f t="shared" si="38"/>
-        <v>25472</v>
+        <f t="shared" si="40"/>
+        <v>5934</v>
       </c>
       <c r="M34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N34">
@@ -2887,11 +2932,11 @@
       </c>
       <c r="P34">
         <f>P27-P29-P31-P32-P33-P30-P28</f>
-        <v>34212</v>
+        <v>6434</v>
       </c>
       <c r="Q34">
         <f>Q27-Q29-Q31-Q32-Q33-Q30-Q28</f>
-        <v>0</v>
+        <v>10621</v>
       </c>
       <c r="R34">
         <f>R27-R29-R31-R32-R33-R30-R28</f>
@@ -2906,11 +2951,11 @@
         <v>-82155</v>
       </c>
       <c r="AB34">
-        <f t="shared" ref="AB34:AC34" si="39">AB27-AB29-AB31-AB32-AB33-AB30-AB28</f>
+        <f t="shared" ref="AB34:AC34" si="41">AB27-AB29-AB31-AB32-AB33-AB30-AB28</f>
         <v>9424</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>39405</v>
       </c>
     </row>
@@ -3020,31 +3065,31 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:I42" si="40">C41+C40</f>
+        <f t="shared" ref="C42:I42" si="42">C41+C40</f>
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -3052,11 +3097,11 @@
         <v>-2415</v>
       </c>
       <c r="K42">
-        <f t="shared" ref="K42:L42" si="41">K41+K40</f>
+        <f t="shared" ref="K42:L42" si="43">K41+K40</f>
         <v>-2468</v>
       </c>
       <c r="L42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N42">
@@ -3064,15 +3109,15 @@
         <v>-1782</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42:R42" si="42">O41+O40</f>
+        <f t="shared" ref="O42:R42" si="44">O41+O40</f>
         <v>-2364</v>
       </c>
       <c r="P42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-10238</v>
       </c>
       <c r="Z42">
@@ -3101,31 +3146,31 @@
         <v>3072</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:I43" si="43">C34+C42</f>
+        <f t="shared" ref="C43:I43" si="45">C34+C42</f>
         <v>3618</v>
       </c>
       <c r="D43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10133</v>
       </c>
       <c r="E43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-190985</v>
       </c>
       <c r="F43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-16632</v>
       </c>
       <c r="G43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-25752</v>
       </c>
       <c r="H43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-4814</v>
       </c>
       <c r="I43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-34957</v>
       </c>
       <c r="J43">
@@ -3133,31 +3178,31 @@
         <v>5092</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:L43" si="44">K34+K42</f>
+        <f t="shared" ref="K43:L43" si="46">K34+K42</f>
         <v>-14469</v>
       </c>
       <c r="L43">
-        <f t="shared" si="44"/>
-        <v>25472</v>
+        <f t="shared" si="46"/>
+        <v>5934</v>
       </c>
       <c r="N43">
         <f>N34+N42</f>
         <v>9777</v>
       </c>
       <c r="O43">
-        <f t="shared" ref="O43:R43" si="45">O34+O42</f>
+        <f t="shared" ref="O43:R43" si="47">O34+O42</f>
         <v>8427</v>
       </c>
       <c r="P43">
-        <f t="shared" si="45"/>
-        <v>34212</v>
+        <f t="shared" si="47"/>
+        <v>6434</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>10621</v>
       </c>
       <c r="R43">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-5594</v>
       </c>
       <c r="Z43">
@@ -3215,31 +3260,31 @@
         <v>3072</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:I46" si="46">C43+C45</f>
+        <f t="shared" ref="C46:I46" si="48">C43+C45</f>
         <v>3618</v>
       </c>
       <c r="D46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-10133</v>
       </c>
       <c r="E46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-190985</v>
       </c>
       <c r="F46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-16632</v>
       </c>
       <c r="G46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-25752</v>
       </c>
       <c r="H46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-4814</v>
       </c>
       <c r="I46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-34957</v>
       </c>
       <c r="J46">
@@ -3247,15 +3292,15 @@
         <v>4544</v>
       </c>
       <c r="K46">
-        <f t="shared" ref="K46:M46" si="47">K43+K45</f>
+        <f t="shared" ref="K46:M46" si="49">K43+K45</f>
         <v>-14469</v>
       </c>
       <c r="L46">
-        <f t="shared" si="47"/>
-        <v>25472</v>
+        <f t="shared" si="49"/>
+        <v>5934</v>
       </c>
       <c r="M46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N46">
@@ -3263,16 +3308,16 @@
         <v>9064</v>
       </c>
       <c r="O46">
-        <f t="shared" ref="O46:Q46" si="48">O43+O45</f>
+        <f t="shared" ref="O46:Q46" si="50">O43+O45</f>
         <v>8427</v>
       </c>
       <c r="P46">
-        <f t="shared" si="48"/>
-        <v>34212</v>
+        <f t="shared" si="50"/>
+        <v>6434</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>10621</v>
       </c>
       <c r="R46">
         <f>R43+R45</f>
@@ -3430,6 +3475,9 @@
       <c r="J58">
         <v>36810</v>
       </c>
+      <c r="L58">
+        <v>36810</v>
+      </c>
       <c r="N58">
         <v>61389</v>
       </c>
@@ -3450,6 +3498,9 @@
       <c r="J59">
         <v>44361</v>
       </c>
+      <c r="L59">
+        <v>44361</v>
+      </c>
       <c r="N59">
         <v>48923</v>
       </c>
@@ -3470,6 +3521,9 @@
       <c r="J60">
         <v>7489</v>
       </c>
+      <c r="L60">
+        <v>7489</v>
+      </c>
       <c r="N60">
         <v>9480</v>
       </c>
@@ -3490,6 +3544,9 @@
       <c r="J61">
         <v>14838</v>
       </c>
+      <c r="L61">
+        <v>14838</v>
+      </c>
       <c r="N61">
         <v>5323</v>
       </c>
@@ -3511,6 +3568,10 @@
         <f>J58+J59+J60+J61</f>
         <v>103498</v>
       </c>
+      <c r="L62">
+        <f>L58+L59+L60+L61</f>
+        <v>103498</v>
+      </c>
       <c r="N62">
         <f>N58+N59+N60+N61</f>
         <v>125115</v>
@@ -3535,6 +3596,9 @@
       <c r="J64">
         <v>1527</v>
       </c>
+      <c r="L64">
+        <v>1527</v>
+      </c>
       <c r="N64">
         <v>1329</v>
       </c>
@@ -3555,6 +3619,9 @@
       <c r="J65">
         <v>216054</v>
       </c>
+      <c r="L65">
+        <v>216054</v>
+      </c>
       <c r="N65">
         <v>207554</v>
       </c>
@@ -3586,6 +3653,9 @@
       <c r="J67">
         <v>5468</v>
       </c>
+      <c r="L67">
+        <v>5468</v>
+      </c>
       <c r="N67">
         <v>5137</v>
       </c>
@@ -3607,6 +3677,10 @@
         <f>J62+J64+J65+J66+J67</f>
         <v>326547</v>
       </c>
+      <c r="L68">
+        <f>L62+L64+L65+L66+L67</f>
+        <v>326547</v>
+      </c>
       <c r="N68">
         <f>N62+N64+N65+N66+N67</f>
         <v>339135</v>
@@ -3633,6 +3707,9 @@
       <c r="A71" t="s">
         <v>45</v>
       </c>
+      <c r="L71">
+        <v>6685</v>
+      </c>
       <c r="N71">
         <v>8523</v>
       </c>
@@ -3650,6 +3727,9 @@
       <c r="A72" t="s">
         <v>46</v>
       </c>
+      <c r="L72">
+        <v>52662</v>
+      </c>
       <c r="N72">
         <v>55588</v>
       </c>
@@ -3667,6 +3747,9 @@
       <c r="A73" t="s">
         <v>47</v>
       </c>
+      <c r="L73">
+        <v>14699</v>
+      </c>
       <c r="N73">
         <v>15386</v>
       </c>
@@ -3684,6 +3767,9 @@
       <c r="A74" t="s">
         <v>48</v>
       </c>
+      <c r="L74">
+        <v>12174</v>
+      </c>
       <c r="N74">
         <v>12271</v>
       </c>
@@ -3701,6 +3787,9 @@
       <c r="A75" t="s">
         <v>49</v>
       </c>
+      <c r="L75">
+        <v>14500</v>
+      </c>
       <c r="N75">
         <v>14600</v>
       </c>
@@ -3718,6 +3807,9 @@
       <c r="A76" t="s">
         <v>50</v>
       </c>
+      <c r="L76">
+        <v>34299</v>
+      </c>
       <c r="N76">
         <v>32159</v>
       </c>
@@ -3735,6 +3827,10 @@
       <c r="A77" t="s">
         <v>51</v>
       </c>
+      <c r="L77">
+        <f>L71+L72+L73+L74+L75+L76</f>
+        <v>135019</v>
+      </c>
       <c r="N77">
         <f>N71+N72+N73+N74+N75+N76</f>
         <v>138527</v>
@@ -3756,6 +3852,9 @@
       <c r="A79" t="s">
         <v>52</v>
       </c>
+      <c r="L79">
+        <v>61319</v>
+      </c>
       <c r="N79">
         <v>61250</v>
       </c>
@@ -3773,6 +3872,9 @@
       <c r="A80" t="s">
         <v>53</v>
       </c>
+      <c r="L80">
+        <v>23159</v>
+      </c>
       <c r="N80">
         <v>22859</v>
       </c>
@@ -3790,6 +3892,9 @@
       <c r="A81" t="s">
         <v>54</v>
       </c>
+      <c r="L81">
+        <v>4636</v>
+      </c>
       <c r="N81">
         <v>4637</v>
       </c>
@@ -3807,6 +3912,10 @@
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="L82">
+        <f>L77+L79+L80+L81</f>
+        <v>224133</v>
+      </c>
       <c r="N82">
         <f>N77+N79+N80+N81</f>
         <v>227273</v>
@@ -3833,6 +3942,9 @@
       <c r="A85" t="s">
         <v>122</v>
       </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
       <c r="N85">
         <v>4</v>
       </c>
@@ -3850,6 +3962,9 @@
       <c r="A86" t="s">
         <v>123</v>
       </c>
+      <c r="L86">
+        <v>44640444</v>
+      </c>
       <c r="M86">
         <v>48319838</v>
       </c>
@@ -3870,6 +3985,9 @@
       <c r="A87" t="s">
         <v>57</v>
       </c>
+      <c r="L87">
+        <v>531636</v>
+      </c>
       <c r="N87">
         <v>532020</v>
       </c>
@@ -3887,6 +4005,9 @@
       <c r="A88" t="s">
         <v>58</v>
       </c>
+      <c r="L88">
+        <v>-429226</v>
+      </c>
       <c r="N88">
         <v>-420162</v>
       </c>
@@ -3904,6 +4025,10 @@
       <c r="A89" t="s">
         <v>59</v>
       </c>
+      <c r="L89">
+        <f>L85+L87+L88</f>
+        <v>102414</v>
+      </c>
       <c r="N89">
         <f>N85+N87+N88</f>
         <v>111862</v>
@@ -3925,6 +4050,10 @@
       <c r="A91" t="s">
         <v>60</v>
       </c>
+      <c r="L91">
+        <f>L89+L82</f>
+        <v>326547</v>
+      </c>
       <c r="N91">
         <f>N89+N82</f>
         <v>339135</v>
@@ -3945,6 +4074,10 @@
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>61</v>
+      </c>
+      <c r="L92">
+        <f>L91-L68</f>
+        <v>0</v>
       </c>
       <c r="N92">
         <f>N91-N68</f>
@@ -4404,13 +4537,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECAAE1E-5C00-B245-A2B7-73C40CB24AA0}">
-  <dimension ref="A1:AQ66"/>
+  <dimension ref="A1:AQ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AQ1048576"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5233,6 +5366,59 @@
         <v>161</v>
       </c>
     </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="P72">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>182</v>
+      </c>
+      <c r="L73">
+        <v>2454</v>
+      </c>
+      <c r="P73">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>183</v>
+      </c>
+      <c r="L74">
+        <v>41</v>
+      </c>
+      <c r="P74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>185</v>
+      </c>
+      <c r="L76">
+        <f>L75+L74+L73+L72</f>
+        <v>2495</v>
+      </c>
+      <c r="P76">
+        <f>P75+P74+P73+P72</f>
+        <v>2052</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECA6C5-AE0D-B549-B381-844ACDD97CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6287A-FE5D-6D42-8AFF-B1D7DDAA5FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -741,6 +741,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,21 +1095,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E728-CC88-2348-9F72-CF7ED1FD26A7}">
   <dimension ref="A1:AQ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="10" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P48" sqref="P48"/>
+      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="7" customWidth="1"/>
     <col min="2" max="9" width="10.83203125" outlineLevel="1"/>
     <col min="31" max="43" width="10.83203125" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="32" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1378,18 +1379,18 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:43">
+      <c r="A3" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:43">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="4">
@@ -1441,8 +1442,8 @@
         <v>100338</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:43">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N7" s="4">
@@ -1465,8 +1466,8 @@
         <v>11148</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:43">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="4">
@@ -1480,8 +1481,8 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:43">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="4">
@@ -1533,8 +1534,8 @@
         <v>9110</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:43">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4">
@@ -1607,8 +1608,8 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:43">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4">
@@ -1681,8 +1682,8 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:43">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4">
@@ -1757,8 +1758,8 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:43">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B13">
@@ -1846,8 +1847,8 @@
         <v>155121</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:43">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4">
@@ -1920,8 +1921,8 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:43">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4">
@@ -1977,8 +1978,8 @@
         <v>-1290</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:29">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B17">
@@ -2066,18 +2067,18 @@
         <v>156234</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:29">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:29">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B21">
@@ -2165,8 +2166,8 @@
         <v>155121</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:29">
+      <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B22">
@@ -2254,8 +2255,8 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:29">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B23">
@@ -2331,8 +2332,8 @@
         <v>-1290</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:29">
+      <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B24">
@@ -2420,8 +2421,8 @@
         <v>156234</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:29">
+      <c r="A26" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B26" s="4">
@@ -2461,7 +2462,10 @@
       <c r="L26" s="4">
         <v>3050</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4">
+        <f>AB26-L26-K26-J26</f>
+        <v>4895</v>
+      </c>
       <c r="N26" s="4">
         <v>4195</v>
       </c>
@@ -2491,8 +2495,8 @@
         <v>18748</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:29">
+      <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B27">
@@ -2532,13 +2536,17 @@
         <v>22873</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:L27" si="35">K24-K26</f>
+        <f t="shared" ref="K27:M27" si="35">K24-K26</f>
         <v>21452</v>
       </c>
       <c r="L27">
         <f t="shared" si="35"/>
         <v>22422</v>
       </c>
+      <c r="M27">
+        <f t="shared" si="35"/>
+        <v>28435</v>
+      </c>
       <c r="N27">
         <f>N24-N26</f>
         <v>32343</v>
@@ -2576,8 +2584,8 @@
         <v>137486</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:29">
+      <c r="A28" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="4">
@@ -2608,6 +2616,7 @@
         <f t="shared" ref="I28:I33" si="37">AA28-H28-G28-F28</f>
         <v>230</v>
       </c>
+      <c r="M28" s="4"/>
       <c r="Z28">
         <v>10106</v>
       </c>
@@ -2615,8 +2624,8 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:29">
+      <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="4">
@@ -2656,7 +2665,10 @@
       <c r="L29" s="4">
         <v>9013</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4">
+        <f>AB29-L29-K29-J29</f>
+        <v>11264</v>
+      </c>
       <c r="N29" s="4">
         <v>10638</v>
       </c>
@@ -2686,8 +2698,8 @@
         <v>46786</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:29">
+      <c r="A30" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="4"/>
@@ -2704,6 +2716,7 @@
         <f t="shared" si="37"/>
         <v>17432</v>
       </c>
+      <c r="M30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="Z30">
         <v>189790</v>
@@ -2712,8 +2725,8 @@
         <v>17432</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:29">
+      <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="4"/>
@@ -2733,7 +2746,10 @@
       <c r="L31" s="4">
         <v>300</v>
       </c>
-      <c r="M31" s="4"/>
+      <c r="M31" s="4">
+        <f>AB31-L31-K31-J31</f>
+        <v>2013</v>
+      </c>
       <c r="N31" s="4">
         <v>1645</v>
       </c>
@@ -2757,8 +2773,8 @@
         <v>18687</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:29">
+      <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="4">
@@ -2798,7 +2814,10 @@
       <c r="L32" s="4">
         <v>7175</v>
       </c>
-      <c r="M32" s="4"/>
+      <c r="M32" s="4">
+        <f>AB32-L32-K32-J32</f>
+        <v>7174</v>
+      </c>
       <c r="N32" s="4">
         <v>8501</v>
       </c>
@@ -2828,8 +2847,8 @@
         <v>32608</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:29">
+      <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="4"/>
@@ -2870,7 +2889,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2920,7 +2939,7 @@
       </c>
       <c r="M34">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>7984</v>
       </c>
       <c r="N34">
         <f>N27-N29-N31-N32-N33-N30-N28</f>
@@ -2959,21 +2978,21 @@
         <v>39405</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:29">
+      <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
       <c r="AA37">
         <v>126655</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:29">
+      <c r="A38" s="7" t="s">
         <v>101</v>
       </c>
       <c r="Z38">
@@ -2983,81 +3002,81 @@
         <v>-56113</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:29">
+      <c r="A39" s="7" t="s">
         <v>102</v>
       </c>
       <c r="AA39">
         <v>-14749</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:29" s="4" customFormat="1">
+      <c r="A40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="4">
         <v>-2684</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="4">
         <v>-2605</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="4">
         <v>-2327</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="4">
         <v>-2269</v>
       </c>
       <c r="R40" s="4">
         <v>-1122</v>
       </c>
-      <c r="Z40">
+      <c r="Z40" s="4">
         <v>-58389</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="4">
         <v>-15926</v>
       </c>
-      <c r="AB40">
+      <c r="AB40" s="4">
         <v>-10220</v>
       </c>
-      <c r="AC40">
+      <c r="AC40" s="4">
         <v>-7961</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:29" s="4" customFormat="1">
+      <c r="A41" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J41" s="4">
         <v>269</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <v>137</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="4">
         <v>545</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="4">
         <v>-95</v>
       </c>
       <c r="R41" s="4">
         <f>802+-9918</f>
         <v>-9116</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="4">
         <v>3948</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="4">
         <v>-3225</v>
       </c>
-      <c r="AB41">
+      <c r="AB41" s="4">
         <v>243</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="4">
         <v>-278</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:29">
+      <c r="A42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B42">
@@ -3137,7 +3156,7 @@
         <v>-8239</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29">
       <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
@@ -3222,36 +3241,36 @@
         <v>31166</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:29" s="4" customFormat="1">
+      <c r="A45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>-548</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="4">
         <v>-713</v>
       </c>
       <c r="R45" s="4">
         <v>2110</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="4">
         <v>5283</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="4">
         <v>17369</v>
       </c>
-      <c r="AB45">
+      <c r="AB45" s="4">
         <v>-728</v>
       </c>
-      <c r="AC45">
+      <c r="AC45" s="4">
         <v>78459</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -3340,8 +3359,8 @@
         <v>109625</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:29">
+      <c r="A48" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J48" s="2">
@@ -3373,8 +3392,8 @@
         <v>2.332248319291975</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:29">
+      <c r="A49" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J49" s="2">
@@ -3406,162 +3425,162 @@
         <v>2.0052497759241983</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:29" s="4" customFormat="1">
+      <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="4">
         <v>45204</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="4">
         <v>37824</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="4">
         <v>51005</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="4">
         <v>70716</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="4">
         <v>104835</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" s="4">
         <v>43169</v>
       </c>
-      <c r="AC50">
+      <c r="AC50" s="4">
         <v>47004</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:29" s="4" customFormat="1">
+      <c r="A51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="4">
         <v>46127</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="4">
         <v>38480</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="4">
         <v>51005</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="4">
         <v>70716</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="4">
         <v>104835</v>
       </c>
-      <c r="AB51">
+      <c r="AB51" s="4">
         <v>43169</v>
       </c>
-      <c r="AC51">
+      <c r="AC51" s="4">
         <v>54669</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:29" s="4" customFormat="1">
+      <c r="A58" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <v>36810</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="4">
         <v>36810</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="4">
         <v>61389</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="4">
         <v>68603</v>
       </c>
-      <c r="AB58">
+      <c r="AB58" s="4">
         <v>36810</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="4">
         <v>64941</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:29" s="4" customFormat="1">
+      <c r="A59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="4">
         <v>44361</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="4">
         <v>44361</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="4">
         <v>48923</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="4">
         <v>46466</v>
       </c>
-      <c r="AB59">
+      <c r="AB59" s="4">
         <v>44361</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" s="4">
         <v>45357</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:29" s="4" customFormat="1">
+      <c r="A60" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="4">
         <v>7489</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="4">
         <v>7489</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="4">
         <v>9480</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="4">
         <v>16226</v>
       </c>
-      <c r="AB60">
+      <c r="AB60" s="4">
         <v>7489</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" s="4">
         <v>13696</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:29" s="4" customFormat="1">
+      <c r="A61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="4">
         <v>14838</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="4">
         <v>14838</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="4">
         <v>5323</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="4">
         <v>6554</v>
       </c>
-      <c r="AB61">
+      <c r="AB61" s="4">
         <v>14838</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="4">
         <v>8268</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:29">
+      <c r="A62" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J62">
@@ -3589,87 +3608,87 @@
         <v>132262</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:29" s="4" customFormat="1">
+      <c r="A64" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="4">
         <v>1527</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="4">
         <v>1527</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="4">
         <v>1329</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="4">
         <v>544</v>
       </c>
-      <c r="AB64">
+      <c r="AB64" s="4">
         <v>1527</v>
       </c>
-      <c r="AC64">
+      <c r="AC64" s="4">
         <v>744</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:29" s="4" customFormat="1">
+      <c r="A65" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="4">
         <v>216054</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="4">
         <v>216054</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="4">
         <v>207554</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="4">
         <v>191712</v>
       </c>
-      <c r="AB65">
+      <c r="AB65" s="4">
         <v>216054</v>
       </c>
-      <c r="AC65">
+      <c r="AC65" s="4">
         <v>197996</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:29" s="4" customFormat="1">
+      <c r="A66" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="4">
         <v>81569</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" s="4">
         <v>80202</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:29" s="4" customFormat="1">
+      <c r="A67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="4">
         <v>5468</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="4">
         <v>5468</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="4">
         <v>5137</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="4">
         <v>2600</v>
       </c>
-      <c r="AB67">
+      <c r="AB67" s="4">
         <v>5468</v>
       </c>
-      <c r="AC67">
+      <c r="AC67" s="4">
         <v>2709</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29">
       <c r="A68" s="1" t="s">
         <v>43</v>
       </c>
@@ -3698,13 +3717,13 @@
         <v>413913</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29">
       <c r="A70" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:29">
+      <c r="A71" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L71">
@@ -3723,108 +3742,108 @@
         <v>5991</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:29" s="4" customFormat="1">
+      <c r="A72" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="4">
         <v>52662</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="4">
         <v>55588</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="4">
         <v>52313</v>
       </c>
-      <c r="AB72">
+      <c r="AB72" s="4">
         <v>52662</v>
       </c>
-      <c r="AC72">
+      <c r="AC72" s="4">
         <v>49426</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:29" s="4" customFormat="1">
+      <c r="A73" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="4">
         <v>14699</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="4">
         <v>15386</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="4">
         <v>10799</v>
       </c>
-      <c r="AB73">
+      <c r="AB73" s="4">
         <v>14699</v>
       </c>
-      <c r="AC73">
+      <c r="AC73" s="4">
         <v>12181</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:29" s="4" customFormat="1">
+      <c r="A74" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="4">
         <v>12174</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="4">
         <v>12271</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="4">
         <v>470</v>
       </c>
-      <c r="AB74">
+      <c r="AB74" s="4">
         <v>12174</v>
       </c>
-      <c r="AC74">
+      <c r="AC74" s="4">
         <v>470</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:29" s="4" customFormat="1">
+      <c r="A75" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="4">
         <v>14500</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="4">
         <v>14600</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="4">
         <v>24458</v>
       </c>
-      <c r="AB75">
+      <c r="AB75" s="4">
         <v>14500</v>
       </c>
-      <c r="AC75">
+      <c r="AC75" s="4">
         <v>26300</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:29" s="4" customFormat="1">
+      <c r="A76" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="4">
         <v>34299</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="4">
         <v>32159</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="4">
         <v>332</v>
       </c>
-      <c r="AB76">
+      <c r="AB76" s="4">
         <v>34299</v>
       </c>
-      <c r="AC76">
+      <c r="AC76" s="4">
         <v>948</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:29">
+      <c r="A77" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L77">
@@ -3848,67 +3867,67 @@
         <v>95316</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:29" s="4" customFormat="1">
+      <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="4">
         <v>61319</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="4">
         <v>61250</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="4">
         <v>38151</v>
       </c>
-      <c r="AB79">
+      <c r="AB79" s="4">
         <v>61319</v>
       </c>
-      <c r="AC79">
+      <c r="AC79" s="4">
         <v>66403</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:29" s="4" customFormat="1">
+      <c r="A80" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="4">
         <v>23159</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="4">
         <v>22859</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="4">
         <v>26600</v>
       </c>
-      <c r="AB80">
+      <c r="AB80" s="4">
         <v>23159</v>
       </c>
-      <c r="AC80">
+      <c r="AC80" s="4">
         <v>22200</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:29" s="4" customFormat="1">
+      <c r="A81" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="4">
         <v>4636</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="4">
         <v>4637</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="4">
         <v>4314</v>
       </c>
-      <c r="AB81">
+      <c r="AB81" s="4">
         <v>4636</v>
       </c>
-      <c r="AC81">
+      <c r="AC81" s="4">
         <v>4269</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
@@ -3933,96 +3952,96 @@
         <v>188188</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29">
       <c r="A84" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:29" s="4" customFormat="1">
+      <c r="A85" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="4">
         <v>4</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="4">
         <v>4</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="4">
         <v>5</v>
       </c>
-      <c r="AB85">
+      <c r="AB85" s="4">
         <v>4</v>
       </c>
-      <c r="AC85">
+      <c r="AC85" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:29" s="4" customFormat="1">
+      <c r="A86" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="4">
         <v>44640444</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="4">
         <v>48319838</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="4">
         <v>45335426</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="4">
         <v>55661866</v>
       </c>
-      <c r="AB86">
+      <c r="AB86" s="4">
         <v>44640444</v>
       </c>
-      <c r="AC86">
+      <c r="AC86" s="4">
         <v>48319838</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:29" s="4" customFormat="1">
+      <c r="A87" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="4">
         <v>531636</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="4">
         <v>532020</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="4">
         <v>573744</v>
       </c>
-      <c r="AB87">
+      <c r="AB87" s="4">
         <v>531636</v>
       </c>
-      <c r="AC87">
+      <c r="AC87" s="4">
         <v>545321</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:29" s="4" customFormat="1">
+      <c r="A88" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="4">
         <v>-429226</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="4">
         <v>-420162</v>
       </c>
-      <c r="R88">
+      <c r="R88" s="4">
         <v>-323085</v>
       </c>
-      <c r="AB88">
+      <c r="AB88" s="4">
         <v>-429226</v>
       </c>
-      <c r="AC88">
+      <c r="AC88" s="4">
         <v>-319601</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:29">
+      <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L89">
@@ -4046,8 +4065,8 @@
         <v>225725</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:29">
+      <c r="A91" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L91">
@@ -4071,8 +4090,8 @@
         <v>413913</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:29">
+      <c r="A92" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L92">
@@ -4096,18 +4115,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29">
       <c r="A97" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29">
       <c r="A99" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:29">
+      <c r="A100" s="7" t="s">
         <v>25</v>
       </c>
       <c r="R100">
@@ -4123,13 +4142,13 @@
         <v>109625</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:29">
+      <c r="A101" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:29">
+      <c r="A102" s="7" t="s">
         <v>65</v>
       </c>
       <c r="R102">
@@ -4142,8 +4161,8 @@
         <v>33396</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="103" spans="1:29">
+      <c r="A103" s="7" t="s">
         <v>66</v>
       </c>
       <c r="R103">
@@ -4156,24 +4175,24 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:29">
+      <c r="A104" s="7" t="s">
         <v>67</v>
       </c>
       <c r="AC104">
         <v>-1046</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="105" spans="1:29">
+      <c r="A105" s="7" t="s">
         <v>125</v>
       </c>
       <c r="R105">
         <v>9918</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="106" spans="1:29">
+      <c r="A106" s="7" t="s">
         <v>68</v>
       </c>
       <c r="R106">
@@ -4186,8 +4205,8 @@
         <v>18939</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="1:29">
+      <c r="A107" s="7" t="s">
         <v>69</v>
       </c>
       <c r="R107">
@@ -4200,8 +4219,8 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="108" spans="1:29">
+      <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
       <c r="R108">
@@ -4214,8 +4233,8 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:29">
+      <c r="A109" s="7" t="s">
         <v>71</v>
       </c>
       <c r="R109">
@@ -4225,13 +4244,13 @@
         <v>-80375</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="1:29">
+      <c r="A111" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:29">
+      <c r="A112" s="7" t="s">
         <v>73</v>
       </c>
       <c r="R112">
@@ -4244,8 +4263,8 @@
         <v>-996</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:29">
+      <c r="A113" s="7" t="s">
         <v>74</v>
       </c>
       <c r="R113">
@@ -4258,8 +4277,8 @@
         <v>-6593</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:29">
+      <c r="A114" s="7" t="s">
         <v>75</v>
       </c>
       <c r="R114">
@@ -4272,8 +4291,8 @@
         <v>8019</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:29">
+      <c r="A115" s="7" t="s">
         <v>76</v>
       </c>
       <c r="R115">
@@ -4286,8 +4305,8 @@
         <v>-10208</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="116" spans="1:29">
+      <c r="A116" s="7" t="s">
         <v>46</v>
       </c>
       <c r="R116">
@@ -4300,15 +4319,15 @@
         <v>-3236</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:29">
+      <c r="A117" s="7" t="s">
         <v>126</v>
       </c>
       <c r="R117">
         <v>-1376</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29">
       <c r="A118" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,13 +4344,13 @@
         <v>78598</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29">
       <c r="A120" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="121" spans="1:29">
+      <c r="A121" s="7" t="s">
         <v>81</v>
       </c>
       <c r="AB121">
@@ -4341,8 +4360,8 @@
         <v>-274</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:29">
+      <c r="A122" s="7" t="s">
         <v>82</v>
       </c>
       <c r="AB122">
@@ -4352,8 +4371,8 @@
         <v>-27027</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="123" spans="1:29">
+      <c r="A123" s="7" t="s">
         <v>83</v>
       </c>
       <c r="R123">
@@ -4363,7 +4382,7 @@
         <v>-15372</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29">
       <c r="A124" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,21 +4399,21 @@
         <v>-42673</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29">
       <c r="A126" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="127" spans="1:29">
+      <c r="A127" s="7" t="s">
         <v>80</v>
       </c>
       <c r="AC127">
         <v>70000</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="128" spans="1:29">
+      <c r="A128" s="7" t="s">
         <v>90</v>
       </c>
       <c r="AB128">
@@ -4404,16 +4423,16 @@
         <v>-70750</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="129" spans="1:29">
+      <c r="A129" s="7" t="s">
         <v>86</v>
       </c>
       <c r="AC129">
         <v>-4084</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="130" spans="1:29">
+      <c r="A130" s="7" t="s">
         <v>87</v>
       </c>
       <c r="R130">
@@ -4426,8 +4445,8 @@
         <v>-7845</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="131" spans="1:29">
+      <c r="A131" s="7" t="s">
         <v>88</v>
       </c>
       <c r="AB131">
@@ -4437,8 +4456,8 @@
         <v>-1297</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="132" spans="1:29">
+      <c r="A132" s="7" t="s">
         <v>89</v>
       </c>
       <c r="R132">
@@ -4449,8 +4468,8 @@
         <v>-335</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="133" spans="1:29">
+      <c r="A133" s="7" t="s">
         <v>127</v>
       </c>
       <c r="AB133">
@@ -4460,8 +4479,8 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="134" spans="1:29">
+      <c r="A134" s="7" t="s">
         <v>91</v>
       </c>
       <c r="R134">
@@ -4474,8 +4493,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="135" spans="1:29">
+      <c r="A135" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AB135">
@@ -4485,7 +4504,7 @@
         <v>-872</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29">
       <c r="A136" s="1" t="s">
         <v>93</v>
       </c>
@@ -4502,7 +4521,7 @@
         <v>-7794</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -4519,13 +4538,13 @@
         <v>28131</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="139" spans="1:29">
+      <c r="A139" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="140" spans="1:29">
+      <c r="A140" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4546,14 +4565,14 @@
       <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="9" width="10.83203125" outlineLevel="1"/>
     <col min="31" max="43" width="10.83203125" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="32" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4691,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -4824,7 +4843,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -4849,12 +4868,12 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -4865,7 +4884,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -4876,7 +4895,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -4887,7 +4906,7 @@
         <v>13628</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -4900,12 +4919,12 @@
         <v>16226</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -4916,7 +4935,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -4927,7 +4946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -4938,7 +4957,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -4951,7 +4970,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -4962,7 +4981,7 @@
         <v>-4129</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -4975,22 +4994,22 @@
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -4998,7 +5017,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -5009,7 +5028,7 @@
         <v>154100</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -5020,7 +5039,7 @@
         <v>-36705</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -5033,12 +5052,12 @@
         <v>117395</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -5046,7 +5065,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -5057,7 +5076,7 @@
         <v>44086</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5068,7 +5087,7 @@
         <v>-6888</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -5081,12 +5100,12 @@
         <v>37198</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5094,7 +5113,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -5105,7 +5124,7 @@
         <v>14550</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -5116,7 +5135,7 @@
         <v>-505</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -5129,12 +5148,12 @@
         <v>14045</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -5142,7 +5161,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -5153,7 +5172,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -5164,7 +5183,7 @@
         <v>-15926</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -5177,12 +5196,12 @@
         <v>23074</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -5191,7 +5210,7 @@
         <v>5.5723924428309131</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5204,7 +5223,7 @@
         <v>251736</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -5217,7 +5236,7 @@
         <v>-60024</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -5230,7 +5249,7 @@
         <v>191712</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -5238,7 +5257,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -5261,12 +5280,12 @@
         <v>75705</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35">
       <c r="A55" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5277,7 +5296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -5288,7 +5307,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -5299,7 +5318,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35">
       <c r="A59" s="1" t="s">
         <v>156</v>
       </c>
@@ -5312,12 +5331,12 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35">
       <c r="A61" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -5328,7 +5347,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35">
       <c r="A63" t="s">
         <v>158</v>
       </c>
@@ -5339,7 +5358,7 @@
         <v>9587</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35">
       <c r="A64" t="s">
         <v>159</v>
       </c>
@@ -5350,7 +5369,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -5361,17 +5380,17 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -5379,7 +5398,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -5390,7 +5409,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -5401,12 +5420,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -5431,7 +5450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ASRT Model.xlsx
+++ b/ASRT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/ASRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6287A-FE5D-6D42-8AFF-B1D7DDAA5FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43336538-AA13-024A-B6CA-7104184466D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A0DF5598-9F1E-6445-A0B8-833A8CBF5F59}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1095,21 +1095,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E728-CC88-2348-9F72-CF7ED1FD26A7}">
   <dimension ref="A1:AQ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="65" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomRight" activeCell="Y65" sqref="Y65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" style="7" customWidth="1"/>
     <col min="2" max="9" width="10.83203125" outlineLevel="1"/>
     <col min="31" max="43" width="10.83203125" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="32" customHeight="1">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1">
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1379,17 +1379,17 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>100338</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>11148</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>9110</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>155121</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>-1290</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -2067,17 +2067,17 @@
         <v>156234</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>155121</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>-1290</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>156234</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>98</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>18748</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>137486</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>97</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>46786</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>99</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>17432</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>18687</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>32608</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2978,12 +2978,12 @@
         <v>39405</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>126655</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>101</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>-56113</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>102</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>-14749</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="4" customFormat="1">
+    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>20</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>-7961</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1">
+    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>21</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>-278</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>22</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>-8239</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
@@ -3241,10 +3241,10 @@
         <v>31166</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:29" s="4" customFormat="1">
+    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>24</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>78459</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>109625</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>31</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>2.332248319291975</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>32</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>2.0052497759241983</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="4" customFormat="1">
+    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>47004</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="4" customFormat="1">
+    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>27</v>
       </c>
@@ -3477,24 +3477,21 @@
         <v>54669</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="4" customFormat="1">
+    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J58" s="4">
-        <v>36810</v>
-      </c>
-      <c r="L58" s="4">
+      <c r="M58" s="4">
         <v>36810</v>
       </c>
       <c r="N58" s="4">
@@ -3510,14 +3507,11 @@
         <v>64941</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="4" customFormat="1">
+    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J59" s="4">
-        <v>44361</v>
-      </c>
-      <c r="L59" s="4">
+      <c r="M59" s="4">
         <v>44361</v>
       </c>
       <c r="N59" s="4">
@@ -3533,14 +3527,11 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="4" customFormat="1">
+    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J60" s="4">
-        <v>7489</v>
-      </c>
-      <c r="L60" s="4">
+      <c r="M60" s="4">
         <v>7489</v>
       </c>
       <c r="N60" s="4">
@@ -3556,14 +3547,11 @@
         <v>13696</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="4" customFormat="1">
+    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J61" s="4">
-        <v>14838</v>
-      </c>
-      <c r="L61" s="4">
+      <c r="M61" s="4">
         <v>14838</v>
       </c>
       <c r="N61" s="4">
@@ -3579,16 +3567,12 @@
         <v>8268</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J62">
-        <f>J58+J59+J60+J61</f>
-        <v>103498</v>
-      </c>
-      <c r="L62">
-        <f>L58+L59+L60+L61</f>
+      <c r="M62">
+        <f>M58+M59+M60+M61</f>
         <v>103498</v>
       </c>
       <c r="N62">
@@ -3608,14 +3592,11 @@
         <v>132262</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="4" customFormat="1">
+    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J64" s="4">
-        <v>1527</v>
-      </c>
-      <c r="L64" s="4">
+      <c r="M64" s="4">
         <v>1527</v>
       </c>
       <c r="N64" s="4">
@@ -3631,14 +3612,11 @@
         <v>744</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="4" customFormat="1">
+    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J65" s="4">
-        <v>216054</v>
-      </c>
-      <c r="L65" s="4">
+      <c r="M65" s="4">
         <v>216054</v>
       </c>
       <c r="N65" s="4">
@@ -3654,7 +3632,7 @@
         <v>197996</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="4" customFormat="1">
+    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>41</v>
       </c>
@@ -3665,14 +3643,11 @@
         <v>80202</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="4" customFormat="1">
+    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J67" s="4">
-        <v>5468</v>
-      </c>
-      <c r="L67" s="4">
+      <c r="M67" s="4">
         <v>5468</v>
       </c>
       <c r="N67" s="4">
@@ -3688,16 +3663,12 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J68">
-        <f>J62+J64+J65+J66+J67</f>
-        <v>326547</v>
-      </c>
-      <c r="L68">
-        <f>L62+L64+L65+L66+L67</f>
+      <c r="M68">
+        <f>M62+M64+M65+M66+M67</f>
         <v>326547</v>
       </c>
       <c r="N68">
@@ -3717,16 +3688,16 @@
         <v>413913</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>6685</v>
       </c>
       <c r="N71">
@@ -3742,11 +3713,11 @@
         <v>5991</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="4" customFormat="1">
+    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L72" s="4">
+      <c r="M72" s="4">
         <v>52662</v>
       </c>
       <c r="N72" s="4">
@@ -3762,11 +3733,11 @@
         <v>49426</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="4" customFormat="1">
+    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L73" s="4">
+      <c r="M73" s="4">
         <v>14699</v>
       </c>
       <c r="N73" s="4">
@@ -3782,11 +3753,11 @@
         <v>12181</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="4" customFormat="1">
+    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L74" s="4">
+      <c r="M74" s="4">
         <v>12174</v>
       </c>
       <c r="N74" s="4">
@@ -3802,11 +3773,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="4" customFormat="1">
+    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L75" s="4">
+      <c r="M75" s="4">
         <v>14500</v>
       </c>
       <c r="N75" s="4">
@@ -3822,11 +3793,11 @@
         <v>26300</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="4" customFormat="1">
+    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L76" s="4">
+      <c r="M76" s="4">
         <v>34299</v>
       </c>
       <c r="N76" s="4">
@@ -3842,12 +3813,12 @@
         <v>948</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L77">
-        <f>L71+L72+L73+L74+L75+L76</f>
+      <c r="M77">
+        <f>M71+M72+M73+M74+M75+M76</f>
         <v>135019</v>
       </c>
       <c r="N77">
@@ -3867,11 +3838,11 @@
         <v>95316</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="4" customFormat="1">
+    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L79" s="4">
+      <c r="M79" s="4">
         <v>61319</v>
       </c>
       <c r="N79" s="4">
@@ -3887,11 +3858,11 @@
         <v>66403</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="4" customFormat="1">
+    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L80" s="4">
+      <c r="M80" s="4">
         <v>23159</v>
       </c>
       <c r="N80" s="4">
@@ -3907,11 +3878,11 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="4" customFormat="1">
+    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L81" s="4">
+      <c r="M81" s="4">
         <v>4636</v>
       </c>
       <c r="N81" s="4">
@@ -3927,12 +3898,12 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L82">
-        <f>L77+L79+L80+L81</f>
+      <c r="M82">
+        <f>M77+M79+M80+M81</f>
         <v>224133</v>
       </c>
       <c r="N82">
@@ -3952,16 +3923,16 @@
         <v>188188</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="4" customFormat="1">
+    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L85" s="4">
+      <c r="M85" s="4">
         <v>4</v>
       </c>
       <c r="N85" s="4">
@@ -3977,15 +3948,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="4" customFormat="1">
+    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L86" s="4">
+      <c r="M86" s="4">
         <v>44640444</v>
-      </c>
-      <c r="M86" s="4">
-        <v>48319838</v>
       </c>
       <c r="N86" s="4">
         <v>45335426</v>
@@ -4000,11 +3968,11 @@
         <v>48319838</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="4" customFormat="1">
+    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L87" s="4">
+      <c r="M87" s="4">
         <v>531636</v>
       </c>
       <c r="N87" s="4">
@@ -4020,11 +3988,11 @@
         <v>545321</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="4" customFormat="1">
+    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L88" s="4">
+      <c r="M88" s="4">
         <v>-429226</v>
       </c>
       <c r="N88" s="4">
@@ -4040,12 +4008,12 @@
         <v>-319601</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L89">
-        <f>L85+L87+L88</f>
+      <c r="M89">
+        <f>M85+M87+M88</f>
         <v>102414</v>
       </c>
       <c r="N89">
@@ -4065,12 +4033,12 @@
         <v>225725</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L91">
-        <f>L89+L82</f>
+      <c r="M91">
+        <f>M89+M82</f>
         <v>326547</v>
       </c>
       <c r="N91">
@@ -4090,12 +4058,12 @@
         <v>413913</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L92">
-        <f>L91-L68</f>
+      <c r="M92">
+        <f>M91-M68</f>
         <v>0</v>
       </c>
       <c r="N92">
@@ -4115,17 +4083,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>25</v>
       </c>
@@ -4142,12 +4110,12 @@
         <v>109625</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>65</v>
       </c>
@@ -4161,7 +4129,7 @@
         <v>33396</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>66</v>
       </c>
@@ -4175,7 +4143,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>67</v>
       </c>
@@ -4183,7 +4151,7 @@
         <v>-1046</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>125</v>
       </c>
@@ -4191,7 +4159,7 @@
         <v>9918</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>68</v>
       </c>
@@ -4205,7 +4173,7 @@
         <v>18939</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>69</v>
       </c>
@@ -4219,7 +4187,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
@@ -4233,7 +4201,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>71</v>
       </c>
@@ -4244,12 +4212,12 @@
         <v>-80375</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>73</v>
       </c>
@@ -4263,7 +4231,7 @@
         <v>-996</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>74</v>
       </c>
@@ -4277,7 +4245,7 @@
         <v>-6593</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>75</v>
       </c>
@@ -4291,7 +4259,7 @@
         <v>8019</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>76</v>
       </c>
@@ -4305,7 +4273,7 @@
         <v>-10208</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>46</v>
       </c>
@@ -4319,7 +4287,7 @@
         <v>-3236</v>
       </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>126</v>
       </c>
@@ -4327,7 +4295,7 @@
         <v>-1376</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>77</v>
       </c>
@@ -4344,12 +4312,12 @@
         <v>78598</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>81</v>
       </c>
@@ -4360,7 +4328,7 @@
         <v>-274</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>82</v>
       </c>
@@ -4371,7 +4339,7 @@
         <v>-27027</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>83</v>
       </c>
@@ -4382,7 +4350,7 @@
         <v>-15372</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>84</v>
       </c>
@@ -4399,12 +4367,12 @@
         <v>-42673</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>80</v>
       </c>
@@ -4412,7 +4380,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>90</v>
       </c>
@@ -4423,7 +4391,7 @@
         <v>-70750</v>
       </c>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>86</v>
       </c>
@@ -4431,7 +4399,7 @@
         <v>-4084</v>
       </c>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>87</v>
       </c>
@@ -4445,7 +4413,7 @@
         <v>-7845</v>
       </c>
     </row>
-    <row r="131" spans="1:29">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>88</v>
       </c>
@@ -4456,7 +4424,7 @@
         <v>-1297</v>
       </c>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>89</v>
       </c>
@@ -4468,7 +4436,7 @@
         <v>-335</v>
       </c>
     </row>
-    <row r="133" spans="1:29">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>127</v>
       </c>
@@ -4479,7 +4447,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="134" spans="1:29">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>91</v>
       </c>
@@ -4493,7 +4461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:29">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>92</v>
       </c>
@@ -4504,7 +4472,7 @@
         <v>-872</v>
       </c>
     </row>
-    <row r="136" spans="1:29">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>93</v>
       </c>
@@ -4521,7 +4489,7 @@
         <v>-7794</v>
       </c>
     </row>
-    <row r="138" spans="1:29">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -4538,12 +4506,12 @@
         <v>28131</v>
       </c>
     </row>
-    <row r="139" spans="1:29">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:29">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>96</v>
       </c>
@@ -4565,14 +4533,14 @@
       <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="9" width="10.83203125" outlineLevel="1"/>
     <col min="31" max="43" width="10.83203125" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="32" customHeight="1">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4691,7 +4659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1">
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -4843,7 +4811,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1">
+    <row r="3" spans="1:43" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -4868,12 +4836,12 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -4884,7 +4852,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -4895,7 +4863,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -4906,7 +4874,7 @@
         <v>13628</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -4919,12 +4887,12 @@
         <v>16226</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -4935,7 +4903,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -4946,7 +4914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -4957,7 +4925,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -4970,7 +4938,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -4981,7 +4949,7 @@
         <v>-4129</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -4994,22 +4962,22 @@
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -5017,7 +4985,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -5028,7 +4996,7 @@
         <v>154100</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -5039,7 +5007,7 @@
         <v>-36705</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -5052,12 +5020,12 @@
         <v>117395</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -5065,7 +5033,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -5076,7 +5044,7 @@
         <v>44086</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5087,7 +5055,7 @@
         <v>-6888</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -5100,12 +5068,12 @@
         <v>37198</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5113,7 +5081,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -5124,7 +5092,7 @@
         <v>14550</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -5135,7 +5103,7 @@
         <v>-505</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -5148,12 +5116,12 @@
         <v>14045</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -5161,7 +5129,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -5172,7 +5140,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -5183,7 +5151,7 @@
         <v>-15926</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -5196,12 +5164,12 @@
         <v>23074</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -5210,7 +5178,7 @@
         <v>5.5723924428309131</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5223,7 +5191,7 @@
         <v>251736</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -5236,7 +5204,7 @@
         <v>-60024</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -5249,7 +5217,7 @@
         <v>191712</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -5257,7 +5225,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -5280,12 +5248,12 @@
         <v>75705</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5296,7 +5264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -5307,7 +5275,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -5318,7 +5286,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>156</v>
       </c>
@@ -5331,12 +5299,12 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -5347,7 +5315,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>158</v>
       </c>
@@ -5358,7 +5326,7 @@
         <v>9587</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>159</v>
       </c>
@@ -5369,7 +5337,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -5380,17 +5348,17 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -5398,7 +5366,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -5409,7 +5377,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -5420,12 +5388,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -5450,7 +5418,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
